--- a/SPTrans.xlsx
+++ b/SPTrans.xlsx
@@ -15,90 +15,552 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="500">
   <si>
     <t>Treinamento</t>
   </si>
   <si>
-    <t>@sptrans sptrans, eu sou do prouni e já utilizo o bilhete único com o passe livre desde o ano passado. o que signif… https://t.co/dxfathkvbh</t>
-  </si>
-  <si>
-    <t>@sptrans tudo parado aqui! isso é greve!!!!</t>
-  </si>
-  <si>
-    <t>@sptrans em qual quadro me encaixo?
-porque no ano passado fiz o mesmo procedimento e ficou para encaminhar a univer… https://t.co/sp0yprjcmt</t>
-  </si>
-  <si>
-    <t>#minhocão já poderia ter sido demolido, mas seguimos insistindo em premissas duvidosas | #centrosp #zc #sptrans… https://t.co/dcqu4lqwtc</t>
-  </si>
-  <si>
-    <t>aprende goiás!!!! olha a eficiência dos cara https://t.co/nn3s0i7ino</t>
+    <t>@joelspinelli @sptrans boa sorte para encontrar alguém que sabe ler e interpretar no setor de reclamação da sptrans.</t>
+  </si>
+  <si>
+    <t>@sptrans não vou perder o meu tempo! vocês só fazem alguma coisa quando a imprensa divulga. esse portal nem se quer funciona direito.</t>
+  </si>
+  <si>
+    <t>@autotranscap já corrigimos, acabamos digitando errado o nome da via, ao olhar o itinerário da linha 807j/10 no site da sptrans 😉</t>
+  </si>
+  <si>
+    <t>@sptrans essas mudanças no vt são ridículas, numa época onde as pessoas estam cada vez mais perdendo seus empregos, vcs acham que o patrão da abertura de diálogo ou vai simplesmente arrumar outro funcionário que more mais perto? governo covas=morte...</t>
+  </si>
+  <si>
+    <t>estagiário claramente beyfã https://t.co/lz4afl8ifa</t>
+  </si>
+  <si>
+    <t>alô @sptrans problemas no site para cadastro do bilhete único, site não carrega.</t>
+  </si>
+  <si>
+    <t>@sptrans já aconteceu muitas vezes comigo kkkkk</t>
+  </si>
+  <si>
+    <t>#sptrans o que acontece dessa vez? ou outra vez vai informar que não mudou em nada o intinerario do ônibus 971r-10 e estamos aqui sem informações, tivemos que descer na metade do caminho! quem paga à conta o passageiro!
+#sptv pode nos ajudar?</t>
+  </si>
+  <si>
+    <t>@sptrans qdo coloco a data aparece essa mensagem ... e sem a data não consigo prosseguir. https://t.co/ynoqvmep7b</t>
+  </si>
+  <si>
+    <t>alguém sabe onde tem um posto da sptrans próximo???</t>
+  </si>
+  <si>
+    <t>@sptrans
+3 carros da linha 3459-10 passaram na sequência (na altura da penha), aí depois a gente fica 30 min, 40 min, esperando no ponto pq chegou nesse intervalo, isso acontece todos os dias. não dá para dar uma fiscalizada nisso aí?</t>
+  </si>
+  <si>
+    <t>@mobilidadesampa @mobilidadecotia @sptrans_ @emtu_oficial ↖️↘️ nfc ônibus - nyc 
+https://t.co/eypy6urcul</t>
+  </si>
+  <si>
+    <t>paralisação 
+após conversar com alguns motoristas do transporte público, a partir deste momento não haverá circulação dos ônibus. caberá  a @sptrans as devidas providências.  não houve pagamento aos funcionários. os ônibus sentido centro estão em sua última viagem. #paralisacao</t>
+  </si>
+  <si>
+    <t>eu tento frequentar as aulas mas ai a sptrans resolve fazer greve poxa nao foi dessa vez</t>
+  </si>
+  <si>
+    <t>parabéns aos responsáveis que cobram muito e não geram retorno eficiente.
+@sptrans @usuariocptm @cptm_oficial @rodrigobocardi #bdspower 
+@brunocovas @jdoriajr</t>
+  </si>
+  <si>
+    <t>@sptrans esse link que está no post não tem informação de nada, e mês passado solicitei o bilhete faltando 15 dias pra acabar o mês e tive a cota pro restante do mês todo,  e agora esse mês e disponibilizado 5 cotas  pro mês todo preciso entender porque pra questionar a instituição?</t>
+  </si>
+  <si>
+    <t>@sptrans tá tendo greve de ônibus? a consolação inteira tá com o corredor parado, cheio de ônibus e sem ninguém nos transportes</t>
+  </si>
+  <si>
+    <t>@sptrans difícil é vcs responde</t>
+  </si>
+  <si>
+    <t>@sptrans isso é um ônibus em condição digna de circulação? é isso que vcs acham que a população merece? é isso que a @prefsp permite que a sptrans faça? é disso para pior... https://t.co/kentoirxwx</t>
+  </si>
+  <si>
+    <t>to na sptrans e td mundo com blusa de frio e eu tranquilona de regata depois de descer a augusta inteira</t>
+  </si>
+  <si>
+    <t>@metrosp_oficial @sptrans som do metrô anunciando q, devido a greve de ônibus amanhã certas estações ficarão fechadas. a lógica do transporte público em sp é incrível, dia q não há ônibus passageiro tem andar a pé até a próxima estação que o metrô escolheu deixar aberta.</t>
+  </si>
+  <si>
+    <t>@andreagambale @sptrans @radiotransitofm andrea, você está indo pro terminal bandeira?</t>
+  </si>
+  <si>
+    <t>🚍🎲 não jogue objetos pela janela. além de poluir o meio ambiente, você pode causar acidentes ao atingir outros veículos. 😉👍 (@sptrans)</t>
+  </si>
+  <si>
+    <t>@sptrans certo, obrigada</t>
+  </si>
+  <si>
+    <t>aqui no terminal parque dom pedro  a linha 2582 (vila nova curuçá) funciona" horário " de acordo com humor  dos motoristas e cobradores  @brunocovas deveria tomar conhecimento disso  @sptrans  ? vocês  sabem disso  e outrem e não  fazem  nada  !
+#cbn #jovempan #band  #g1</t>
+  </si>
+  <si>
+    <t>atualização [14:42]
+está previsto para às 16h uma assembleia em frente à prefeitura de são paulo para definir os rumos da greve dos motoristas e cobradores na capital paulista. 
+#onibus #grevedosmotoristas #sptrans</t>
+  </si>
+  <si>
+    <t>@morearly se for pra ir em show/evento normalmente quando ta perto da data a sptrans libera no site as linhas que vão da estação direto pra lá a linha 3796/10 quase sempre ta nessa lista</t>
+  </si>
+  <si>
+    <t>inclusive para as manas de sp: a sptrans abriu um processo seletivo pra estudantes de ensino médio superior e técnico é só entrar no site do ciee e se inscrever https://t.co/4dje0z7eoc</t>
+  </si>
+  <si>
+    <t>@sptrans tudo isso pra me dar uma resposta automatica que está demorando muito enquanto meu bilhete está travado até para a opção de meia passagem? obrigada @sptrans</t>
+  </si>
+  <si>
+    <t>@andrezadelgado ja desisti da sptrans, eu paguei o boleto no começo do ano e eles n liberaram meu cartão pra recarga ate hoje
+exausta</t>
+  </si>
+  <si>
+    <t>@mobilidadesampa @mobilidadecotia @sptrans_ @emtu_oficial ↖️↘️ (2015) (nfc ônibus - riocard #rj) 
+https://t.co/wr6opxxcqu</t>
+  </si>
+  <si>
+    <t>@sptrans bilhete único</t>
+  </si>
+  <si>
+    <t>mais uma vez sem ônibus!!! aqui no jardim rincão, jaraguá, zona noroeste (linhas 8006/10 - 971r/10 - 888p/10 - 819a/10) #bdsp #bdsp @sptrans</t>
+  </si>
+  <si>
+    <t>@sptrans meu bilhete único é junto com o vt, ao fazer a mudança  para o personalizado os créditos do bilhete vão ser transferidos para o novo cartão? e em quanto tempo leva esse processo?</t>
+  </si>
+  <si>
+    <t>🌦☀️ faça chuva, frio ou calor, mantenha as janelas dos ônibus sem ar-condicionado c/ abertura suficiente https://t.co/p84cvvshtl (@sptrans)</t>
+  </si>
+  <si>
+    <t>#sptrans motoristas e cobradores de ônibus estão neste momento se deslocando para o viaduto do chá, sede da prefeitura de são paulo, para protestar.</t>
+  </si>
+  <si>
+    <t>#sptrans bilhete único: prazo para utilização do saldo superior a r$ 43 de créditos do tipo comum de cartões emitidos antes de 2014 vence em 30 de setembro
+https://t.co/xttga4svsx</t>
+  </si>
+  <si>
+    <t>#bdsp alô @rodrigobocardi e @gloria_vanique ... convido vcs a pegarem a linha 975a-10 brasilândia/ana rosa e ver que maravilha... imagina se tiver que abrir uma reclamação toda vez na sptrans como eles pedem !!! https://t.co/kvqahu7rkz</t>
+  </si>
+  <si>
+    <t>@sptrans @metrosp_oficial as máquinas de colocar dinheiro no metrô tatuapé estão todas indisponíveis, hoje de manhã peguei fila enorme para carregar o bilhete, favor verifique :)</t>
+  </si>
+  <si>
+    <t>a atendente da sptrans no terminal bandeira informou que só hoje foram 5 pessoas com o mesmo problema. não adianta ficar tweetando sem entregar um serviço decente ao cidadão. @sptrans</t>
+  </si>
+  <si>
+    <t>@sptrans corre aqui, rapidinho. https://t.co/osxsj5ofpx</t>
+  </si>
+  <si>
+    <t>@vpirajucara @linhasrmsp @sptrans @emtu_oficial @l4amarela_ @l5lilas @infosspbr @redenoticiando @sabina_simonato @mobilidadecotia @mobilidadesampa @radiotransitofm @otaboanense qual a reivindicação?</t>
+  </si>
+  <si>
+    <t>@sptrans o bilhete que tenho hoje vale até quando?</t>
+  </si>
+  <si>
+    <t>♿ pessoas c/ deficiência e mobilidade reduzida podem descer fora do ponto de ônibus, desde que respeitado https://t.co/gz8arb926o (@sptrans)</t>
+  </si>
+  <si>
+    <t>por que não fala que é manifestação dos próprios motorista de ônibus!!!!! https://t.co/kolaxitdqf</t>
+  </si>
+  <si>
+    <t>edital de abertura de vagas de estágio na sptrans... ensino médio, técnico e superior.
+https://t.co/ptgahch61a</t>
+  </si>
+  <si>
+    <t>@sptrans @sptrans_ como faco</t>
+  </si>
+  <si>
+    <t>processos especiais - sptrans - edital 01/2019 https://t.co/omuhkmnu3v</t>
+  </si>
+  <si>
+    <t>@sptrans oi gata</t>
+  </si>
+  <si>
+    <t>namoral quero mto q todos os sptrans morram pq q bando de filha da puta desgraçado não tem nada pra fazer levou meu ônibus embora namoral eu to muito puto com esse desgraçado não deve ter mãe esse merda do caralho filha da puta eu so quero ir pra casa e esse desgraçado vem vsf</t>
+  </si>
+  <si>
+    <t>@metrosp_oficial @sptrans é bem melhor mesmo, obrigada metrô</t>
+  </si>
+  <si>
+    <t>deveria ser proibido mulher ficar na cola do motorista no ônibus só pra descer na frente 
+ajuda ae @sptrans</t>
+  </si>
+  <si>
+    <t>taí pra quem não sabia de quem a sptrans gosta https://t.co/mk5aajkv6w</t>
+  </si>
+  <si>
+    <t>@claradelarge hahahahaha @sptrans eu tbm n recebi o meu ainda</t>
+  </si>
+  <si>
+    <t>@sptrans obrigado pelo retorno</t>
+  </si>
+  <si>
+    <t>galera. não é do nada. o covas quer reduzir a frota de onibus. melhor um dia com greve do que ficar sem varios ônibus. vamos nos atentar e apoiar. vejam outras alternativas ainda tem metrô/trem e perua. bora lá!!!!!! #grevedeonibus #sãopaulo #sptrans https://t.co/54aqlc2yn9</t>
+  </si>
+  <si>
+    <t>@sptrans tem notícia de greve na região do cachoerinha?</t>
+  </si>
+  <si>
+    <t>é um absurdo isso... #sptrans https://t.co/bwiwv0tsuj</t>
+  </si>
+  <si>
+    <t>mano do ceu quase q nao volto pra casa hj
+sptrans vai toma no cuuuuy</t>
+  </si>
+  <si>
+    <t>@sptrans terão que prorrogar novamente, rs</t>
+  </si>
+  <si>
+    <t>sptrans abre vagas de estágio e cadastro reserva
+https://t.co/dgzcbcaogu</t>
+  </si>
+  <si>
+    <t>@sptrans essa gestão do senhor @brunocovas se deus quiser vai ter fim, o pior perfeito da história, só toma atitudes que ferram o povo, caiu de paraquedas na prefeitura, se deus quiser nem síndico de prédio vai ser mais, conseguiu ser pior que o avô...</t>
+  </si>
+  <si>
+    <t>@sptrans combatendo a segregação com mais segregação desde 88.</t>
+  </si>
+  <si>
+    <t>alô @sptrans vai ter greve ou nem?</t>
+  </si>
+  <si>
+    <t>@sptrans  ola, da pra recarregar o bilhete único estudantil pelo aplicativo?</t>
+  </si>
+  <si>
+    <t>greve: bruno covas não atende sindicato dos motoristas de ônibus, e categoria promete parar amanhã, dia 6
+#greve #sptrans
+ https://t.co/ypw6ur3ifd</t>
+  </si>
+  <si>
+    <t>@sptrans vocês poderiam, por gentileza, me enviar um e-mail já que é impossível o contato com a central? pois são tantas coisas para reclamar que se for via twitter eu vou ficar mais estressada ainda.</t>
+  </si>
+  <si>
+    <t>#sptrans nesta terça-feira, dia 3 de setembro, o terminal vila carrão receberá a unidade móvel lgbti para assistência aos passageiros. 
+https://t.co/9xn1v6t6ti</t>
+  </si>
+  <si>
+    <t>@loiranoob pelo menos no cartório aqui perto tem wi-fi, tenso mesmo é ir no poupatempo ou no sptrans</t>
+  </si>
+  <si>
+    <t>@sptrans tirar os ônibus novos e colocar um monte de velharia no lugar, é correto? a sptrans está de acordo com isso?? além de andar feito sardinha em lata, ainda tem que ser em um ônibus sujo e velho!! ajudaram muito!!!</t>
+  </si>
+  <si>
+    <t>@sptrans @andrezadelgado no começo do ano, paguei o boleto para voltar a usar meu bilhete. acontece que mesmo após o pagamento ele não foi liberado para recarga. eu ligo e me dizem que está tudo normalizado.</t>
+  </si>
+  <si>
+    <t>#sptrans os terminais bandeira e parque dom pedro ii estão neste momento sendo afetados pela manifestação em apoio aos atos do sindmotoristas.
+acesse o link e confira às últimas informações:
+https://t.co/jb27bs9fhb</t>
+  </si>
+  <si>
+    <t>boa noite. eu nem iria prolongar a reclamação. mas olha aí quando eu até enviei a foto com o prefixo do ônibus em uma reclamação anterior. mas deixa assim, obrigado. https://t.co/zca6trwazr</t>
+  </si>
+  <si>
+    <t>@sptrans bom dia. entrei em contato no número 156 para regularizar meu cadastro do app e aproveitei para falar sobre os atrasados na linha 846m. porém, me pediram o prefixo do carro, como passar o prefixo de um ônibus que não passou? o app pede a mesma coisa.</t>
+  </si>
+  <si>
+    <t>@club1sta poderia ser terminal santo amaro - terminal lapa, hahahaha. a sptrans já tentou, mas os moradores ali do socorro reclamaram. de manhã ela sai cheia do final.</t>
+  </si>
+  <si>
+    <t>@sptrans muito bom, em terminal de ônibus e bem longe das escolas.</t>
+  </si>
+  <si>
+    <t>@andreagambale @sptrans @radiotransitofm parece que é uma greve</t>
+  </si>
+  <si>
+    <t>@sptrans não me pedem senha....isso que está difícil....agora o mais difícil é colocar uma foto que funcione....ja foram 4 e nenhuma deu certo.. ..tenho que ir em algum lugar pra fazer certo?? tipo....na central da sptrans??</t>
+  </si>
+  <si>
+    <t>@sptrans @sptrans_ ja cancelei. o que eu quero agora é a carteirinha de estudante, no site sotrans diz q faculdade não enviou relatório de matrícula, só que enviou sim, eu estava presente quando o fizeram e não consigo emitir o boleto pra pagar a taxa. o q preciso fazer?</t>
+  </si>
+  <si>
+    <t>@__amandanc @sptrans aproveitando o embalo jurídico https://t.co/6vrucsphif</t>
+  </si>
+  <si>
+    <t>@sptrans acho engraçado, quando a prefeitura perdeu a liminar das 4 integrações precisou de 15 dias para mudar o sistema, mas quando ganhou, precisou só de 15 minutos para fazer a mesma mudança, me roubaram uma condição, faça bom proveito sr @brunocovas</t>
+  </si>
+  <si>
+    <t>@sptrans tenho um bilhete único vt vou precisar troca-lo ?</t>
+  </si>
+  <si>
+    <t>indo lá na sptrans passar n e r v o s o</t>
+  </si>
+  <si>
+    <t>@sptrans no site da sptrans, o numero do cartão 729636666 https://t.co/yje13clarl</t>
+  </si>
+  <si>
+    <t>@marquesliih escola falou  pra ir na sptrans resolver</t>
+  </si>
+  <si>
+    <t>#sptrans o sindicato informou que caso o executivo não se manifeste, a frota de ônibus começará a ser recolhida na capital.
+acesse o link e confira as últimas informações: 
+https://t.co/isyyfuuakp</t>
+  </si>
+  <si>
+    <t>@sptrans obrigada, mas a maioria é longe de mim</t>
+  </si>
+  <si>
+    <t>@sptrans tô vendo alteração, nenhuma linha subindo a estrada de taipas! população só se fode #bdsp  @g1 @pmesp  por medo de criminosos, os ônibus não sobem. prejudicando quem vem da estação jaraguá. linha 888p e 917r não estão operando. só lotação que é crime que está operando.</t>
+  </si>
+  <si>
+    <t>@sptrans  boa tarde, meu bilhete estudante foi cancelado antes mesmo de ir pra faculdade, como faço para solicitar outro</t>
+  </si>
+  <si>
+    <t>@sptrans obg. não quero prejudicar ngm. mas se existem orientações elas tem de ser seguidas e demonstradas, qto mais bons exemplos, mais cidadãos/passageiros conscientes! 👍</t>
+  </si>
+  <si>
+    <t>em sp é lei desde 2011 q #visaomonocular e #deficientevisual mas,a #sptrans não cumpre a lei e nós #monoculares só conseguimos o direito ao #bilheteunicoespecial através da #justica e os srs @brunocovas e @jdoriajr nunca me responderam!quem sabe a vcs do #borasp eles respondam...</t>
+  </si>
+  <si>
+    <t>@sptrans greve de ônibus? estava na linha 178l-10 na rua da consolação, sentindo centro e mandaram todos saírem do ônibus , devido à greve, é isso mesmo?!</t>
+  </si>
+  <si>
+    <t>#centro interferência no viaduto do chá e líbero badaró afeta a circulação dos ônibus na região. linhas c https://t.co/ryzpxjz6b6 (@sptrans)</t>
+  </si>
+  <si>
+    <t>@g1saopaulo @sptrans @prefsp reduzir mais??? que vergonha</t>
+  </si>
+  <si>
+    <t>@sptrans @sptrans por essa ferramenta não é possível registrar reclamação inferior a 30 dias. o que aconteceu foi menos de 1 semana. como proceder então?</t>
+  </si>
+  <si>
+    <t>@sptrans quero falar pessoalmente com algum supervisor. é possível?</t>
+  </si>
+  <si>
+    <t>@sptrans tem um ponto de ônibus próximo a minha residência há pelo menos 4 anos. oq acontece? nunca puxaram uma linha de ônibus para cá, o ponto está decorativo. como posso proceder para conseguir que alguma linha de ônibus venha para cá?  é bem próximo do metrô guilhermina https://t.co/oe3cjyx6yj</t>
+  </si>
+  <si>
+    <t>@sptrans @rodrigobocardi @cesartralli @gloria_vanique @g1saopaulo como vou digitar se eu liguei para o 156????</t>
+  </si>
+  <si>
+    <t>até 15/9 você pode se inscrever no processo seletivo para 51 vagas de estágio e cadastro reserva para alunos do ensino médio, técnico e superior, além das vagas para pessoas com deficiência e afrodescendentes, na @sptrans. participe: https://t.co/ff8oqpfjvq https://t.co/3ksqnyn8uz</t>
+  </si>
+  <si>
+    <t>os embustes fingem dormir ou q não estão vendo. sem contar os q sentam no assento preferencial, devia ser proibido. povo é mt sem educação e noção. fora os machos q abrem as pernas parecendo q vão parir https://t.co/3tethn8bs5</t>
+  </si>
+  <si>
+    <t>✨ 1h30 numa fila da sptrans que não precisava ✨</t>
+  </si>
+  <si>
+    <t>nossa minha foto ficou mo zuada nesse cartão da sptrans vsf toxica demais</t>
+  </si>
+  <si>
+    <t>@arthurmoledoval curso pós graduação e como utilizo transporte público no dia do meu rodízio, solicitei  o bilhete único de estudante para ir ao curso, mas depois q solicitei atraves do site da sptrans e paguei a taxa, tive a ingrata surpresa ao saber q tal bilhete é a carteirinha da une 😠</t>
+  </si>
+  <si>
+    <t>#sptrans os terminais bandeira e parque dom pedro ii estão neste momento sendo afetados pela manifestação em apoio aos atos do sindmotoristas.
+acesse o link e confira às últimas informações:
+https://t.co/gxt4dr6viy</t>
+  </si>
+  <si>
+    <t>perdi meu cartão do metrô e tô tentando cancelar, mas o 156 da @sptrans não atende de jeito nenhum, o que eu faço</t>
+  </si>
+  <si>
+    <t>@sptrans a sptrans diz uma coisa e o usuário vê outra. e sobre uma reclamação poder ser resolvida via site e outra via twitter...desculpe,mas é injustificável. apenas evitem faltar com a verdade quando postam sobre todos os ônibus com ar condicionado terem os equipamentos sempre ligados.</t>
+  </si>
+  <si>
+    <t>a vai te fuder doria e sptrans</t>
+  </si>
+  <si>
+    <t>@sptrans vcs poderiam me responder quando mais ou menos meu cartão chega??? https://t.co/zqp6a1klsl</t>
+  </si>
+  <si>
+    <t>#sptrans o sindicato que representa os trabalhadores do transporte na capital definiram um plano de lutas que pode culminar em uma eventual paralisação na sexta-feira, dia 6. 
+consulte neste link às informações sobre o ato: 
+https://t.co/un4xewad0f</t>
+  </si>
+  <si>
+    <t>#sptrans bilhete único: prazo para utilização do saldo superior a r$ 43 de créditos do tipo comum de cartões emitidos antes de 2014 vence em 30 de setembro
+https://t.co/qm3iqkaijg</t>
+  </si>
+  <si>
+    <t>fiz meu bilhete único pelo site da sptrans. mas quem disse que consigo ver a que pé anda? 😂</t>
+  </si>
+  <si>
+    <t>@sptrans quando estou indo trabalhar pela manhã, por volta das 6am é cobrado nas catracas do meu bilhete único (vt) no metrô jabaquara o valor de r$3,75
+e na volta, por volta das 3-4pm no metrô japão - liberdade é cobrado r$4,30. 🤔</t>
+  </si>
+  <si>
+    <t>@sptrans meu passe livre, ainda nada das minhas cotas 
+é a primeira vez que eu faço e não sei o que pode estar acontecendo</t>
   </si>
   <si>
     <t>#sptrans vagas são destinadas a estudantes dos níveis médio, técnico e superior
-clique no link e obtenha todas as… https://t.co/c4in3zwu0f</t>
-  </si>
-  <si>
-    <t>@sptrans não sei qual desses é então... https://t.co/tungmekbt4</t>
-  </si>
-  <si>
-    <t>@sptrans não vou perder o meu tempo! vocês só fazem alguma coisa quando a imprensa divulga. esse portal nem se quer funciona direito.</t>
-  </si>
-  <si>
-    <t>passei no sptrans, na triagem, para pedir informações sobre como tirar um cartão novo de bilhete único, e me deram… https://t.co/g0b0v3rxhv</t>
-  </si>
-  <si>
-    <t>@cristia53822624 @sptrans está fechado sim</t>
-  </si>
-  <si>
-    <t>protesto x ônibus - neste momento, segundo a sptrans, os terminais parque dom pedro, bandeira, pinheiros, campo lim… https://t.co/h1tl6urdbz</t>
-  </si>
-  <si>
-    <t>quer dizer, o sendentarismo vai morrer comigo andando ate a sptrans pra levar um tapa na cara do bruno covas</t>
-  </si>
-  <si>
-    <t>alô, @sptrans , me helpa hahahaha</t>
-  </si>
-  <si>
-    <t>mais um dia bolado com a api da sptrans que mostra a previsão da chegada do ônibus com grau de acerto aleatório</t>
+clique no link e obtenha todas as informações: 
+https://t.co/wl2hops1dk</t>
+  </si>
+  <si>
+    <t>@sptrans boa tarde meu bilhete de estudante foi carregado com 5 cotas já tô cansado de ficar mandando mensagem pra resolver isso ?número do bilhete 729409723 https://t.co/7izaepefps</t>
+  </si>
+  <si>
+    <t>@__allansilva__ @sptrans sim, ja reportei 2 ônibus com problemas na recarga dos bilhetes e eles ignoraram, a @sptrans é uma das piores prestadoras de serviço e a @prefsp parece que nem liga para isso, só sabem aumentar a passagem, ano que vem vai ter outro reajuste referente aos 3 últimos anos.</t>
+  </si>
+  <si>
+    <t>vou entrar no procon, https://t.co/liou4il2s3, reclame.aqui, no judiciário inteiro contra essa merda de @sptrans.</t>
+  </si>
+  <si>
+    <t>@sptrans bilhete único (empresa)</t>
+  </si>
+  <si>
+    <t>#sptrans 15 linhas terão desvios de itinerário das 7h às 19h desta terça e quarta-feira, dias 3 e 4 de agosto, durante a abrafarma future trends 2019, no transamérica expo center. 
+https://t.co/xequtwn2qg</t>
+  </si>
+  <si>
+    <t>@sptrans vamo dar uma olhada no terminal joão dias linha 6400 terminal bandeira a pausa dos ônibus é absurda, meia hr a quarenta min e quando chega o motorista vai namorar, tomar seu café e nós ficamos aqui esperando.</t>
+  </si>
+  <si>
+    <t>@jeskagrecco a fila da sptrans meu pai</t>
+  </si>
+  <si>
+    <t>@sptrans malditos me ajudem 🥺🥺</t>
+  </si>
+  <si>
+    <t>eu tô um mês brigando com a sptrans por causa de um bilhete, já vou eu levantar pra ir lá mais uma vez</t>
+  </si>
+  <si>
+    <t>ônibus c lixeira ok.
+ao lado cobrador, q come um doce ok.
+ele espera abrir a porta do veículo p jogar a embalagem na rua e mais a frente o palito.
+quem devia dar bom exemplo não dá, não poderá cobrar dos outros. lamentável 😐#sptrans</t>
+  </si>
+  <si>
+    <t>@sptrans amigo, acho que você não entendeu toda a situação. 
+enfim, vou entrar no procon primeiro, depois aciono os outros meios. desisto de vocês. boa tarde!</t>
+  </si>
+  <si>
+    <t>#sptrans 15 linhas terão desvios de itinerário das 7h às 19h desta terça e quarta-feira, dias 3 e 4 de agosto, durante a abrafarma future trends 2019, no transamérica expo center. 
+https://t.co/oaphmn2be7</t>
+  </si>
+  <si>
+    <t>👑❤️ aquele momento em que o crush do ônibus oferece para segurar minha mochila 
+🤗 🐝 seja gentil! ofer https://t.co/u8ln2fqmfn (@sptrans)</t>
+  </si>
+  <si>
+    <t>@sptrans é greve de ônibus mesmo, a sptrans deveria orientar os usuários e não ficar postando interferência apenas.</t>
   </si>
   <si>
     <t>alô @sptrans tá na hora de aumentar a frota do vila industrial 3112 porque olha, difícil</t>
   </si>
   <si>
+    <t>📆 tem um bilhete único não personalizado ou emitido antes de 2014 com mais de r$ 43,00 de créditos do tipo comum? lembre-se, o prazo para utilização desse valor excedente vai até 30/09/2019.
+acesse e consulte a situação do seu cartão: https://t.co/bpioya7ewu https://t.co/8ghn3z9wih</t>
+  </si>
+  <si>
+    <t>@sptrans foi ontem, dia 03/09, por volta de 13h</t>
+  </si>
+  <si>
+    <t>eu ainda preciso ir no posto da sptrans desbloquear meu cartão</t>
+  </si>
+  <si>
+    <t>@lilnaomi1 @sptrans né meu</t>
+  </si>
+  <si>
+    <t>assista a "qual a diferença entre cmtc e sptrans?" no youtube https://t.co/y24w16x4ws</t>
+  </si>
+  <si>
+    <t>alguém sabe se há paralisação dos ônibus da @sptrans em são paulo? parque dom pedro está um caos.</t>
+  </si>
+  <si>
+    <t>@sptrans mesmo tendo pago o boleto, tem dias que não chega meu bilhete, vou perder bolsa de estudos e matricula, sem condições.</t>
+  </si>
+  <si>
+    <t>processo seletivo tem edital de abertura divulgado pela sptrans | pci
+https://t.co/xdjyjcozab</t>
+  </si>
+  <si>
+    <t>#bdsp @sptrans mudou posicionamento das placas de identificação dos ônibus, já era difícil de ler, agora ficou impossível. letreiro eletrônico com intervalo grande entre a mudança de informações, em ponto logo após uma curva, passageiro não tem tempo de visualizar corretamente. https://t.co/y81tfsfqch</t>
+  </si>
+  <si>
+    <t>eu to muito estressada, vai se foder sptrans de shit</t>
+  </si>
+  <si>
+    <t>@sptrans libera meu passe livre ai aaaaaaaaaaa , ja esta tudo ok no cadunico e fica dando erro no site de vocês falando que não consta</t>
+  </si>
+  <si>
+    <t>alô @sptrans tô tentando me cadastrar no bilhete único e diz que eu já estou cadastrado, mas aí quando coloco meus dados e tento recuperar a senha diz que meu cadastro não existe. acode aí pfvr</t>
+  </si>
+  <si>
+    <t>hoje a sptrans conseguiu me fazer ficar literalmente mais tempo esperando ônibus que dentro de ônibus</t>
+  </si>
+  <si>
+    <t>@sptrans olá. entendi. perguntei porque achei a situação em si bem estranha</t>
+  </si>
+  <si>
+    <t>@sptrans certo o que se vê diariamente não reflete isso, ônibus e lotações sempre sujos e em mal estado, o aceio desses veículos é questão de saúde pública pois esse meio é eficaz na transmissão de vírus e bactérias, fiscaliza melhor, ou melhor, fiscaliza mesmo sptrans.</t>
+  </si>
+  <si>
+    <t>@fabio_flavio81 @sptrans @mobilidadesampa @brunocovas @jdoriajr @junior013santos @robertapeereira @prefsp estamos a disposição. 👍🤝</t>
+  </si>
+  <si>
+    <t>sptrans te odeio eternamente</t>
+  </si>
+  <si>
     <t>pelo amor de deus @sptrans até quando vcs vao deixar esses terminais de recarga estragarem meu bilhete único??? é a terceira vez já</t>
   </si>
   <si>
-    <t>sptrans implanta linha de atendimento 3006/21 etec guaianazes – cptm guaianazes a partir do dia 9… https://t.co/vh1bphjh6q</t>
-  </si>
-  <si>
-    <t>@sptrans me atrasei pro trabalho e fiquei sem carregar e agora vou pegar dinheiro do cu pra carregar o resto né? e… https://t.co/nxumwrqv9o</t>
-  </si>
-  <si>
-    <t>@sptrans então é só eu ir em um posto e retirar?</t>
+    <t>@sptrans me respondam pfvr 🙏</t>
+  </si>
+  <si>
+    <t>@sptrans uma pergunta: esses motoristas de ônibus q ficava carregando mulher junto c eles na frente e ficam o tempo todo conversando e não fazem o serviço deles correctamente e detalhe mulher e volta c eles em várias viagens . na presenciei esse fato , é correto?</t>
+  </si>
+  <si>
+    <t>@luan_f_goulart @sptrans que absurdo!</t>
+  </si>
+  <si>
+    <t>@sptrans muito obrigado pela resposta! 😁</t>
+  </si>
+  <si>
+    <t>quando é pra elogiar, a gente elogia! 
+a equipe da @sptrans me atendeu super rápido no terminal bandeira e já sai de lá com bilhete único novo! a troca é #obrigatoriá até 30/09! #bilheteunico</t>
+  </si>
+  <si>
+    <t>😌 💳 o bilhete único personalizado é emitido na hora e em qualquer posto! faça o seu cadastro através do https://t.co/8l08ypnpkz (@sptrans)</t>
+  </si>
+  <si>
+    <t>@sptrans gente, o motor do ônibus 63109 está insuportável. parece que vai explodir. os passageiros tudo reclamando.</t>
+  </si>
+  <si>
+    <t>@sptrans quais são as condições do transporte neste momento?</t>
+  </si>
+  <si>
+    <t>daqui a pouco o dó.ria muda sptrans pra spcis</t>
+  </si>
+  <si>
+    <t>@sptrans eu preciso de ajuda com meu bilheteeeeee</t>
   </si>
   <si>
     <t>#emtu | assista nosso vídeo #guararema a #mogidascruzes via #ônibus suburbano #artesp | #emtu #sptrans https://t.co/lt35e89t2w</t>
   </si>
   <si>
-    <t>@sptrans @andrezadelgado no começo do ano, paguei o boleto para voltar a usar meu bilhete. acontece que mesmo após… https://t.co/auztugcpcv</t>
-  </si>
-  <si>
-    <t>@sptrans bilhete inválido 
-como se ele não estivesse funcionando mais</t>
-  </si>
-  <si>
-    <t>@sptrans obg. não quero prejudicar ngm. mas se existem orientações elas tem de ser seguidas e demonstradas, qto mai… https://t.co/eblxuhhbax</t>
-  </si>
-  <si>
-    <t>sejam mais espertos equipe de negócio aí da @sptrans ou quem quer que seja o responsável por criar tal regra. se ex… https://t.co/kyrquay0rt</t>
-  </si>
-  <si>
-    <t>@darvinic @sptrans estão protestando em frente à prefeitura.</t>
-  </si>
-  <si>
-    <t>terminal sacomã travado, ônibus fechando entradas e saídas @sptrans @metrosp_oficial</t>
+    <t>@sptrans sim primeira via, como eu vou saber quando chegar???</t>
+  </si>
+  <si>
+    <t>observou ônibus c/ falta de limpeza? anote o prefixo dele e nos informe, para que possamos identificá-lo e inspecioná-lo (@sptrans)</t>
+  </si>
+  <si>
+    <t>@radiotransitofm @diariodacptm a sptrans está querendo fazer a redução novamente na frota de sp e manda milhares de motoristas e cobradores embora</t>
+  </si>
+  <si>
+    <t>@sptrans liguei no 156 para resolver referente ao meu passei livre (que está entrando menos cotas, para ônibus, do que costuma entrar) e não resolveram nada, mandou ir em um posto de atendimento (como sempre), então pra que tem esse atendimento pelo telefone?</t>
+  </si>
+  <si>
+    <t>@sptrans poderiam me responder por favor</t>
+  </si>
+  <si>
+    <t>@sptrans as máquinas do terminal capelinha estao sem comunicação com o servidor..</t>
+  </si>
+  <si>
+    <t>@metrosp_oficial acabei de passar a catraca do metrô no tatuapé e para variar ficou lendo é pedindo para aguardar é "surprise" em vez de cobrar 3,18 a integração com ônibus cobrou 4,30 e agora erro da catraca, da sptrans? sitema podre e ainda pagamos caro.</t>
+  </si>
+  <si>
+    <t>@sptrans necessário não só pro público lgbt como pra quem tem a necessidade. a capacidade e humanidade de ajudar e acolher quem precisa, ainda mais nesse setembro amarelo, é mais que um dever do estado, é um dom de poucos .</t>
+  </si>
+  <si>
+    <t>alô @sptrans, da um help para gatinha aqui</t>
   </si>
   <si>
     <t>linha 177h/10 metrô santana – cidade universitária operada pela sptrans deixará de circular aos sábados 
@@ -106,1292 +568,1005 @@
 https://t.co/ogmsbp5cod</t>
   </si>
   <si>
-    <t>@sptrans quero as vagas de comunicação interna po</t>
-  </si>
-  <si>
-    <t>#sptrans bilhete único: prazo para utilização do saldo superior a r$ 43 de créditos do tipo comum de cartões emitid… https://t.co/faxailoqmc</t>
-  </si>
-  <si>
-    <t>@sptrans olá, eu gostaria de tirar uma dúvida, não estou conseguindo mandar a foto quando faço o cadastramento do u… https://t.co/zxvrh8k5ou</t>
-  </si>
-  <si>
-    <t>@sptrans poderiam me responder por favor</t>
-  </si>
-  <si>
-    <t>mais uma vez o ônibus da @sptrans quebrou, o cobrador gritando igual um louco mandando as pessoas descerem logo e p… https://t.co/h2fz6qllgn</t>
-  </si>
-  <si>
-    <t>sptrans abriu processo seletivo, e eu não posso me inscrever :(</t>
-  </si>
-  <si>
-    <t>@sptrans tem notícia de greve na região do cachoerinha?</t>
-  </si>
-  <si>
-    <t>@loiranoob pelo menos no cartório aqui perto tem wi-fi, tenso mesmo é ir no poupatempo ou no sptrans</t>
-  </si>
-  <si>
-    <t>@sptrans c4r4lh0, prefeito interino @brunocovas! que ideia genial! varrer e lavar os pontos de ônibus vomitados e c… https://t.co/0ezguxas8d</t>
-  </si>
-  <si>
-    <t>quando é pra elogiar, a gente elogia! 
-a equipe da @sptrans me atendeu super rápido no terminal bandeira e já sai d… https://t.co/vkxw7yrc5m</t>
-  </si>
-  <si>
-    <t>menos de sexta galera, tá permitido o fone no talo p pessoal do lado ouvir as batida de funk https://t.co/nryrpuoljr</t>
-  </si>
-  <si>
-    <t>@sptrans era isso mesmo. essa mudança só dá pra fazer online ou dá pra fazer no posto de atendimento?</t>
-  </si>
-  <si>
-    <t>@andreagambale @sptrans @radiotransitofm parece que é uma greve</t>
-  </si>
-  <si>
-    <t>@sptrans preciso personalizar o bilhete e quando tento cadastrar o sistema informa que já estou cadastrado, não con… https://t.co/chb4na5peb</t>
-  </si>
-  <si>
-    <t>@sptrans combatendo a segregação com mais segregação desde 88.</t>
-  </si>
-  <si>
-    <t>@sptrans esse 3 3148 indo p pq dom pedro.</t>
-  </si>
-  <si>
-    <t>@sptrans boa noite 
-tem greve dos ônibus amanhã?</t>
-  </si>
-  <si>
-    <t>#sptrans 15 linhas terão desvios de itinerário das 7h às 19h desta terça e quarta-feira, dias 3 e 4 de agosto, dura… https://t.co/5rwbmaxgro</t>
-  </si>
-  <si>
-    <t>eu e mais outros colegas não estamos conseguindo ter acesso ao bilhete de estudante da @sptrans porq diz que a matr… https://t.co/v58ne8savp</t>
+    <t>@sptrans eu tenho o passe livre e fui recarga como assinei o contra como jovem n sabia q iriam depositar já e aí caiu no bilhete, ai tá me prejudicando relação a gastar mais condução e n ser nem do meu estudantil fora a integração que não está tendo com a passagem normal.</t>
+  </si>
+  <si>
+    <t>@sptrans tá rolando alguma paralisação para os lados da zona norte e oeste?</t>
+  </si>
+  <si>
+    <t>@sptrans @dessatino olá, boa tarde! encaminhamos sua mensagem a empresa dona das máquinas para verificar as máquinas. obrigado</t>
+  </si>
+  <si>
+    <t>espero que o criador desse aplicativo se foda muito nessa vida igual eu me fodi hoje @sptrans https://t.co/pi4gakazlt</t>
+  </si>
+  <si>
+    <t>quero denunciar agressão física de funcionários da linha 9501 (terminal vila nova cachoeirinha), n° do ônibus 1 1115, horário: 11h45, aprox, no largo do paisandu. a vítima era um ciclista. puxe imagens das câmeras. @sptrans</t>
+  </si>
+  <si>
+    <t>@cesartralli  já não tem ônibus e ainda reduzem a frota !  @sptrans  #sp1</t>
+  </si>
+  <si>
+    <t>hoje o terminal cidade tiradentes recebe a unidade móvel lgbti, das 13h às 18h, para orientação #gratuita aos passageiros, com articuladores sociais para prestação de serviços como assistência social, assessoria psicológica e jurídica. não perca! - com @sptrans</t>
   </si>
   <si>
     <t>@sptrans é só ficar na pequena fila de 2 quarteirões...</t>
   </si>
   <si>
-    <t>#sptrans nesta terça-feira, dia 3 de setembro, o terminal vila carrão receberá a unidade móvel lgbti para assistênc… https://t.co/6eamjk9dzo</t>
-  </si>
-  <si>
-    <t>até 15/9 você pode se inscrever no processo seletivo para 51 vagas de estágio e cadastro reserva para alunos do ens… https://t.co/mstm6cmm9t</t>
-  </si>
-  <si>
-    <t>@sptrans bom dia. entrei em contato no número 156 para regularizar meu cadastro do app e aproveitei para falar sobr… https://t.co/0mr09dmjkc</t>
-  </si>
-  <si>
-    <t>@sptrans já deixei queixa e não ajudou nada! vou deixar uma por dia pra ver se resolve</t>
-  </si>
-  <si>
-    <t>@aracatym @sptrans exato. você reclama por aqui e eles mandam você abrir chamado, ligar não sei onde e nunca recebe respaldo da reclamação.</t>
-  </si>
-  <si>
-    <t>@sptrans esse tipo aqui
-na hora que colocou meu bilhete a tela carrega e diz  "estamos sem comunicação com o servi… https://t.co/g9rspefv9p</t>
-  </si>
-  <si>
-    <t>@radiotransitofm @diariodacptm a sptrans está querendo fazer a redução novamente na frota de sp e manda milhares de… https://t.co/hkl2k9lzmq</t>
-  </si>
-  <si>
-    <t>@sptrans o que precisarei levar para solicitar a segunda via</t>
-  </si>
-  <si>
-    <t>mano a sptrans me odeia nao eh possivel</t>
-  </si>
-  <si>
-    <t>@sptrans estou desde às 9h da manhã tentando entrar em contato com vocês via telefone e não obtive êxito em momento… https://t.co/px7lxkjtou</t>
-  </si>
-  <si>
-    <t>carro 47149 residencial santa barbara-&amp;gt; metro carrão: passou na rua castor 51 às 6:55 e ainda estamos na avenida ar… https://t.co/tfx4xzlds3</t>
-  </si>
-  <si>
-    <t>@natsomera @sptrans eu tava sem saldo ontem voltando da faculdade, aí me passaram uns dados de um cartão pra compra… https://t.co/cpldpzeakb</t>
-  </si>
-  <si>
-    <t>@sptrans obrigada, mas a maioria é longe de mim</t>
-  </si>
-  <si>
-    <t>@sptrans pode me ajudar colocando ônibus descente pra rodar e diminuindo o intervalo deles, assim que podem me ajudar</t>
-  </si>
-  <si>
-    <t>greve: paralisação dos ônibus da cidade de são paulo pode ocorrer na próxima sexta-feira (6), diz sindicato
-#greve… https://t.co/gwpiwho9p3</t>
-  </si>
-  <si>
-    <t>@sptrans me respondam pfvr 🙏</t>
-  </si>
-  <si>
-    <t>@sptrans os novos ônibus não terão mais as indicações de regiões, por cor? tenho visto vários deles, todos completamente prateados. #bdsp</t>
-  </si>
-  <si>
-    <t>alô @sptrans, da um help para gatinha aqui</t>
-  </si>
-  <si>
-    <t>@sptrans necessário não só pro público lgbt como pra quem tem a necessidade. a capacidade e humanidade de ajudar e… https://t.co/guw5c9fgh7</t>
-  </si>
-  <si>
-    <t>@sptrans quais são as condições do transporte neste momento?</t>
-  </si>
-  <si>
-    <t>@sptrans_ @sptrans boa  tarde fiz o cadastro para pedir o bilhete so que agora nao consigo entrar para enviar a fot… https://t.co/2ho1yc0dbe</t>
-  </si>
-  <si>
-    <t>paralisação 
-após conversar com alguns motoristas do transporte público, a partir deste momento não haverá circulaç… https://t.co/3pqhaymfld</t>
-  </si>
-  <si>
-    <t>mais fácil falar com o papai noel em abril do que com a @sptrans pelo 156</t>
-  </si>
-  <si>
-    <t>alô @sptrans todas as máquinas de carregar o bilhete em dinheiro não funciona, assim não dá né 🙄</t>
-  </si>
-  <si>
-    <t>como é possível um serviço desse nível. solicitar um cartão novo levar mais de 4 dias e quando chega no posto infor… https://t.co/ibwm9djfod</t>
-  </si>
-  <si>
-    <t>hoje o dia tá só por deus viu? 30 min esperando o ônibus, aí eu entro ele quebra, 1 hora na fila do sptrans pra arr… https://t.co/z7pdivzhwo</t>
-  </si>
-  <si>
-    <t>@cesartralli  já não tem ônibus e ainda reduzem a frota !  @sptrans  #sp1</t>
-  </si>
-  <si>
-    <t>@claradelarge hahahahaha @sptrans eu tbm n recebi o meu ainda</t>
-  </si>
-  <si>
-    <t>existe ainda  @sptrans  ? faz o que  ? fiscalização  no terminais de ônibus por exemplo  ?
-@veredirsales  poderá en… https://t.co/glugimjvvm</t>
-  </si>
-  <si>
-    <t>#centro interferência no viaduto do chá e líbero badaró afeta a circulação dos ônibus na região. linhas c https://t.co/ryzpxjz6b6 (@sptrans)</t>
-  </si>
-  <si>
-    <t>#bdsp @sptrans mudou posicionamento das placas de identificação dos ônibus, já era difícil de ler, agora ficou impo… https://t.co/gccab8ffyw</t>
-  </si>
-  <si>
-    <t>@sptrans e ponto com camelôs ocupando espaço dos usuários, como faço para avisar e a @sptrans toma as cabíveis o qu… https://t.co/ns8yvovesl</t>
-  </si>
-  <si>
-    <t>@sptrans  sinceramente vai tomar no seu cu</t>
-  </si>
-  <si>
-    <t>@sptrans mesmo tendo pago o boleto, tem dias que não chega meu bilhete, vou perder bolsa de estudos e matricula, sem condições.</t>
-  </si>
-  <si>
-    <t>😒 observou algum ônibus c/ sinais de vandalismo? anote o prefixo do veículo e nos informe por aqui, para https://t.co/s3lf1lqg4b (@sptrans)</t>
+    <t>@sptrans olá eu embarquei primeiro em em ônibus e no metrô tatuapé no próprio foi cobrado 4,30 e mais 4,30 depois embarquei em um ônibus no terminal amaral gurgel aí a cobrança foi correta 3,18, inverteu a ordem ok, mas se eu não embarcasse em outro transporte...</t>
+  </si>
+  <si>
+    <t>meu bilhete único finalmente carregou as cotas estou livreeeeeeeeeeeeeeeeeeeee se foda foreveeeeeer sptrans https://t.co/ew0oogd2u5</t>
+  </si>
+  <si>
+    <t>#bdsp ônibus @sptrans com novo posicionamento de placa com número da linha. antes era difícil ler, agora é impossível. letreiro principal com intervalo grande entre informações, passageiro fica sem saber que linha é. @rodrigobocardi @gloria_vanique (ideia de "jenio enjenheiro") https://t.co/jkww2zxuf5</t>
+  </si>
+  <si>
+    <t>@sptrans muito obrigada ♥️</t>
+  </si>
+  <si>
+    <t>#sptrans o sindicato informou que caso o executivo não se manifeste, a frota de ônibus começará a ser recolhida na capital.
+acesse o link e confira as últimas informações: 
+https://t.co/dsbbvueuod</t>
+  </si>
+  <si>
+    <t>#sptrans o sindicato informou que caso o executivo não se manifeste, a frota de ônibus começará a ser recolhida na capital.
+acesse o link e confira as últimas informações: 
+https://t.co/mrb3rospsv</t>
+  </si>
+  <si>
+    <t>@sptrans os ônibus com ar condicionado deveriam permitir abrir as janelas, já que ele nunca funciona e fica um monte de gente tossindo e respirando o mesmo ar.</t>
+  </si>
+  <si>
+    <t>terminal cidade tiradentes da sptrans recebe unidade móvel lgbti nesta quarta-feira, dia 4 
+#sptrans #lgbti
+https://t.co/oyclbekzea</t>
+  </si>
+  <si>
+    <t>@sptrans @radiotransitofm estou estacionada a 10 minutos no viaduto 9 de julho há 2km da prestes maia. sabem dizer o que houve?</t>
+  </si>
+  <si>
+    <t>@sptrans @luan_f_goulart exigimos explicações oficiais sobre o caso, aguardando ansioso resposta sobre o ocorrido</t>
   </si>
   <si>
     <t>consulte as linhas de ônibus e a localização dos coletivos da capital no site da sptrans 👇
 https://t.co/sjxeppm2st</t>
   </si>
   <si>
-    <t>#sptrans o sindicato informou que caso o executivo não se manifeste, a frota de ônibus começará a ser recolhida na… https://t.co/hbnnfa7dnf</t>
-  </si>
-  <si>
-    <t>@sptrans terão que prorrogar novamente, rs</t>
-  </si>
-  <si>
-    <t>@fabio_flavio81 @sptrans @mobilidadesampa @brunocovas @jdoriajr @junior013santos @robertapeereira @prefsp estamos a disposição. 👍🤝</t>
-  </si>
-  <si>
-    <t>@sptrans não me pedem senha....isso que está difícil....agora o mais difícil é colocar uma foto que funcione....ja… https://t.co/2asq1y4ml1</t>
-  </si>
-  <si>
-    <t>@myrtlesnowabs versão digital de bilhete único? francamente, não tem como dar certo. fora que atrapalha tudo que a… https://t.co/zahnkso7in</t>
-  </si>
-  <si>
-    <t>indo lá na sptrans passar n e r v o s o</t>
-  </si>
-  <si>
-    <t>@sptrans ia ser injusto não deixar um elogio ao motorista que tentou cumprir seu horário é teve respeito  pelos pas… https://t.co/uasm00xndd</t>
-  </si>
-  <si>
-    <t>#sptrans os terminais bandeira e parque dom pedro ii estão neste momento sendo afetados pela manifestação em apoio… https://t.co/jpbqvm2per</t>
-  </si>
-  <si>
-    <t>não sei nem pq está rodando... metade do veículo tem ar condicionado e a outra metade não... aí a solução caseira é… https://t.co/zycfdlfbxw</t>
+    <t>sério @sptrans nao da mais pra estragar um bilhete unico por ano https://t.co/mmvq4yqxgj</t>
+  </si>
+  <si>
+    <t>@sptrans @cetsp_ no caso da plataforma onde ficam os táxis e na praça na saída do terminal, chega a ser absurdo a bagunça  nos horários  de pico na sexta-feira</t>
+  </si>
+  <si>
+    <t>terminal sacomã travado, ônibus fechando entradas e saídas @sptrans @metrosp_oficial</t>
+  </si>
+  <si>
+    <t>@pedrosomera @sptrans tenta durante o dia. é  sempre assim, de manhã ou muito tarde ele nunca deixa usar o cartão 🤦🏻‍♀️</t>
+  </si>
+  <si>
+    <t>hoje o dia tá só por deus viu? 30 min esperando o ônibus, aí eu entro ele quebra, 1 hora na fila do sptrans pra arrumar o bilhete único, dia cheio de coisa, aí chego em casa tenho que aturar a idiota da minha irmã</t>
+  </si>
+  <si>
+    <t>@sptrans aí sim! bingou! obrigado.</t>
+  </si>
+  <si>
+    <t>@sptrans hoje mesmo peguei o 607c combo ar condicionado desligado...ainda bem que o twitter só funciona para elogiar...</t>
+  </si>
+  <si>
+    <t>@sptrans amigo, estou em goiânia! mas agradeço, viu?</t>
+  </si>
+  <si>
+    <t>atenção: sptrans anuncia que bilhete único emitido antes de 2014 vai ter créditos bloqueados neste mês https://t.co/nzdw3zkyxj</t>
+  </si>
+  <si>
+    <t>@sptrans estou parado no ponto da francisco morato aquase 45 minutos não passa nenhum ônibus oque está acontecendo?</t>
+  </si>
+  <si>
+    <t>@sptrans parabéns pelo atendimento me senti ouvido pelo menos. espero que solucionem o problema. mais uma vez obrigado pelo serviço. https://t.co/b4qisxz27e</t>
+  </si>
+  <si>
+    <t>completamente vazio a sptrans pra que que eu acordei cedo msm</t>
+  </si>
+  <si>
+    <t>@sptrans tem muito ônibus rodando ser ar condicionado, mas todos pagam o mesmo valor de passagem..... pagamos passagem e impostos suficiente para que o mínimo seja feito.</t>
+  </si>
+  <si>
+    <t>é impressão minha ou nenhum ônibus ta saindo do terminal capelinha hj ? @sptrans</t>
+  </si>
+  <si>
+    <t>@cristia53822624 @sptrans está fechado sim</t>
+  </si>
+  <si>
+    <t>@sptrans está na hora de criar uma campanha para que as pessoas mantenham os vidros dos ônibus pelo menos, parcialmente abertos no inverno. que inferno que é tudo fechado, abafado..e se a pessoa vai abrir, quem está sentado ou reclama ou fecha...foda.</t>
+  </si>
+  <si>
+    <t>cara eu tô passando raiva com a sptrans desde as 10 da manhã. 
+e esse são os três estágios que fiquei desde então. https://t.co/wkhohrbobe</t>
+  </si>
+  <si>
+    <t>tô mto feliz que a linha 6262 está com ônibus novo. alegria de pobre é isso ai! @sptrans</t>
+  </si>
+  <si>
+    <t>#sp1 #sp2 @sptrans @prefsp varios ônibus parados como "reservado"  no centro/sp #paralisacaosp https://t.co/pqgvrluiz6</t>
+  </si>
+  <si>
+    <t>#sptrans o sindicato informou que caso o executivo não se manifeste, a frota de ônibus começará a ser recolhida na capital.
+acesse o link e confira as últimas informações: 
+https://t.co/j0cvkcfmfz</t>
+  </si>
+  <si>
+    <t>@cesartralli uma sugestão  de pauta: equipe da sptrans fiscaliza motorista de app na estaçao barra funda, porem atrapalham o embarque do usuario e fazem muito motoristas cancelarem a viagem.</t>
+  </si>
+  <si>
+    <t>@sptrans oi, sptrans. tentei carregar hoje nas máquinas de autoatendimento da perto e da autopass, e as duas deram que eu não tenho cotas disponíveis para uso. tive que carregar o comum novamente.
+como proceder agora para conseguir a meia tarifa? é algo do meu lado ou do lado de vocês?</t>
+  </si>
+  <si>
+    <t>@sptrans @sub_penha #sp1 #sptv #spnoar como posso trazer melhorias para o meu bairro? com um ônibus passando aqui, será bom para os comerciantes locais também. o ponto se encontra decorativo, fizeram até manutenção recentemente. https://t.co/guukhb3iuw</t>
+  </si>
+  <si>
+    <t>#sptrans 15 linhas terão desvios de itinerário das 7h às 19h desta terça e quarta-feira, dias 3 e 4 de agosto, durante a abrafarma future trends 2019, no transamérica expo center. 
+https://t.co/eaeao8u46a</t>
   </si>
   <si>
     <t>#sptrans vagas são destinadas a estudantes dos níveis médio, técnico e superior
-clique no link e obtenha todas as… https://t.co/spmiago2np</t>
-  </si>
-  <si>
-    <t>foi um baita trampo pra trocar o meu. perdi muito tempo e tive que voltar 3 vezes. quem ainda estiver com esse, agi… https://t.co/6vilwhfl73</t>
-  </si>
-  <si>
-    <t>@sptrans malditos me ajudem 🥺🥺</t>
-  </si>
-  <si>
-    <t>@sptrans gente, o motor do ônibus 63109 está insuportável. parece que vai explodir. os passageiros tudo reclamando.</t>
-  </si>
-  <si>
-    <t>vai se foder minhas costas não estão carregando, vai se foder sptrans vai todo mundo tomar no cu</t>
-  </si>
-  <si>
-    <t>@sptrans está na hora de criar uma campanha para que as pessoas mantenham os vidros dos ônibus pelo menos, parcialm… https://t.co/iu6rdbteto</t>
-  </si>
-  <si>
-    <t>hoje estou curtindo #saopaulo, ir de ônibus para o trabalho revela muito da cidade. 
-casei daquele cinza claustrof… https://t.co/ghxsfw3adk</t>
-  </si>
-  <si>
-    <t>sptrans implanta linha 3006/21 etec guaianazes – cptm guaianazes, a partir da próxima segunda-feira, dia 9… https://t.co/rdv2w8s7nm</t>
-  </si>
-  <si>
-    <t>#sptrans o que acontece dessa vez? ou outra vez vai informar que não mudou em nada o intinerario do ônibus 971r-10… https://t.co/ocn7p2ojx0</t>
-  </si>
-  <si>
-    <t>nossa minha foto ficou mo zuada nesse cartão da sptrans vsf toxica demais</t>
+clique no link e obtenha todas as informações: 
+https://t.co/yr8rcnfbcj</t>
+  </si>
+  <si>
+    <t>mais de sete dias que fiz minha solicitação e até agora nada da sptrans me dar uma resposta 
+eu simplesmente vou ter que parar de ir pra uma das escolas, já estou estressada com isso já</t>
+  </si>
+  <si>
+    <t>quebrei meu bilhete na hora de consultar o crédito. fui fazer outro e me cobrarão 30 colostomias. 30 golpes. 30 fuckin ditaduras veladas. porra @sptrans fiz um bom esses dias que me custou 0 dólares. o povo já sofre com o preço abusivo da passagem e o ensardinhamento coletivo...</t>
+  </si>
+  <si>
+    <t>@sptrans sim no periodo  da tarde fica concentrado uma enorme quantidade  de onibus articulado na avenida sapopemba  (proximo mercado comercial esperança) sendo que ali são somente duas faixa  causando um certo transtorno no trasito</t>
   </si>
   <si>
     <t>@sptrans n chegava onibus mas dps chegou e fui pra casa</t>
   </si>
   <si>
-    <t>@sptrans coisas inúteis seu babacas</t>
-  </si>
-  <si>
-    <t>@sptrans, quando vocês vão substituir esses “pau véio” da cidade tiradentes? porque quase todos os dias o povo desc… https://t.co/fmdromfr9l</t>
-  </si>
-  <si>
-    <t>@sptrans essa linha sofreu ultimamente alteração de horário e muitos atrasos acontecem mesmo com intervalo em horár… https://t.co/m4vwedck8o</t>
-  </si>
-  <si>
-    <t>@sptrans é greve dos motoristas.
-sejam verdadeiros</t>
-  </si>
-  <si>
-    <t>caralho, vou ir 6h45 pra sptrans sexta pra pegar meu reembolso</t>
-  </si>
-  <si>
-    <t>esse busão do residencial santa barbara- metrô carrão  ta indo tão devagar, o motorusta ta tão lerdo mas tão lerdo… https://t.co/sw2dwvhnpz</t>
-  </si>
-  <si>
-    <t>@sptrans parabéns pelo atendimento me senti ouvido pelo menos. espero que solucionem o problema. mais uma vez obrig… https://t.co/xswroqp0ye</t>
+    <t>🌦☀️ faça chuva, frio ou calor, mantenha as janelas dos ônibus sem ar-condicionado c/ abertura suficiente https://t.co/zubdb97aj1 (@sptrans)</t>
+  </si>
+  <si>
+    <t>@sptrans ok! obrigado</t>
+  </si>
+  <si>
+    <t>@sptrans meu bilhete único parou de funcionar, coloquei uma carga digital de 20 reais e ela não cai no bilhete.</t>
+  </si>
+  <si>
+    <t>@sptrans já tem um mês e meio que realizei a minha entrevista no cras, já consegui o meu número ativo do nis e já registrei há muitos dias no site, mas mesmo assim ainda consta que o meu “usuário não foi encontrado” e que eu não tenho direito a gratuidade sendo que tenho sim</t>
+  </si>
+  <si>
+    <t>@sptrans_ @sptrans boa  tarde fiz o cadastro para pedir o bilhete so que agora nao consigo entrar para enviar a foto da que o cadastro nao existe.</t>
+  </si>
+  <si>
+    <t>@sptrans , sempre muito ágil #sqn</t>
+  </si>
+  <si>
+    <t>@sptrans sem condições esses terminais novos. todos que usei sempre estragam os bilhetes</t>
+  </si>
+  <si>
+    <t>mais um dia bolado com a api da sptrans que mostra a previsão da chegada do ônibus com grau de acerto aleatório</t>
+  </si>
+  <si>
+    <t>@sptrans @lotharsnow eu já fiz a solicitação! vocês que não liberaram ainda 💔</t>
+  </si>
+  <si>
+    <t>@sptrans não conte comigo pra nada. 30 dias pra ter um bilhete? até lá vou ficar andando de graça nos ônibus de sp, pode ser? da licença</t>
+  </si>
+  <si>
+    <t>@sptrans pode me ajudar colocando ônibus descente pra rodar e diminuindo o intervalo deles, assim que podem me ajudar</t>
+  </si>
+  <si>
+    <t>como a @sptrans é a escória do mundo!</t>
+  </si>
+  <si>
+    <t>😴😱 aquele momento em que acordo de um cochilo dentro do ônibus e percebo que o meu ponto já passou … https://t.co/hgthphcpo8 (@sptrans)</t>
+  </si>
+  <si>
+    <t>isso confere @sptrans @mobilidadesampa @vpirajucara @brunocovas @jdoriajr @junior013santos @robertapeereira @prefsp ???? https://t.co/gqw9zxmiqc</t>
+  </si>
+  <si>
+    <t>#minhocão já poderia ter sido demolido, mas seguimos insistindo em premissas duvidosas | #centrosp #zc #sptrans #cptm #metrosp https://t.co/vp1zvlgvpa</t>
+  </si>
+  <si>
+    <t>@sptrans hj só pq está chovendo motoristas estão pulando as paradas... kd os fiscais? precisa aumentar o número! #indignado</t>
+  </si>
+  <si>
+    <t>ai terminal pinheiros, vc me prometeu... 💔 https://t.co/bh1c81gwq8</t>
+  </si>
+  <si>
+    <t>#bdsp 
+bom @rodrigobocardi , bom dia @gloria_vanique 
+ouvi falar de uma tal greve (paralização dos ônibus nessa sexta-feira !!
+procede essa informação ??
+obrigado ... ótima quinta-feira 
+@sptrans</t>
+  </si>
+  <si>
+    <t>@sptrans se for pelo 156...nao percam  tempo, la e impossível  ser atendido.</t>
+  </si>
+  <si>
+    <t>ta passando aqui no jornal a situação crítica dos ônibus em santo andre, será q vou ter q chamar a @redeglobo pra vcs melhorarem o unisa campus i @sptrans ???????????????? https://t.co/65iqhifixs</t>
+  </si>
+  <si>
+    <t>@ser1conservador @sptrans @brunocovas faltam 3 meses para são paulo ficar assim, aqui na região não vi nenhuma obra para minimizar
+os impactos das enchentes. https://t.co/oltitcrtkv todos os anos mesma história, a culpa é da chuva e do lixo.</t>
+  </si>
+  <si>
+    <t>linha 675l/10 terminal santo amato – metrô santa cruz operada pela sptrans deixará de circular aos domingos. 
+#sptrans #santoamaro 
+https://t.co/sufydpxt1a</t>
+  </si>
+  <si>
+    <t>aprende goiás!!!! olha a eficiência dos cara https://t.co/nn3s0i7ino</t>
+  </si>
+  <si>
+    <t>😒 observou algum ônibus c/ sinais de vandalismo? anote o prefixo do veículo e nos informe por aqui, para https://t.co/s3lf1lqg4b (@sptrans)</t>
+  </si>
+  <si>
+    <t>quer dizer, o sendentarismo vai morrer comigo andando ate a sptrans pra levar um tapa na cara do bruno covas</t>
+  </si>
+  <si>
+    <t>@sptrans @sptrans_ isso é útil? https://t.co/ejeq0d2io4</t>
+  </si>
+  <si>
+    <t>@sptrans já deixei queixa e não ajudou nada! vou deixar uma por dia pra ver se resolve</t>
+  </si>
+  <si>
+    <t>reclame menos e colabore mais | #cptm #metrosp #emtu #sptrans https://t.co/u0khxykh9h</t>
+  </si>
+  <si>
+    <t>se eu atrasar hj eu vou matar a sptrans</t>
+  </si>
+  <si>
+    <t>@sptrans em qual quadro me encaixo?
+porque no ano passado fiz o mesmo procedimento e ficou para encaminhar a universidade e até hoje não chegou (nem o status no site mudou).</t>
+  </si>
+  <si>
+    <t>@sptrans obrigado por bloquear meu cartão! e eu ligar para vocês e vocês informarem que não pode fazer nada!</t>
+  </si>
+  <si>
+    <t>#sptrans além da redução na frota de ônibus, que pode resultar em demissões, o sindicato quer saber uma posição concreta sobre a situação dos cobradores em relação ao futuro.</t>
+  </si>
+  <si>
+    <t>#sptrans nesta terça-feira, dia 3 de setembro, o terminal vila carrão receberá a unidade móvel lgbti para assistência aos passageiros. 
+https://t.co/wry4tz6nfc</t>
+  </si>
+  <si>
+    <t>@sptrans essa gestão covas e a pior que são paulo já teve, tirando direitos adquiridos como as 4 integrações do vt, enquanto sofremos o senhor covas dorme tranquilo, o senhor @brunocovas já pegou ônibus seu lixo???</t>
+  </si>
+  <si>
+    <t>#sptrans o sindicato que representa os trabalhadores do transporte na capital definiram um plano de lutas que pode culminar em uma eventual paralisação na sexta-feira, dia 6. 
+consulte neste link às informações sobre o ato: 
+https://t.co/wmyw8skhuh</t>
+  </si>
+  <si>
+    <t>@sptrans ônibus 5652_10 praca da  se ...63721..quand chehou na cruz vermelha o motorista pediu pra todos passageiros desce...e um absurdo paga a passagem  e a empresa  dar ordem pra volta.... https://t.co/ciz4sungp1</t>
+  </si>
+  <si>
+    <t>#sptrans nesta terça-feira, dia 3 de setembro, o terminal vila carrão receberá a unidade móvel lgbti para assistência aos passageiros. 
+https://t.co/rif2kjh5nj</t>
+  </si>
+  <si>
+    <t>#sptrans bilhete único: prazo para utilização do saldo superior a r$ 43 de créditos do tipo comum de cartões emitidos antes de 2014 vence em 30 de setembro
+https://t.co/0pym4rwj6k</t>
+  </si>
+  <si>
+    <t>@sptrans linha 875c terminal lapa metrô santa cruz sempre em atraso, quando chove a desculpa é maior.</t>
+  </si>
+  <si>
+    <t>@sptrans @sptrans_ aguardo informações sobre as ações tomadas sobre a conduta deste condutor e outras ações preventivas</t>
+  </si>
+  <si>
+    <t>sptrans ta de sacanagem, um ano pra liberar meu bilhete</t>
+  </si>
+  <si>
+    <t>@sptrans segue o numero do bilhete : 561603359</t>
+  </si>
+  <si>
+    <t>@radiotransitofm que beleza @sptrans @prefsp @jdoriajr @brunocovas agora aumenta mais a tarifa, segue reduzindo as linhas, encurtando os trajetos e diminuindo o número de ônibus</t>
+  </si>
+  <si>
+    <t>@sptrans kkkkkkkkkk 😂 mandaram bem no gif 😉</t>
+  </si>
+  <si>
+    <t>#bdsp a estação jardim planalto linha 15 prata está funcionando e adiantou muito a vida de quem mora na região de sapopemba, mas até agora a sptrans não instalou um ponto de ônibus na estação, aguardamos o ônibus no sol, ou na chuva. será que é tão difícil assim? @sptrans https://t.co/kj5cyky6zk</t>
+  </si>
+  <si>
+    <t>@sptrans @sptrans_ quando eu digito o cpf aparece essa mensagem
+mas eu estava junto quando a moça na faculdade enviou https://t.co/ybxguhkwr2</t>
+  </si>
+  <si>
+    <t>bom dia. bom trabalho a todos. um abraço. @sptrans</t>
+  </si>
+  <si>
+    <t>@sptrans e ponto com camelôs ocupando espaço dos usuários, como faço para avisar e a @sptrans toma as cabíveis o quanto antes? são paulo tem previsão de chuva para os próximos dias e ponto que utilizo esta cheio de camelôs!! @mp_sp nos ajuda por favor @g1_sptv fica de olho por favor 🙏🙏</t>
+  </si>
+  <si>
+    <t>pena que eu tenho 17 e to no 3 ano https://t.co/av4avizfxu</t>
+  </si>
+  <si>
+    <t>🌦☀️ faça chuva, frio ou calor, mantenha as janelas dos ônibus sem ar-condicionado c/ abertura suficiente https://t.co/y5izx1txhy (@sptrans)</t>
+  </si>
+  <si>
+    <t>@sptrans os ônibus ja são um lixo hoje peguei um da linha jd.jacira terminal capelinha tudo sujo ai vem vcs fala merda</t>
+  </si>
+  <si>
+    <t>foi um baita trampo pra trocar o meu. perdi muito tempo e tive que voltar 3 vezes. quem ainda estiver com esse, agiliza aí ou vai ficar sem. https://t.co/3mhitpiktg</t>
+  </si>
+  <si>
+    <t>@sptrans liguei no 156 agora e confirmaram que meu nis ta ativo porque eu nao to conseguindo fazer meu passe livre?</t>
+  </si>
+  <si>
+    <t>@sptrans vcs colocam novas máquinas e nenhuma delas funciona, só as velhas. vai chegar um dia q não vai ter mais as velhas e ninguém vai conseguir recarregar em lugar nenhum. agora nem as velhas tão funcionando tbm no terminal barra funda, tive q ir no terminal pinheiros recarregar</t>
+  </si>
+  <si>
+    <t>@sptrans os novos ônibus não terão mais as indicações de regiões, por cor? tenho visto vários deles, todos completamente prateados. #bdsp</t>
+  </si>
+  <si>
+    <t>@sptrans favor treinar e orientar melhor seus motoristas, pois o motorista do ônibus 25123 saiu andando no momento que eu estava desembarcando, dessa forma a porta do ônibus saiu me atropelando, sentisse alguém com mais idade poderia acontecer algo acidente mais grave.</t>
+  </si>
+  <si>
+    <t>passei no sptrans, na triagem, para pedir informações sobre como tirar um cartão novo de bilhete único, e me deram este papel dizendo para entrar no site e fazer o cadastro. acontece que o site oficial é https://t.co/ay8uubuzbr. compartilhando para os desavisados. https://t.co/8clsdh9ehl</t>
+  </si>
+  <si>
+    <t>@meuser_ @sptrans olá. sim</t>
+  </si>
+  <si>
+    <t>@sptrans boa tarde, me tirem uma dúvida. faço o seguinte trajeto: 01 (um) ônibus, 01 (um) trem e mais 01 (um) ônibus. o valor que está sendo cobrado é r$ 11,78. porém, o correto não seria r$ 7,48?</t>
+  </si>
+  <si>
+    <t>@sptrans quero as vagas de comunicação interna po</t>
+  </si>
+  <si>
+    <t>eu tô muito triste por ter que faltar na aula de hoje mas eu não tenho opção
+poxa sptrans, libera meu aumento de cotas 
+eu preciso estudar em dois lugares. não posso ficar faltando na faculdade 😭</t>
+  </si>
+  <si>
+    <t>#bdsp mais uma vez sem ônibus!!! aqui no jardim rincão, jaraguá, zona noroeste (linhas 8006/10 - 971r/10 - 888p/10 - 819a/10) @sptrans</t>
+  </si>
+  <si>
+    <t>@vpirajucara @sptrans @mobilidadesampa @brunocovas @jdoriajr @junior013santos @robertapeereira @prefsp obrigado pela informação.</t>
+  </si>
+  <si>
+    <t>#sptrans os terminais bandeira e parque dom pedro ii estão neste momento sendo afetados pela manifestação em apoio aos atos do sindmotoristas.
+acesse o link e confira às últimas informações:
+https://t.co/rukctzid4z</t>
+  </si>
+  <si>
+    <t>#sptrans bilhete único: prazo para utilização do saldo superior a r$ 43 de créditos do tipo comum de cartões emitidos antes de 2014 vence em 30 de setembro
+https://t.co/gy3vti09jw</t>
+  </si>
+  <si>
+    <t>@sptrans @sptrans_ não peguei o nome da atendente  , foi hoje entre as 11:30 e 12:00 ,  3/09 . no posto de atendimento da sptrans  que fica dentro do terminal de ônibus anhangabaú.</t>
+  </si>
+  <si>
+    <t>#sptrans 15 linhas terão desvios de itinerário das 7h às 19h desta terça e quarta-feira, dias 3 e 4 de agosto, durante a abrafarma future trends 2019, no transamérica expo center. 
+https://t.co/qtyciyy2us</t>
+  </si>
+  <si>
+    <t>mais uma vez o ônibus da @sptrans quebrou, o cobrador gritando igual um louco mandando as pessoas descerem logo e pra ajudar, como de lei tive que pagar outra passagem! ê delicia. pior postura esses funcionários da @sptrans 🤮</t>
+  </si>
+  <si>
+    <t>@sptrans fiz a solicitação pra adicionar mais um modal no passe livre 2 vezes, as duas vezes foi deferida mas vou ter que fazer uma terceira, porem o site não deixa eu finalizar a solicitação porque da erro na última etapa.</t>
+  </si>
+  <si>
+    <t>@sptrans @rodrigobocardi @gloria_vanique data 03/09/2019 por volta das 8:30 ... isso é todo dia não importa o horário... quero que a equipe do #bdsp acompanhe a linha para ver... sugiro chegar no ponto as 6:15 da manhã no horário que eu pego...</t>
+  </si>
+  <si>
+    <t>@sptrans fiscais da linha 209p cachoerinha/pinheiros alegando paralização a partir de agora (13h) além de vários carros da sambaiba sinalizando paralização...algum comunicado oficial?</t>
+  </si>
+  <si>
+    <t>@sptrans alô sp trans, já estamos em 2019 e só um ônibus que passa na fco matarazzo passa também na paulista 
+vamo melhorar isso daí, desvia uma linha pra cá pelo amor de deus</t>
+  </si>
+  <si>
+    <t>vou ter que faltar hoje porque estou sem dinheiro pra passagem
+estudar em dois lugares e a sptrans não colaborar com sua vida é triste
+vou chorar</t>
+  </si>
+  <si>
+    <t>aviso de risco de #alagamento 🛑 na região de #sp. informações atualizadas nos comentários e https://t.co/lmr780uqa8
+~ qui 05 set, 2019 às 10h30
+cc: @g1saopaulo @sptrans_ @ciasabesp @g1sptv</t>
+  </si>
+  <si>
+    <t>@sptrans valeuzão, sptrans! vou tentar novamente e te aviso</t>
+  </si>
+  <si>
+    <t>nossa #tbt de hoje é da premiação dos melhores motoristas de 2018 que aconteceu no dia 19/3/19 na sede do crc, no bairro de santa cecília em sp. 
+na foto, o colaborador damião ferreira da silva, ao lado do presidente da sptrans paulo c shingai e do diretor de op. wagner chagas. https://t.co/gyyixolel8</t>
+  </si>
+  <si>
+    <t>@sptrans c4r4lh0, prefeito interino @brunocovas! que ideia genial! varrer e lavar os pontos de ônibus vomitados e cheio de bituca de cigarro perto do hospital das clínicas ninguém quer, certo?
+cc: @joslusneto3</t>
+  </si>
+  <si>
+    <t>😻 não consegue se separar do seu melhor amigo? não precisa! veja as regras para transportá-lo no ônibus: https://t.co/uzkwtbnjka (@sptrans)</t>
+  </si>
+  <si>
+    <t>@sptrans uma dúvida, não consigo colocar a data para abrir uma solicitação, como faço?</t>
+  </si>
+  <si>
+    <t>@sptrans cadê o ônibus linha 297a-10  já faz mais de 30 minutos que não vêm.</t>
+  </si>
+  <si>
+    <t>tive que vir na sptrans pq meu bilhete só virou pra ônibus (???)</t>
+  </si>
+  <si>
+    <t>sptrans implanta linha de atendimento 3006/21 etec guaianazes – cptm guaianazes a partir do dia 9 https://t.co/lioyzakpgx https://t.co/sm2vtzcvb1</t>
+  </si>
+  <si>
+    <t>@sptrans bilhete inválido 
+como se ele não estivesse funcionando mais</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>mais fácil falar com o papai noel em abril do que com a @sptrans pelo 156</t>
   </si>
   <si>
     <t>@sptrans metrô tatuapé.</t>
   </si>
   <si>
-    <t>#sptrans o sindicato que representa os trabalhadores do transporte na capital definiram um plano de lutas que pode… https://t.co/k7r4nyfalv</t>
-  </si>
-  <si>
-    <t>#sptrans o sindicato que representa os trabalhadores do transporte na capital definiram um plano de lutas que pode… https://t.co/ujc2okpdpv</t>
-  </si>
-  <si>
-    <t>mais uma vez sem ônibus!!! aqui no jardim rincão, jaraguá, zona noroeste (linhas 8006/10 - 971r/10 - 888p/10 - 819a/10) #bdsp #bdsp @sptrans</t>
+    <t>@sptrans @__allansilva__ @prefsp certo farei a reclamação sobre o condutor.
+sobre a resposta, teve mais duas reclamações...</t>
+  </si>
+  <si>
+    <t>@sptrans vamos aproveitar e rever a linha 809a-10 jardim d'abril #superlotada #onibusvelho #poucoonibus #precário @brunocovas @g1</t>
   </si>
   <si>
     <t>@sptrans meu bilhete não tá fazendo mais integração desde que recarguei ontem, tá prejudicando</t>
   </si>
   <si>
-    <t>alo @sptrans, poderia me tirar uma dúvida? qual o procedimento quando um passageiro passa mal no ônibus? parar o ve… https://t.co/ccyglqtgqc</t>
-  </si>
-  <si>
-    <t>@sptrans no site da sptrans, o numero do cartão 729636666 https://t.co/yje13clarl</t>
-  </si>
-  <si>
-    <t>oxi pra q??  c tdo ki nois passa aki vcs manda ir p site fazer por escrito..??? tiração! https://t.co/whqr316t9m</t>
-  </si>
-  <si>
-    <t>@sptrans amigo, acho que você não entendeu toda a situação. 
-enfim, vou entrar no procon primeiro, depois aciono os… https://t.co/tugdg0e7qd</t>
-  </si>
-  <si>
-    <t>#sptrans categoria protesta pela possibilidade do não pagamento da plr e do desmonte do sistema sobre ônibus na cap… https://t.co/0sv5nycewd</t>
-  </si>
-  <si>
-    <t>@sptrans sim, foi hoje entre 10h e 11h</t>
-  </si>
-  <si>
-    <t>@sptrans @rodrigobocardi @gloria_vanique o ônibus já parte cheio e de 3 a 4 pontos ele já está praticamente lotado… https://t.co/lkynwmhtq3</t>
+    <t>odeio a sptrans</t>
+  </si>
+  <si>
+    <t>@sptrans o que precisarei levar para solicitar a segunda via</t>
+  </si>
+  <si>
+    <t>sptrans, pq tão lixo????</t>
+  </si>
+  <si>
+    <t>@neuza205 @sptrans sério e greve</t>
+  </si>
+  <si>
+    <t>@sptrans belezinha. tem algum prazo? pq aí eu me organizo aqui com os money</t>
+  </si>
+  <si>
+    <t>eu e mais outros colegas não estamos conseguindo ter acesso ao bilhete de estudante da @sptrans porq diz que a matrícula nao foi enviada, sendo que já foi enviada. mds que serviço ruim</t>
+  </si>
+  <si>
+    <t>alô, @sptrans , me helpa hahahaha</t>
+  </si>
+  <si>
+    <t>#sptrans categoria protesta pela possibilidade do não pagamento da plr e do desmonte do sistema sobre ônibus na capital; possibilidade de paralisação do sistema não está descartada. 
+https://t.co/vjrx0srsld</t>
+  </si>
+  <si>
+    <t>@brunocovas prezado prefeito novamente pergunto para que serve a @sptrans, empresa expresso carros velhos que quebram todos dias 48175, 407i-10 porta quebrada zl muitos carros circulando com mais de 10 anos e ainda diminui o número de integrações. para quem o sr governa ?</t>
+  </si>
+  <si>
+    <t>#sptrans categoria protesta pela possibilidade do não pagamento da plr e do desmonte do sistema sobre ônibus na capital; possibilidade de paralisação do sistema não está descartada. 
+https://t.co/a7zghftydx</t>
+  </si>
+  <si>
+    <t>@sptrans tentei ontem e hoje várias vezes no dia e sempre aparece a mesma infromação. inclusive nas outras duas solicitações que eu fiz tive o mesmo problema. https://t.co/wvfjrnu2fw</t>
+  </si>
+  <si>
+    <t>#sptrans as empresas têm até hoje, dia 5, para realizar o pagamento da participação dos lucros e resultados (plr).</t>
+  </si>
+  <si>
+    <t>@sptrans @bomdia_sp @prefsp olá gostaria de saber se já foi verificado  pois o problema persiste o de hoje foi o prefixo 7 2107.</t>
+  </si>
+  <si>
+    <t>@aracatym @sptrans exato. você reclama por aqui e eles mandam você abrir chamado, ligar não sei onde e nunca recebe respaldo da reclamação.</t>
+  </si>
+  <si>
+    <t>a @sptrans já começa o dia me estressando.</t>
+  </si>
+  <si>
+    <t>@sptrans sobre a greve vcs tem alguma coisa útil para informar?</t>
+  </si>
+  <si>
+    <t>atualização [14:29]
+neste momento os terminais parque dom pedro, bandeira, pinheiros, campo limpo, princesa isabel, santana, capelinha, sacomã e santo amaro estão fechados devido manifestação dos motoristas e cobradores.
+#grevedosmotoristas #sptrans</t>
+  </si>
+  <si>
+    <t>@sptrans mas ja passou os 45 dias e ja consta todos os dados no cadunico</t>
+  </si>
+  <si>
+    <t>@sptrans mas eu já inseri o nis tem muitos dias e mesmo assim diz que o usuário não foi encontrado</t>
+  </si>
+  <si>
+    <t>é greve essa palhaçada.. https://t.co/tagnimvcwz</t>
+  </si>
+  <si>
+    <t>@darvinic @sptrans estão protestando em frente à prefeitura.</t>
+  </si>
+  <si>
+    <t>a @sptrans não resolve meu problema com o cadastro do bilhete único e nenhum ônibus tem troco quando tento pagar com dinheiro e os cobradores grossos ainda põe a culpa em mim olha sinceramente</t>
   </si>
   <si>
     <t>@borasp 
 boa noite, gente
 moro perto do shopping interlagos e não temos nenhum ponto de ônibus com cobertura 
-des… https://t.co/febdhw0kco</t>
-  </si>
-  <si>
-    <t>@sptrans uma dúvida, não consigo colocar a data para abrir uma solicitação, como faço?</t>
-  </si>
-  <si>
-    <t>@sptrans uma pergunta: esses motoristas de ônibus q ficava carregando mulher junto c eles na frente e ficam o tempo… https://t.co/6zxuqdklkp</t>
-  </si>
-  <si>
-    <t>espero que a banda scorpions queira fazer um cartão de gratuidade para idosos na sptrans, para que eu possa reprodu… https://t.co/aacdvewbpr</t>
-  </si>
-  <si>
-    <t>a atendente da sptrans no terminal bandeira informou que só hoje foram 5 pessoas com o mesmo problema. não adianta… https://t.co/janiiaidik</t>
-  </si>
-  <si>
-    <t>#sptrans os terminais bandeira e parque dom pedro ii estão neste momento sendo afetados pela manifestação em apoio… https://t.co/hnrtg1agj1</t>
-  </si>
-  <si>
-    <t>e qual a resposta obtida no posto? aguardar mais 72hrs pois a central sptrans localizada na rua boa vista 274 simpl… https://t.co/rgmf7xcvjp</t>
-  </si>
-  <si>
-    <t>reclame menos e colabore mais | #cptm #metrosp #emtu #sptrans https://t.co/u0khxykh9h</t>
-  </si>
-  <si>
-    <t>@sptrans rua barra do jequitaí na altura do número 6</t>
-  </si>
-  <si>
-    <t>#sptrans categoria protesta pela possibilidade do não pagamento da plr e do desmonte do sistema sobre ônibus na cap… https://t.co/rtilf5x70n</t>
-  </si>
-  <si>
-    <t>processos especiais - sptrans - edital 01/2019 https://t.co/omuhkmnu3v</t>
-  </si>
-  <si>
-    <t>@sptrans o prejuízo seria meu de ter que ir atrás, ok o sistema se auto corrigiu, mas como disse se não usasse a 3a… https://t.co/tfslaks2iq</t>
-  </si>
-  <si>
-    <t>@sptrans @lotharsnow eu já fiz a solicitação! vocês que não liberaram ainda 💔</t>
-  </si>
-  <si>
-    <t>😌 💳 o bilhete único personalizado é emitido na hora e em qualquer posto! faça o seu cadastro através do https://t.co/8l08ypnpkz (@sptrans)</t>
-  </si>
-  <si>
-    <t>@sptrans muito bom, em terminal de ônibus e bem longe das escolas.</t>
-  </si>
-  <si>
-    <t>@cesartralli uma sugestão  de pauta: equipe da sptrans fiscaliza motorista de app na estaçao barra funda, porem atr… https://t.co/eynthqljlv</t>
-  </si>
-  <si>
-    <t>@sptrans @sptrans boa tarde, meu cartão é o de número 719035035 e fui bloqueada pelo reconhecimento facial, no enta… https://t.co/nvorfbievx</t>
-  </si>
-  <si>
-    <t>✨ 1h30 numa fila da sptrans que não precisava ✨</t>
-  </si>
-  <si>
-    <t>@sptrans não sei pra que pedem se não vão resolver</t>
-  </si>
-  <si>
-    <t>@arthurmoledoval curso pós graduação e como utilizo transporte público no dia do meu rodízio, solicitei  o bilhete… https://t.co/kv2z4wsxuz</t>
-  </si>
-  <si>
-    <t>#bdsp ônibus @sptrans com novo posicionamento de placa com número da linha. antes era difícil ler, agora é impossív… https://t.co/j4pnhbqijl</t>
-  </si>
-  <si>
-    <t>@pedrosomera @sptrans já passei isso indo trabalhar, tive que vir de uber pq o aplicativo não funcionava.</t>
-  </si>
-  <si>
-    <t>@sptrans #bdsp até quando o povo que mais precisa de mais conduções vai sofrer na mão desses governantes irresponsá… https://t.co/p7jcno5o5o</t>
-  </si>
-  <si>
-    <t>menos o prefeito colabora, botando essa merda a quase 5 pilas https://t.co/jetxnbly51</t>
-  </si>
-  <si>
-    <t>@sptrans , sempre muito ágil #sqn</t>
-  </si>
-  <si>
-    <t>taí pra quem não sabia de quem a sptrans gosta https://t.co/mk5aajkv6w</t>
-  </si>
-  <si>
-    <t>@sptrans já aconteceu muitas vezes comigo kkkkk</t>
-  </si>
-  <si>
-    <t>#bdsp mais uma vez sem ônibus!!! aqui no jardim rincão, jaraguá, zona noroeste (linhas 8006/10 - 971r/10 - 888p/10 - 819a/10) @sptrans</t>
-  </si>
-  <si>
-    <t>@club1sta poderia ser terminal santo amaro - terminal lapa, hahahaha. a sptrans já tentou, mas os moradores ali do… https://t.co/833ilfer3g</t>
-  </si>
-  <si>
-    <t>#sptrans o sindicato que representa os trabalhadores do transporte na capital definiram um plano de lutas que pode… https://t.co/sdi3wxmctq</t>
-  </si>
-  <si>
-    <t>@sptrans @prefeitura_sp consegui sim. infelizmente tive que ir num posto de novo. mas tudo bem. obrigada!</t>
-  </si>
-  <si>
-    <t>@sptrans tá rolando alguma paralisação para os lados da zona norte e oeste?</t>
-  </si>
-  <si>
-    <t>@sptrans boa tarde meu bilhete de estudante foi carregado com 5 cotas já tô cansado de ficar mandando mensagem pra… https://t.co/m1ll0jzpgl</t>
-  </si>
-  <si>
-    <t>@sptrans afinal, quantos ônibus posso pegar usando uma passagem só com bilhete de empresa?</t>
-  </si>
-  <si>
-    <t>@sptrans eu fui assaltado, com o b.o. eu consigo a segunda, ou seria talvez a quarta, via do meu bilhete de estudan… https://t.co/dnurq1kfib</t>
-  </si>
-  <si>
-    <t>@metrosp_oficial @sptrans som do metrô anunciando q, devido a greve de ônibus amanhã certas estações ficarão fechad… https://t.co/oixqhdtxvq</t>
-  </si>
-  <si>
-    <t>nossa #tbt de hoje é da premiação dos melhores motoristas de 2018 que aconteceu no dia 19/3/19 na sede do crc, no b… https://t.co/l9luju6qun</t>
-  </si>
-  <si>
-    <t>@metrosp_oficial acabei de passar a catraca do metrô no tatuapé e para variar ficou lendo é pedindo para aguardar é… https://t.co/f4ba5ytn3t</t>
-  </si>
-  <si>
-    <t>#sptrans o sindicato informou que caso o executivo não se manifeste, a frota de ônibus começará a ser recolhida na… https://t.co/flnqy0s3ro</t>
-  </si>
-  <si>
-    <t>@radiotransitofm que beleza @sptrans @prefsp @jdoriajr @brunocovas agora aumenta mais a tarifa, segue reduzindo as… https://t.co/e5t7q8cajf</t>
-  </si>
-  <si>
-    <t>sptrans implanta linha de atendimento 3006/21 etec guaianazes – cptm guaianazes a partir do dia 9 https://t.co/ynsfriqijb</t>
-  </si>
-  <si>
-    <t>@sptrans eu tenho o passe livre e fui recarga como assinei o contra como jovem n sabia q iriam depositar já e aí ca… https://t.co/x9ag4mgtmu</t>
-  </si>
-  <si>
-    <t>@sptrans @rodrigobocardi @cesartralli @gloria_vanique @g1saopaulo como vou digitar se eu liguei para o 156????</t>
-  </si>
-  <si>
-    <t>atualização [14:29]
-neste momento os terminais parque dom pedro, bandeira, pinheiros, campo limpo, princesa isabel… https://t.co/poctpgjoel</t>
-  </si>
-  <si>
-    <t>@sptrans vocês poderiam, por gentileza, me enviar um e-mail já que é impossível o contato com a central? pois são t… https://t.co/z0k6yyne68</t>
-  </si>
-  <si>
-    <t>@sptrans o bilhete que tenho hoje vale até quando?</t>
-  </si>
-  <si>
-    <t>sptrans abre vagas de estágio e cadastro reserva https://t.co/i11hp8ysju https://t.co/5x4vlfpeds</t>
-  </si>
-  <si>
-    <t>odeio a sptrans</t>
-  </si>
-  <si>
-    <t>🗞 fique por dentro das últimas notícias sobre a operação de ônibus na cidade e programe-se antes de sair https://t.co/zrerkgowg3 (@sptrans)</t>
-  </si>
-  <si>
-    <t>@g1saopaulo @sptrans @prefsp reduzir mais??? que vergonha</t>
-  </si>
-  <si>
-    <t>assista a "qual a diferença entre cmtc e sptrans?" no youtube https://t.co/y24w16x4ws</t>
-  </si>
-  <si>
-    <t>🚍🎲 não jogue objetos pela janela. além de poluir o meio ambiente, você pode causar acidentes ao atingir outros veículos. 😉👍 (@sptrans)</t>
-  </si>
-  <si>
-    <t>em sp é lei desde 2011 q #visaomonocular e #deficientevisual mas,a #sptrans não cumpre a lei e nós #monoculares só… https://t.co/pv3ydkumwu</t>
-  </si>
-  <si>
-    <t>@sptrans @sptrans por essa ferramenta não é possível registrar reclamação inferior a 30 dias. o que aconteceu foi m… https://t.co/izfazxprra</t>
-  </si>
-  <si>
-    <t>@sptrans meu benefício do passe livre era mínima. estou muito prejudicada pois não tenho condições de vir a faculdade.</t>
-  </si>
-  <si>
-    <t>@sptrans tem muito ônibus rodando ser ar condicionado, mas todos pagam o mesmo valor de passagem..... pagamos passa… https://t.co/tj2i4acguc</t>
-  </si>
-  <si>
-    <t>#sptrans os terminais bandeira e parque dom pedro ii estão neste momento sendo afetados pela manifestação em apoio… https://t.co/hfgzdabkke</t>
-  </si>
-  <si>
-    <t>#sptrans além da redução na frota de ônibus, que pode resultar em demissões, o sindicato quer saber uma posição con… https://t.co/sqcrrhaxai</t>
-  </si>
-  <si>
-    <t>@sptrans amigo, estou em goiânia! mas agradeço, viu?</t>
-  </si>
-  <si>
-    <t>@sptrans ja esta tudo ok , so falta voces liberarem para eu poder carregar</t>
-  </si>
-  <si>
-    <t>#sptrans nesta terça-feira, dia 3 de setembro, o terminal vila carrão receberá a unidade móvel lgbti para assistênc… https://t.co/bkw813jkhu</t>
-  </si>
-  <si>
-    <t>@sptrans  ola, da pra recarregar o bilhete único estudantil pelo aplicativo?</t>
-  </si>
-  <si>
-    <t>@mobilidadesampa @mobilidadecotia @sptrans_ @emtu_oficial ↖️↘️ (2015) (nfc ônibus - riocard #rj) 
-https://t.co/wr6opxxcqu</t>
-  </si>
-  <si>
-    <t>#sptrans o sindicato que representa os trabalhadores do transporte na capital definiram um plano de lutas que pode… https://t.co/9iesaw5wq8</t>
-  </si>
-  <si>
-    <t>#sptrans 15 linhas terão desvios de itinerário das 7h às 19h desta terça e quarta-feira, dias 3 e 4 de agosto, dura… https://t.co/v5tkenrv14</t>
-  </si>
-  <si>
-    <t>é sr @brunocovas , só fazendo besteira e pelo visto fará mais uma . vcs não estão nem aí pra população . tamanha in… https://t.co/cvek6gwbvq</t>
-  </si>
-  <si>
-    <t>será que a @sptrans me deu bolo sobre minha meia tarifa??? 🤔</t>
-  </si>
-  <si>
-    <t>minha chefe teve que tirar o telefone da minha mão hoje, porque eu estava xingando tanto o carinha da sptrans! depo… https://t.co/6ozhgwxisf</t>
-  </si>
-  <si>
-    <t>estagiário claramente beyfã https://t.co/lz4afl8ifa</t>
-  </si>
-  <si>
-    <t>hoje a sptrans conseguiu me fazer ficar literalmente mais tempo esperando ônibus que dentro de ônibus</t>
-  </si>
-  <si>
-    <t>a @sptrans não resolve meu problema com o cadastro do bilhete único e nenhum ônibus tem troco quando tento pagar co… https://t.co/nst2dnvwla</t>
-  </si>
-  <si>
-    <t>@sptrans muito boa tarde. não tive o interesse,pois parei de reclamar no site devido burocracia e a não solução de… https://t.co/8mz8n6bkbq</t>
-  </si>
-  <si>
-    <t>desalentador ter que ainda repetir isso nesta altura da história da humanidade... https://t.co/xdyo8skpmt</t>
-  </si>
-  <si>
-    <t>@sptrans mas eu já inseri o nis tem muitos dias e mesmo assim diz que o usuário não foi encontrado</t>
-  </si>
-  <si>
-    <t>@gabenedito bom dia gislene, sobre problemas no bilhete único a @sptrans gestora do bilhete pode ajudar ;)</t>
-  </si>
-  <si>
-    <t>@sptrans @radiotransitofm estou estacionada a 10 minutos no viaduto 9 de julho há 2km da prestes maia. sabem dizer o que houve?</t>
-  </si>
-  <si>
-    <t>por que não fala que é manifestação dos próprios motorista de ônibus!!!!! https://t.co/kolaxitdqf</t>
-  </si>
-  <si>
-    <t>atendimento da sptrans é um lixo, av maria</t>
-  </si>
-  <si>
-    <t>mais de sete dias que fiz minha solicitação e até agora nada da sptrans me dar uma resposta 
-eu simplesmente vou te… https://t.co/wcjgb3ium5</t>
-  </si>
-  <si>
-    <t>@andreagambale @sptrans @radiotransitofm parece que o pessoal do sindicato vai fazer greve e ir cobrar satisfação na prefeitura</t>
-  </si>
-  <si>
-    <t>@__amandanc @sptrans aproveitando o embalo jurídico https://t.co/6vrucsphif</t>
-  </si>
-  <si>
-    <t>@sptrans os ônibus com ar condicionado deveriam permitir abrir as janelas, já que ele nunca funciona e fica um mont… https://t.co/g8nf2cyujv</t>
-  </si>
-  <si>
-    <t>@sptrans tá tendo greve de ônibus? a consolação inteira tá com o corredor parado, cheio de ônibus e sem ninguém nos transportes</t>
-  </si>
-  <si>
-    <t>@marquesliih escola falou  pra ir na sptrans resolver</t>
-  </si>
-  <si>
-    <t>@__allansilva__ @sptrans sim, ja reportei 2 ônibus com problemas na recarga dos bilhetes e eles ignoraram, a… https://t.co/pzflkfxwnb</t>
-  </si>
-  <si>
-    <t>greve: bruno covas não atende sindicato dos motoristas de ônibus, e categoria promete parar amanhã, dia 6
-#greve… https://t.co/0r4gky3sfi</t>
-  </si>
-  <si>
-    <t>mano do ceu quase q nao volto pra casa hj
-sptrans vai toma no cuuuuy</t>
-  </si>
-  <si>
-    <t>#sptrans bilhete único: prazo para utilização do saldo superior a r$ 43 de créditos do tipo comum de cartões emitid… https://t.co/trskzyhmdz</t>
-  </si>
-  <si>
-    <t>@sptrans amigos....ja mandei 4 fotos....e todas foram reprovadas... como proceder???terei que ir até algum terminal… https://t.co/o71vr0pmtw</t>
-  </si>
-  <si>
-    <t>é impressão minha ou nenhum ônibus ta saindo do terminal capelinha hj ? @sptrans</t>
-  </si>
-  <si>
-    <t>#bdsp alô @rodrigobocardi e @gloria_vanique, a saga continua 975a-10 brasilândia/ana rosa, atraso, ponto incial del… https://t.co/ck70kxpgrs</t>
-  </si>
-  <si>
-    <t>#sptrans #emtu | reflexões sobre a possibilidade de remodelar o expresso tiradentes https://t.co/eg4a0x4tqr</t>
-  </si>
-  <si>
-    <t>ta passando aqui no jornal a situação crítica dos ônibus em santo andre, será q vou ter q chamar a @redeglobo pra v… https://t.co/2zy1etarle</t>
+desde o shopping interlagos e até o hospital pedreira. 
+já falei com a sptrans e a resposta é essa, ligar no 156.
+por favor, nos ajudem se for possivel</t>
+  </si>
+  <si>
+    <t>@sptrans_ @sptrans preciso tirar uma segunda via da minha carteira de estudante, ninguém no posto jabaquara consegue me informar o que está errado... eu cancelei a primeira por roubo e quero uma segunda via, só isso.</t>
+  </si>
+  <si>
+    <t>alô @sptrans todas as máquinas de carregar o bilhete em dinheiro não funciona, assim não dá né 🙄</t>
+  </si>
+  <si>
+    <t>@electriclvdy @cymoonchild https://t.co/6m94hfhvlk vidahs se interessar!!</t>
   </si>
   <si>
     <t>#sptrans vagas são destinadas a estudantes dos níveis médio, técnico e superior
-clique no link e obtenha todas as… https://t.co/pwllxwklbm</t>
-  </si>
-  <si>
-    <t>@sptrans
-3 carros da linha 3459-10 passaram na sequência (na altura da penha), aí depois a gente fica 30 min, 40… https://t.co/zizwdcp0cz</t>
-  </si>
-  <si>
-    <t>@sptrans a sptrans diz uma coisa e o usuário vê outra. e sobre uma reclamação poder ser resolvida via site e outra… https://t.co/mbvvzxf5in</t>
-  </si>
-  <si>
-    <t>@sptrans belezinha. tem algum prazo? pq aí eu me organizo aqui com os money</t>
-  </si>
-  <si>
-    <t>atenção: sptrans anuncia que bilhete único emitido antes de 2014 vai ter créditos bloqueados neste mês https://t.co/k2hzkhknk2</t>
-  </si>
-  <si>
-    <t>@sptrans sobre a greve vcs tem alguma coisa útil para informar?</t>
-  </si>
-  <si>
-    <t>cara eu tô passando raiva com a sptrans desde as 10 da manhã. 
-e esse são os três estágios que fiquei desde então. https://t.co/wkhohrbobe</t>
-  </si>
-  <si>
-    <t>@sptrans tô vendo alteração, nenhuma linha subindo a estrada de taipas! população só se fode #bdsp  @g1 @pmesp  por… https://t.co/jzhupl7pud</t>
-  </si>
-  <si>
-    <t>parabéns aos responsáveis que cobram muito e não geram retorno eficiente.
-@sptrans @usuariocptm @cptm_oficial… https://t.co/ohykdqzt7s</t>
-  </si>
-  <si>
-    <t>@andrezadelgado ja desisti da sptrans, eu paguei o boleto no começo do ano e eles n liberaram meu cartão pra recarga ate hoje
-exausta</t>
-  </si>
-  <si>
-    <t>@sptrans fiscais da linha 209p cachoerinha/pinheiros alegando paralização a partir de agora (13h) além de vários ca… https://t.co/b2b07ihwst</t>
-  </si>
-  <si>
-    <t>@sptrans @luan_f_goulart exigimos explicações oficiais sobre o caso, aguardando ansioso resposta sobre o ocorrido</t>
-  </si>
-  <si>
-    <t>sptrans abre vagas de estágio e cadastro reserva
-https://t.co/dgzcbcaogu</t>
-  </si>
-  <si>
-    <t>@sptrans carro 72938 da viação campo belo ltda está com falha na porta, risco de acidente se alguém encostar. https://t.co/nmhwiplrnx</t>
-  </si>
-  <si>
-    <t>@sptrans liguei no 156 agora e confirmaram que meu nis ta ativo porque eu nao to conseguindo fazer meu passe livre?</t>
-  </si>
-  <si>
-    <t>alô @sptrans problemas no site para cadastro do bilhete único, site não carrega.</t>
+clique no link e obtenha todas as informações: 
+https://t.co/96bgh8jkll</t>
+  </si>
+  <si>
+    <t>#sptrans nesta terça-feira, dia 3 de setembro, o terminal vila carrão receberá a unidade móvel lgbti para assistência aos passageiros. 
+https://t.co/lt1vzgflwu</t>
+  </si>
+  <si>
+    <t>*manifestações em vários pontos da cidade de sp* 🚨🚨🚨
+*batalhões de choque acionados* 🛡⚔
+neste momento, segundo a sptrans, os terminais parque dom pedro, bandeira, pinheiros, campo limpo e princesa isabel estão… https://t.co/tcokdegaoa</t>
+  </si>
+  <si>
+    <t>eu vou matar a sptrans</t>
+  </si>
+  <si>
+    <t>sptrans implanta linha 3006/21 etec guaianazes – cptm guaianazes, a partir da próxima segunda-feira, dia 9 
+#etecguaianases
+https://t.co/d3e0xpfqud</t>
+  </si>
+  <si>
+    <t>#bdsp alô @rodrigobocardi e @gloria_vanique, a saga continua 975a-10 brasilândia/ana rosa, atraso, ponto incial dele lotado e sem proteção para chuva, aí a @sptrans pede pra abrir chamado ?
+convido vcs para embarcarem nessa linha !! https://t.co/o0u3ozyckw</t>
   </si>
   <si>
     <t>vim na sptrans 24h às 21:45 jurando que seria sussa: 31 pessoas na minha frente
 se fode mt o proletariado paulistano</t>
   </si>
   <si>
-    <t>protesto x ônibus neste momento, segundo a sptrans, os terminais parque dom pedro, bandeira, pinhe https://t.co/lqf4pembx5 (radiotransitofm)</t>
-  </si>
-  <si>
-    <t>boa noite. eu nem iria prolongar a reclamação. mas olha aí quando eu até enviei a foto com o prefixo do ônibus em u… https://t.co/o3bvpiqof5</t>
-  </si>
-  <si>
-    <t>#sptrans as empresas têm até hoje, dia 5, para realizar o pagamento da participação dos lucros e resultados (plr).</t>
-  </si>
-  <si>
-    <t>cadastrei uma foto super bonitinha na sptrans e eles nao aceitaram kkkkkkkkkk aff vou ter q mandar uma feia mesmo</t>
-  </si>
-  <si>
-    <t>@sptrans pessoas como eu, que moram na zona leste e precisam de 3 ou 4 integrações vão sofrendo, no meu caso, preci… https://t.co/uq1v0vqsvp</t>
-  </si>
-  <si>
-    <t>ei sptrans vai toma no cu</t>
-  </si>
-  <si>
-    <t>a @sptrans já começa o dia me estressando.</t>
-  </si>
-  <si>
-    <t>@sptrans certo, obrigada</t>
-  </si>
-  <si>
-    <t>eu to muito estressada, vai se foder sptrans de shit</t>
-  </si>
-  <si>
-    <t>@ser1conservador @sptrans @brunocovas faltam 3 meses para são paulo ficar assim, aqui na região não vi nenhuma obra… https://t.co/nm5bxxdmjn</t>
+    <t>mano eu vou ter que ir até a sptrans porque eu simplesmente não tenho mais como ir pras duas escolas 
+acabou todinho meu dinheiro e eu tô tendo que me virar nos trinta
+infeernooooo, eu não tenho mais paciência pra isso</t>
+  </si>
+  <si>
+    <t>sptrans abre vagas de estágio e cadastro reserva https://t.co/i11hp8ysju https://t.co/5x4vlfpeds</t>
+  </si>
+  <si>
+    <t>6 6230 6063 me jogo água 1945 h vo liga pra polícia faze ocorrência https://t.co/lkfeukkmmo</t>
+  </si>
+  <si>
+    <t>@sptrans estou tentando desde de domingo</t>
+  </si>
+  <si>
+    <t>#sptrans vagas são destinadas a estudantes dos níveis médio, técnico e superior
+clique no link e obtenha todas as informações: 
+https://t.co/yprg1bxpxa</t>
+  </si>
+  <si>
+    <t>@sptrans por enquanto  aqui na interlagos ta normal..tô no ônibus  sentido centro...praça  da sé..5652_10</t>
+  </si>
+  <si>
+    <t>@sptrans bom dia , só para mostrar que é muito comum,estou dentro do ônibus prefixo 6 3308,607c sentindo itaim,com o ar condicionado desligado. agora são exatos 11:45 hrs da manhã. obrigado e até breve.</t>
+  </si>
+  <si>
+    <t>@sptrans sim, foi hoje entre 10h e 11h</t>
+  </si>
+  <si>
+    <t>como é possível um serviço desse nível. solicitar um cartão novo levar mais de 4 dias e quando chega no posto informa que não podem dar o cartão com vt pq já foi emitido um "anônimo" em meu nome. @sptrans</t>
+  </si>
+  <si>
+    <t>@sptrans amigos....ja mandei 4 fotos....e todas foram reprovadas... como proceder???terei que ir até algum terminal pra fazer a bendita foto???o que mais querem??dia do jeito que pediram..mas sempre acham algo de errado (que eu e ninguém mais não veja nada de errado.....)....aguardo</t>
+  </si>
+  <si>
+    <t>@sptrans oi queridos boatos que sexta vai te greve e verdade esse bilhete ???</t>
+  </si>
+  <si>
+    <t>#sptrans o sindicato que representa os trabalhadores do transporte na capital definiram um plano de lutas que pode culminar em uma eventual paralisação na sexta-feira, dia 6. 
+consulte neste link às informações sobre o ato: 
+https://t.co/dgzzr57yyg</t>
+  </si>
+  <si>
+    <t>sptrans abriu processo seletivo, e eu não posso me inscrever :(</t>
+  </si>
+  <si>
+    <t>passando mal e ainda esqueci o bilhete da sptrans</t>
+  </si>
+  <si>
+    <t>hoje eu liguei pra sptrans e agora vou pagar um boleto, adulta d+ cara</t>
+  </si>
+  <si>
+    <t>alo @sptrans, poderia me tirar uma dúvida? qual o procedimento quando um passageiro passa mal no ônibus? parar o veículo e aguardar, estacionado, enquanto o resgate não chega, ou fazer todo mundo descer e ir com o veículo sabe deus pra onde? levando essa pessoa junto.</t>
+  </si>
+  <si>
+    <t>caralho, vou ir 6h45 pra sptrans sexta pra pegar meu reembolso</t>
+  </si>
+  <si>
+    <t>@sptrans #bdsp até quando o povo que mais precisa de mais conduções vai sofrer na mão desses governantes irresponsáveis? preciso de 3 conduções para chegar em casa, meu patrão não dá a mais, ando 20 minutos correndo risco de assalto enquanto o senhor covas dorme tranquilo...</t>
+  </si>
+  <si>
+    <t>será que a @sptrans me deu bolo sobre minha meia tarifa??? 🤔</t>
+  </si>
+  <si>
+    <t>@sptrans, quando vocês vão substituir esses “pau véio” da cidade tiradentes? porque quase todos os dias o povo desce no meio do caminho e vai de pé dentro do bus por quase 2 horas. vai fazer algo ou não?! 😡 https://t.co/mi9zhjwyd8</t>
+  </si>
+  <si>
+    <t>🗞 fique por dentro das últimas notícias sobre a operação de ônibus na cidade e programe-se antes de sair https://t.co/zrerkgowg3 (@sptrans)</t>
+  </si>
+  <si>
+    <t>é sr @brunocovas , só fazendo besteira e pelo visto fará mais uma . vcs não estão nem aí pra população . tamanha incompetência de todas as partes . 
+ a @sptrans sempre foi uma indústria de corruptos, safados . esse é o nosso país. um lixo #quintadetremurasdv https://t.co/ugl4mfdhan</t>
+  </si>
+  <si>
+    <t>fui quinta feira entregar as documentações, entregar os papéis pra carteirinha do ônibus, solicitar o do sptrans, me deram os acessos das plataformas digitais e &amp;gt;imprimiram meus horários&amp;lt; aí ok, perguntei se eu poderia começar e ela disse que eu poderia começar no dia seguinte</t>
+  </si>
+  <si>
+    <t>@natsomera @sptrans eu tava sem saldo ontem voltando da faculdade, aí me passaram uns dados de um cartão pra comprar online, mas o lixo do aplicativo nem se quer processa a compra e já cancela na hora 🤦🏼‍♂️</t>
+  </si>
+  <si>
+    <t>menos o prefeito colabora, botando essa merda a quase 5 pilas https://t.co/jetxnbly51</t>
+  </si>
+  <si>
+    <t>@sptrans meu benefício do passe livre era mínima. estou muito prejudicada pois não tenho condições de vir a faculdade.</t>
+  </si>
+  <si>
+    <t>@andreiasadi @globonews @sptrans qual a situação atual??</t>
+  </si>
+  <si>
+    <t>@sptrans era isso mesmo. essa mudança só dá pra fazer online ou dá pra fazer no posto de atendimento?</t>
+  </si>
+  <si>
+    <t>@sptrans certeza? por que vcs n resolvem online igual da outra vez e mudam minha cota pra 150 de volta?</t>
+  </si>
+  <si>
+    <t>menos de sexta galera, tá permitido o fone no talo p pessoal do lado ouvir as batida de funk https://t.co/nryrpuoljr</t>
   </si>
   <si>
     <t>#sptrans | carta aberta: licitação dos #ônibus em #sãopaulo https://t.co/dhthp1xyot</t>
   </si>
   <si>
-    <t>eu tô muito triste por ter que faltar na aula de hoje mas eu não tenho opção
-poxa sptrans, libera meu aumento de co… https://t.co/x2uuek8o5y</t>
-  </si>
-  <si>
-    <t>edital de abertura de vagas de estágio na sptrans... ensino médio, técnico e superior.
-https://t.co/ptgahch61a</t>
-  </si>
-  <si>
-    <t>💻 conhece a loja virtual? com ela você pode comprar créditos para o seu bilhete único sem sair de casa!  https://t.co/2kl7ewsw9t (@sptrans)</t>
-  </si>
-  <si>
-    <t>@sptrans essa gestão do senhor @brunocovas se deus quiser vai ter fim, o pior perfeito da história, só toma atitude… https://t.co/pvmco4jyrf</t>
-  </si>
-  <si>
-    <t>#bdsp alô @rodrigobocardi e @gloria_vanique ... convido vcs a pegarem a linha 975a-10 brasilândia/ana rosa e ver qu… https://t.co/rvavlkv90i</t>
-  </si>
-  <si>
-    <t>completamente vazio a sptrans pra que que eu acordei cedo msm</t>
-  </si>
-  <si>
-    <t>@sptrans isso ocorre com tanta frequência que virou normalidade.</t>
+    <t>@sptrans agora a pouco, por volta de 20:15, o motorista do carro 3 1913, da linha 307c, sentido tp, deu carona para um nóia, o mesmo furtou dois celulares e se evadiu para uma favela, após avistar uma viatura, fora que o motorista está toda hora no celular enquanto dirige.</t>
+  </si>
+  <si>
+    <t>@gcinoca existem vários apps que vc pode utilizar para comprar seus créditos, se preferir. o pessoal da @sptrans tem uma lista de todos eles no site: https://t.co/mfwaptxcdt</t>
+  </si>
+  <si>
+    <t>@sptrans carro 72938 da viação campo belo ltda está com falha na porta, risco de acidente se alguém encostar. https://t.co/nmhwiplrnx</t>
   </si>
   <si>
     <t>@sptrans ok, obrigado!</t>
   </si>
   <si>
-    <t>@sptrans terminal de ônibus do metrô belém, por volta de 7:20 da manhã *todos os dias* fica assim</t>
-  </si>
-  <si>
-    <t>@sptrans bom dia, posso um bilhete unico vt onde a empresa que trabalho deposita todo mes o valor da passagem de on… https://t.co/xomibmbrwu</t>
-  </si>
-  <si>
-    <t>♿ pessoas c/ deficiência e mobilidade reduzida podem descer fora do ponto de ônibus, desde que respeitado https://t.co/gz8arb926o (@sptrans)</t>
-  </si>
-  <si>
-    <t>se eu atrasar hj eu vou matar a sptrans</t>
-  </si>
-  <si>
-    <t>@sptrans isso é um ônibus em condição digna de circulação? é isso que vcs acham que a população merece? é isso que… https://t.co/a54cwaqcbw</t>
-  </si>
-  <si>
-    <t>@sptrans tentei ontem e hoje várias vezes no dia e sempre aparece a mesma infromação. inclusive nas outras duas sol… https://t.co/wgh4smqsys</t>
-  </si>
-  <si>
-    <t>@sptrans @sptrans_ quando eu digito o cpf aparece essa mensagem
-mas eu estava junto quando a moça na faculdade envi… https://t.co/ub3xkarnsk</t>
-  </si>
-  <si>
-    <t>@sptrans quando estou indo trabalhar pela manhã, por volta das 6am é cobrado nas catracas do meu bilhete único (vt)… https://t.co/krqkc8z8mn</t>
-  </si>
-  <si>
-    <t>@sptrans meu bilhete único parou de funcionar, coloquei uma carga digital de 20 reais e ela não cai no bilhete.</t>
-  </si>
-  <si>
-    <t>sério @sptrans nao da mais pra estragar um bilhete unico por ano https://t.co/mmvq4yqxgj</t>
-  </si>
-  <si>
-    <t>linha 675l - term. santo amaro x metrô santa cruz deixa de operar aos domingos e feriados. linha com trajeto simila… https://t.co/szpfvi5fep</t>
-  </si>
-  <si>
-    <t>@sptrans muito obrigado pela resposta! 😁</t>
+    <t>#sptrans categoria protesta pela possibilidade do não pagamento da plr e do desmonte do sistema sobre ônibus na capital; possibilidade de paralisação do sistema não está descartada. 
+https://t.co/2dusyn3aeu</t>
+  </si>
+  <si>
+    <t>@sptrans esse 3 3148 indo p pq dom pedro.</t>
+  </si>
+  <si>
+    <t>@sptrans ja esta tudo ok , so falta voces liberarem para eu poder carregar</t>
+  </si>
+  <si>
+    <t>#sptrans os terminais bandeira e parque dom pedro ii estão neste momento sendo afetados pela manifestação em apoio aos atos do sindmotoristas.
+acesse o link e confira às últimas informações:
+https://t.co/rl8zityued</t>
+  </si>
+  <si>
+    <t>carro 47149 residencial santa barbara-&amp;gt; metro carrão: passou na rua castor 51 às 6:55 e ainda estamos na avenida aricanduva, nem na metade dela, nem prox a radial leste de tão dwvegar q esse motorista está... fora q fica falando no cel enquanto dirige 🤦‍♀️
+@sptrans ajuda ai</t>
+  </si>
+  <si>
+    <t>@sptrans verdade, tinha que ser proibido comer dentro do ônibus</t>
+  </si>
+  <si>
+    <t>@sptrans essa linha sofreu ultimamente alteração de horário e muitos atrasos acontecem mesmo com intervalo em horário de pico de 30 min. fora do horário de pico o intervalo é de 1 hora.</t>
+  </si>
+  <si>
+    <t>@sptrans o prejuízo seria meu de ter que ir atrás, ok o sistema se auto corrigiu, mas como disse se não usasse a 3a condução eu fez o que ir no posto da sptrans e pegar fila é tudo mais... sistema podre continuo com a mesma opinião. tínhamos que ter acesso a extratos.</t>
+  </si>
+  <si>
+    <t>@sptrans pois parece, me responde na dm</t>
+  </si>
+  <si>
+    <t>@sptrans ia ser injusto não deixar um elogio ao motorista que tentou cumprir seu horário é teve respeito  pelos passageiros e levou o carro até aonde pode. @sptrans por aprenda com esse motorista  pense na população, respeite os munícipes  é faça seu trabalho. https://t.co/mhctahcunx</t>
+  </si>
+  <si>
+    <t>devido a paralisação que afeta os ônibus da @sptrans na capital, algumas de nossas linhas estão operando com atrasos. @emtu_oficial @linhasrmsp @l4amarela_ @l5lilas @infosspbr @redenoticiando @sabina_simonato @mobilidadecotia @mobilidadesampa @radiotransitofm @otaboanense https://t.co/myfdsrpm8g</t>
+  </si>
+  <si>
+    <t>não sei nem pq está rodando... metade do veículo tem ar condicionado e a outra metade não... aí a solução caseira é abrir as janelinhas... fala sério... #sptrans https://t.co/nyos1nfpog</t>
+  </si>
+  <si>
+    <t>n era nem 6hr e meu irmão já tava na sptrans kkkk deus me livre</t>
+  </si>
+  <si>
+    <t>desalentador ter que ainda repetir isso nesta altura da história da humanidade... https://t.co/xdyo8skpmt</t>
   </si>
   <si>
     <t>boa tarde. bom trabalho a todos. um abraço.  @sptrans</t>
   </si>
   <si>
-    <t>eu queiria um dia andar sentado nesses busão da @sptrans só pra mim ver como é a viagem 🙃</t>
-  </si>
-  <si>
-    <t>isso confere @sptrans @mobilidadesampa @vpirajucara @brunocovas @jdoriajr @junior013santos @robertapeereira @prefsp… https://t.co/njdb1dxezr</t>
-  </si>
-  <si>
-    <t>@sptrans sem condições esses terminais novos. todos que usei sempre estragam os bilhetes</t>
-  </si>
-  <si>
-    <t>sptrans te odeio eternamente</t>
-  </si>
-  <si>
-    <t>6 6230 6063 me jogo água 1945 h vo liga pra polícia faze ocorrência https://t.co/lkfeukkmmo</t>
-  </si>
-  <si>
-    <t>@sptrans @sptrans_ isso é útil? https://t.co/ejeq0d2io4</t>
-  </si>
-  <si>
-    <t>@sptrans @rodrigobocardi @gloria_vanique data 03/09/2019 por volta das 8:30 ... isso é todo dia não importa o horár… https://t.co/k1g7yxevpn</t>
-  </si>
-  <si>
-    <t>@sptrans bilhete único (empresa)</t>
-  </si>
-  <si>
-    <t>@sptrans obrigado por bloquear meu cartão! e eu ligar para vocês e vocês informarem que não pode fazer nada!</t>
-  </si>
-  <si>
-    <t>inclusive para as manas de sp: a sptrans abriu um processo seletivo pra estudantes de ensino médio superior e técni… https://t.co/9s8qepsjz5</t>
-  </si>
-  <si>
-    <t>@brunocovas prezado prefeito novamente pergunto para que serve a @sptrans, empresa expresso carros velhos que quebr… https://t.co/yfduzesckt</t>
-  </si>
-  <si>
-    <t>@sptrans nas maquinas dos ônibus, e dentro do metro no ponto de recarga</t>
-  </si>
-  <si>
-    <t>@dudabeerg @sptrans é foda viu sinceramente</t>
-  </si>
-  <si>
-    <t>@sptrans linha 7545-10  rua vaticano  vcs podem avaliar q a linha está com falta de ônibus também tem a linha 7903… https://t.co/j6s1kuyjli</t>
-  </si>
-  <si>
-    <t>#sptrans motoristas e cobradores de ônibus estão neste momento se deslocando para o viaduto do chá, sede da prefeit… https://t.co/bjmuffkkol</t>
-  </si>
-  <si>
-    <t>sptrans ta de sacanagem, um ano pra liberar meu bilhete</t>
+    <t>@robertapeereira @prefsp @sptrans isso msm</t>
+  </si>
+  <si>
+    <t>e qual a resposta obtida no posto? aguardar mais 72hrs pois a central sptrans localizada na rua boa vista 274 simplesmente não sabem o que fazer nessa situação @sptrans qualidade ó 👌</t>
+  </si>
+  <si>
+    <t>@sptrans @prefeitura_sp consegui sim. infelizmente tive que ir num posto de novo. mas tudo bem. obrigada!</t>
+  </si>
+  <si>
+    <t>@myrtlesnowabs versão digital de bilhete único? francamente, não tem como dar certo. fora que atrapalha tudo que a sptrans já fez contra fraudes</t>
+  </si>
+  <si>
+    <t>#sptrans 15 linhas terão desvios de itinerário das 7h às 19h desta terça e quarta-feira, dias 3 e 4 de agosto, durante a abrafarma future trends 2019, no transamérica expo center. 
+https://t.co/tmuowbvkti</t>
+  </si>
+  <si>
+    <t>@sptrans comum! recebi o email que minha foto foi aprovada e informando pra eu ficar atenta no site</t>
+  </si>
+  <si>
+    <t>@sptrans não sei pra que pedem se não vão resolver</t>
+  </si>
+  <si>
+    <t>@sptrans afinal, quantos ônibus posso pegar usando uma passagem só com bilhete de empresa?</t>
   </si>
   <si>
     <t>o 99 pop ta desesperado que n uso ele mais
 felizmente sou patrocinada pela sptrans</t>
   </si>
   <si>
-    <t>@sptrans oi queridos boatos que sexta vai te greve e verdade esse bilhete ???</t>
-  </si>
-  <si>
-    <t>@sptrans tem um ponto de ônibus próximo a minha residência há pelo menos 4 anos. oq acontece? nunca puxaram uma lin… https://t.co/65azweqc13</t>
-  </si>
-  <si>
-    <t>@sptrans corre aqui, rapidinho. https://t.co/osxsj5ofpx</t>
-  </si>
-  <si>
-    <t>@sptrans não conte comigo pra nada. 30 dias pra ter um bilhete? até lá vou ficar andando de graça nos ônibus de sp, pode ser? da licença</t>
-  </si>
-  <si>
-    <t>@sptrans cadê o ônibus linha 297a-10  já faz mais de 30 minutos que não vêm.</t>
-  </si>
-  <si>
-    <t>@sptrans @rodrigobocardi @cesartralli @gloria_vanique @g1saopaulo para apurar, basta checar o horário. 
-querem que… https://t.co/m6hszhbvl6</t>
-  </si>
-  <si>
-    <t>@sptrans vcs poderiam me responder quando mais ou menos meu cartão chega??? https://t.co/zqp6a1klsl</t>
-  </si>
-  <si>
-    <t>@sptrans meu passe livre, ainda nada das minhas cotas 
-é a primeira vez que eu faço e não sei o que pode estar acontecendo</t>
-  </si>
-  <si>
-    <t>😴😱 aquele momento em que acordo de um cochilo dentro do ônibus e percebo que o meu ponto já passou … https://t.co/hgthphcpo8 (@sptrans)</t>
-  </si>
-  <si>
-    <t>cadê o busão @sptrans ???</t>
-  </si>
-  <si>
-    <t>@sptrans estou tentando desde de domingo</t>
-  </si>
-  <si>
-    <t>na quinta-feira 29/08 o ônibus que peguei na volta da faculdade linha 8016/10 carro 15026 foi conduzido por um irre… https://t.co/cmgzduonun</t>
-  </si>
-  <si>
-    <t>meu bilhete único finalmente carregou as cotas estou livreeeeeeeeeeeeeeeeeeeee se foda foreveeeeeer sptrans https://t.co/ew0oogd2u5</t>
-  </si>
-  <si>
-    <t>pena que eu tenho 17 e to no 3 ano https://t.co/av4avizfxu</t>
-  </si>
-  <si>
-    <t>@sptrans verdade, tinha que ser proibido comer dentro do ônibus</t>
-  </si>
-  <si>
-    <t>@sptrans quero falar pessoalmente com algum supervisor. é possível?</t>
-  </si>
-  <si>
-    <t>espero que o criador desse aplicativo se foda muito nessa vida igual eu me fodi hoje @sptrans https://t.co/pi4gakazlt</t>
-  </si>
-  <si>
-    <t>@sptrans vcs colocam novas máquinas e nenhuma delas funciona, só as velhas. vai chegar um dia q não vai ter mais as… https://t.co/jmax4zhnbb</t>
-  </si>
-  <si>
-    <t>hoje eu liguei pra sptrans e agora vou pagar um boleto, adulta d+ cara</t>
-  </si>
-  <si>
-    <t>Teste</t>
-  </si>
-  <si>
-    <t>#sptrans o sindicato informou que caso o executivo não se manifeste, a frota de ônibus começará a ser recolhida na… https://t.co/vb3sl45swr</t>
-  </si>
-  <si>
-    <t>eu ainda preciso ir no posto da sptrans desbloquear meu cartão</t>
-  </si>
-  <si>
-    <t>observou ônibus c/ falta de limpeza? anote o prefixo dele e nos informe, para que possamos identificá-lo e inspecioná-lo (@sptrans)</t>
-  </si>
-  <si>
-    <t>bom dia. bom trabalho a todos. um abraço. @sptrans</t>
-  </si>
-  <si>
-    <t>@sptrans @sub_penha #sp1 #sptv #spnoar como posso trazer melhorias para o meu bairro? com um ônibus passando aqui,… https://t.co/aagtpwyj5s</t>
-  </si>
-  <si>
-    <t>terminal cidade tiradentes da sptrans recebe unidade móvel lgbti nesta quarta-feira, dia 4 
-#sptrans #lgbti
-https://t.co/oyclbekzea</t>
-  </si>
-  <si>
-    <t>@luan_f_goulart @sptrans que absurdo!</t>
-  </si>
-  <si>
-    <t>@metrosp_oficial @sptrans é bem melhor mesmo, obrigada metrô</t>
-  </si>
-  <si>
-    <t>@vpirajucara @linhasrmsp @sptrans @emtu_oficial @l4amarela_ @l5lilas @infosspbr @redenoticiando @sabina_simonato… https://t.co/nioyk4wspk</t>
-  </si>
-  <si>
-    <t>@sptrans linha 875c terminal lapa metrô santa cruz sempre em atraso, quando chove a desculpa é maior.</t>
-  </si>
-  <si>
-    <t>@yeagxr ouviu @sptrans</t>
-  </si>
-  <si>
-    <t>@morearly se for pra ir em show/evento normalmente quando ta perto da data a sptrans libera no site as linhas que v… https://t.co/u9vd1fbgdx</t>
-  </si>
-  <si>
-    <t>alguém sabe se há paralisação dos ônibus da @sptrans em são paulo? parque dom pedro está um caos.</t>
-  </si>
-  <si>
-    <t>quero denunciar agressão física de funcionários da linha 9501 (terminal vila nova cachoeirinha), n° do ônibus 1 111… https://t.co/n1cqaffswx</t>
-  </si>
-  <si>
-    <t>#sptrans categoria protesta pela possibilidade do não pagamento da plr e do desmonte do sistema sobre ônibus na cap… https://t.co/humr2yltpp</t>
-  </si>
-  <si>
-    <t>#sptrans bilhete único: prazo para utilização do saldo superior a r$ 43 de créditos do tipo comum de cartões emitid… https://t.co/aegm7bbda5</t>
-  </si>
-  <si>
-    <t>@sptrans hj só pq está chovendo motoristas estão pulando as paradas... kd os fiscais? precisa aumentar o número! #indignado</t>
-  </si>
-  <si>
-    <t>@sptrans aí sim! bingou! obrigado.</t>
-  </si>
-  <si>
-    <t>@sptrans comum! recebi o email que minha foto foi aprovada e informando pra eu ficar atenta no site</t>
-  </si>
-  <si>
-    <t>é greve essa palhaçada.. https://t.co/tagnimvcwz</t>
-  </si>
-  <si>
-    <t>@sptrans essa gestão covas e a pior que são paulo já teve, tirando direitos adquiridos como as 4 integrações do vt,… https://t.co/prln9uvjli</t>
-  </si>
-  <si>
-    <t>@sptrans @metrosp_oficial as máquinas de colocar dinheiro no metrô tatuapé estão todas indisponíveis, hoje de manhã… https://t.co/bwbevs2ho3</t>
-  </si>
-  <si>
-    <t>alô @sptrans vai ter greve ou nem?</t>
-  </si>
-  <si>
-    <t>@ludekasp9 @vpirajucara @sptrans @emtu_oficial @l4amarela_ @l5lilas @infosspbr @redenoticiando @sabina_simonato… https://t.co/b2jr2wmr9l</t>
-  </si>
-  <si>
-    <t>@andreagambale @sptrans @radiotransitofm andrea, você está indo pro terminal bandeira?</t>
-  </si>
-  <si>
-    <t>eu vou matar a sptrans</t>
-  </si>
-  <si>
-    <t>@sptrans ônibus 5652_10 praca da  se ...63721..quand chehou na cruz vermelha o motorista pediu pra todos passageiro… https://t.co/yqjuk2jjly</t>
-  </si>
-  <si>
-    <t>linha 675l/10 terminal santo amato – metrô santa cruz operada pela sptrans deixará de circular aos domingos.… https://t.co/j3pmxvpxft</t>
-  </si>
-  <si>
-    <t>#sptrans categoria protesta pela possibilidade do não pagamento da plr e do desmonte do sistema sobre ônibus na cap… https://t.co/inqu9ivuei</t>
-  </si>
-  <si>
-    <t>@sptrans ok! obrigado</t>
-  </si>
-  <si>
-    <t>🎧 🚍 a semana começa melhor quando se ouve música, mas quando estiver no ônibus, lembre-se sempre de uti https://t.co/bo3iocaops (@sptrans)</t>
-  </si>
-  <si>
-    <t>@lilnaomi1 @sptrans né meu</t>
-  </si>
-  <si>
-    <t>@sptrans tenho um bilhete único vt vou precisar troca-lo ?</t>
-  </si>
-  <si>
-    <t>@electriclvdy @cymoonchild https://t.co/6m94hfhvlk vidahs se interessar!!</t>
-  </si>
-  <si>
-    <t>@sptrans essas mudanças no vt são ridículas, numa época onde as pessoas estam cada vez mais perdendo seus empregos,… https://t.co/horhgqgsym</t>
-  </si>
-  <si>
-    <t>@sptrans certeza? por que vcs n resolvem online igual da outra vez e mudam minha cota pra 150 de volta?</t>
-  </si>
-  <si>
-    <t>@sptrans foi ontem, dia 03/09, por volta de 13h</t>
-  </si>
-  <si>
-    <t>tem muita gente "na bronca" com a sptrans porque teve o bilhete único cancelado. #borasp #bandjornalismo https://t.co/fpsay7vrg3</t>
-  </si>
-  <si>
-    <t>@sptrans eu preciso de ajuda com meu bilheteeeeee</t>
-  </si>
-  <si>
-    <t>@sptrans alô sp trans, já estamos em 2019 e só um ônibus que passa na fco matarazzo passa também na paulista 
-vamo… https://t.co/3h7xyc2h1p</t>
-  </si>
-  <si>
-    <t>fui quinta feira entregar as documentações, entregar os papéis pra carteirinha do ônibus, solicitar o do sptrans, m… https://t.co/lro8cgxjo0</t>
-  </si>
-  <si>
-    <t>@sptrans obrigado pelo retorno</t>
-  </si>
-  <si>
-    <t>@sptrans tudo isso pra me dar uma resposta automatica que está demorando muito enquanto meu bilhete está travado at… https://t.co/vsketuujf8</t>
-  </si>
-  <si>
-    <t>@sptrans na foto ñ tem o número do veículo</t>
-  </si>
-  <si>
-    <t>@sptrans um app que sempre uso, foi no cartão de crédito, foi aprovado e inclusive descontou do meu  cartão e tudo.… https://t.co/hlvbxqo03x</t>
-  </si>
-  <si>
-    <t>🌦☀️ faça chuva, frio ou calor, mantenha as janelas dos ônibus sem ar-condicionado c/ abertura suficiente https://t.co/p84cvvshtl (@sptrans)</t>
-  </si>
-  <si>
-    <t>namoral quero mto q todos os sptrans morram pq q bando de filha da puta desgraçado não tem nada pra fazer levou meu… https://t.co/7klbcplymc</t>
-  </si>
-  <si>
-    <t>até a sptrans reconhece o feriado mundial kkkkkkkkk https://t.co/v6zp00qzwl</t>
-  </si>
-  <si>
-    <t>@sptrans @__allansilva__ @prefsp certo farei a reclamação sobre o condutor.
-sobre a resposta, teve mais duas reclamações...</t>
-  </si>
-  <si>
-    <t>#sptrans bilhete único: prazo para utilização do saldo superior a r$ 43 de créditos do tipo comum de cartões emitid… https://t.co/moufksbpjv</t>
-  </si>
-  <si>
-    <t>@sptrans vamos aproveitar e rever a linha 809a-10 jardim d'abril #superlotada #onibusvelho #poucoonibus #precário @brunocovas @g1</t>
-  </si>
-  <si>
-    <t>@gcinoca existem vários apps que vc pode utilizar para comprar seus créditos, se preferir. o pessoal da @sptrans te… https://t.co/myaesl6tc5</t>
-  </si>
-  <si>
-    <t>#bdsp 
-bom @rodrigobocardi , bom dia @gloria_vanique 
-ouvi falar de uma tal greve (paralização dos ônibus nessa sex… https://t.co/bdi77msman</t>
-  </si>
-  <si>
-    <t>#sptrans o grupo quer que a gestão covas receba representantes do sindmotoristas para discutir diversas questões re… https://t.co/hmz03intj9</t>
-  </si>
-  <si>
-    <t>@sptrans belezinha! muito obrigado, sptrans linda meu amor</t>
-  </si>
-  <si>
-    <t>@sptrans boa tarde, por favor podem informar se o terminal bandeira está fechado?</t>
-  </si>
-  <si>
-    <t>vou entrar no procon, https://t.co/liou4il2s3, reclame.aqui, no judiciário inteiro contra essa merda de @sptrans.</t>
-  </si>
-  <si>
-    <t>#sptrans 15 linhas terão desvios de itinerário das 7h às 19h desta terça e quarta-feira, dias 3 e 4 de agosto, dura… https://t.co/ht6fe9oqsv</t>
-  </si>
-  <si>
-    <t>@sptrans @sptrans_ como faco</t>
-  </si>
-  <si>
-    <t>como a @sptrans é a escória do mundo!</t>
-  </si>
-  <si>
-    <t>passando mal e ainda esqueci o bilhete da sptrans</t>
-  </si>
-  <si>
-    <t>@sptrans boa tarde e bom trabalho, para todos vocês 🙏</t>
-  </si>
-  <si>
-    <t>@sptrans boa tarde, me tirem uma dúvida. faço o seguinte trajeto: 01 (um) ônibus, 01 (um) trem e mais 01 (um) ônibu… https://t.co/vastlrnoaf</t>
-  </si>
-  <si>
-    <t>😻 não consegue se separar do seu melhor amigo? não precisa! veja as regras para transportá-lo no ônibus: https://t.co/uzkwtbnjka (@sptrans)</t>
-  </si>
-  <si>
-    <t>🤰💜 grávidas a partir do 5º mês e até o final da gest. podem utilizar o bilhete único da gestante. veja  https://t.co/aykmz78k3g (@sptrans)</t>
-  </si>
-  <si>
-    <t>aviso de risco de #alagamento 🛑 na região de #sp. informações atualizadas nos comentários e https://t.co/lmr780uqa8… https://t.co/zdf82gl08s</t>
-  </si>
-  <si>
-    <t>@sptrans as máquinas do terminal capelinha estao sem comunicação com o servidor..</t>
-  </si>
-  <si>
-    <t>🤔📷 estudante, evite transtornos! ao encostar o bilhete único, o validador compara o rosto c/ a foto que https://t.co/wb85vldvrm (@sptrans)</t>
-  </si>
-  <si>
-    <t>@sptrans liguei no 156 para resolver referente ao meu passei livre (que está entrando menos cotas, para ônibus, do… https://t.co/73376qrzsn</t>
-  </si>
-  <si>
-    <t>indo na sptrans e perdendo aula dnv pq eu infelizmente só faço bosta</t>
-  </si>
-  <si>
-    <t>https://t.co/fjla1rzemh   
-olá @sptrans precisamos de mais transporte público para os cidadãos e não a redução das… https://t.co/phdblnl6l8</t>
-  </si>
-  <si>
-    <t>@sptrans olá eu embarquei primeiro em em ônibus e no metrô tatuapé no próprio foi cobrado 4,30 e mais 4,30 depois e… https://t.co/owsaumjgro</t>
-  </si>
-  <si>
-    <t>@sptrans os ônibus ja são um lixo hoje peguei um da linha jd.jacira terminal capelinha tudo sujo ai vem vcs fala merda</t>
-  </si>
-  <si>
-    <t>hj vou tentar carregar meu bilhete único dnv se não for, amanhã vou lá na sptrans</t>
-  </si>
-  <si>
-    <t>alô @sptrans tô tentando me cadastrar no bilhete único e diz que eu já estou cadastrado, mas aí quando coloco meus… https://t.co/tev7urrq9d</t>
-  </si>
-  <si>
-    <t>@sptrans sim primeira via, como eu vou saber quando chegar???</t>
-  </si>
-  <si>
-    <t>sptrans abre vagas de estágio e cadastro reserva 
-são 35 vagas para o ensino médio, que oferecem bolsa auxílio de… https://t.co/giyo3hwwk4</t>
-  </si>
-  <si>
-    <t>@sptrans qdo coloco a data aparece essa mensagem ... e sem a data não consigo prosseguir. https://t.co/ynoqvmep7b</t>
-  </si>
-  <si>
-    <t>mais uma vez obrigado @cetsp_ @prefsp @stmsp_oficial @sptrans pelo trânsito no cruzamento da av. jacu-pêssego, r sa… https://t.co/leztd89b84</t>
-  </si>
-  <si>
-    <t>a vai te fuder doria e sptrans</t>
-  </si>
-  <si>
-    <t>@sptrans @dessatino olá, boa tarde! encaminhamos sua mensagem a empresa dona das máquinas para verificar as máquinas. obrigado</t>
-  </si>
-  <si>
-    <t>daqui a pouco o dó.ria muda sptrans pra spcis</t>
-  </si>
-  <si>
-    <t>atenção: sptrans anuncia que bilhete único emitido antes de 2014 vai ter créditos bloqueados neste mês https://t.co/nzdw3zkyxj</t>
-  </si>
-  <si>
-    <t>@sptrans @sptrans_ aguardo informações sobre as ações tomadas sobre a conduta deste condutor e outras ações preventivas</t>
-  </si>
-  <si>
-    <t>@sptrans @bomdia_sp @prefsp olá gostaria de saber se já foi verificado  pois o problema persiste o de hoje foi o prefixo 7 2107.</t>
-  </si>
-  <si>
-    <t>@sptrans sim no periodo  da tarde fica concentrado uma enorme quantidade  de onibus articulado na avenida sapopemba… https://t.co/38flp9zmcg</t>
-  </si>
-  <si>
-    <t>@sptrans pois parece, me responde na dm</t>
-  </si>
-  <si>
-    <t>#sptrans o sindicato informou que caso o executivo não se manifeste, a frota de ônibus começará a ser recolhida na… https://t.co/pzwlmkcmnn</t>
-  </si>
-  <si>
-    <t>@pedrosomera @sptrans tenta durante o dia. é  sempre assim, de manhã ou muito tarde ele nunca deixa usar o cartão 🤦🏻‍♀️</t>
-  </si>
-  <si>
-    <t>@sptrans por enquanto  aqui na interlagos ta normal..tô no ônibus  sentido centro...praça  da sé..5652_10</t>
-  </si>
-  <si>
-    <t>@sptrans @cetsp_ no caso da plataforma onde ficam os táxis e na praça na saída do terminal, chega a ser absurdo a b… https://t.co/8c489d34uf</t>
-  </si>
-  <si>
-    <t>#sptrans os terminais bandeira e parque dom pedro ii estão neste momento sendo afetados pela manifestação em apoio… https://t.co/bewefamhjz</t>
-  </si>
-  <si>
-    <t>#sptrans o sindicato informou que caso o executivo não se manifeste, a frota de ônibus começará a ser recolhida na… https://t.co/kx5jwqqyti</t>
-  </si>
-  <si>
-    <t>os embustes fingem dormir ou q não estão vendo. sem contar os q sentam no assento preferencial, devia ser proibido.… https://t.co/316wmbf0t3</t>
-  </si>
-  <si>
-    <t>@sptrans boa tarde, preciso de auxílio urgente !!</t>
-  </si>
-  <si>
-    <t>@sptrans hoje mesmo peguei o 607c combo ar condicionado desligado...ainda bem que o twitter só funciona para elogiar...</t>
-  </si>
-  <si>
-    <t>#sptrans nesta terça-feira, dia 3 de setembro, o terminal vila carrão receberá a unidade móvel lgbti para assistênc… https://t.co/d1wkafouww</t>
-  </si>
-  <si>
-    <t>@sptrans já tem um mês e meio que realizei a minha entrevista no cras, já consegui o meu número ativo do nis e já r… https://t.co/u9kxjnustx</t>
-  </si>
-  <si>
-    <t>@meuser_ @sptrans olá. sim</t>
-  </si>
-  <si>
-    <t>perdi meu cartão do metrô e tô tentando cancelar, mas o 156 da @sptrans não atende de jeito nenhum, o que eu faço</t>
-  </si>
-  <si>
-    <t>@sptrans vamo dar uma olhada no terminal joão dias linha 6400 terminal bandeira a pausa dos ônibus é absurda, meia… https://t.co/qtmfe2npu5</t>
-  </si>
-  <si>
-    <t>tive que vir na sptrans pq meu bilhete só virou pra ônibus (???)</t>
-  </si>
-  <si>
-    <t>@sptrans pq não falam de uma vez que é greve dos motoristas?</t>
-  </si>
-  <si>
-    <t>aqui no terminal parque dom pedro  a linha 2582 (vila nova curuçá) funciona" horário " de acordo com humor  dos mot… https://t.co/krw81c95gf</t>
-  </si>
-  <si>
-    <t>#sptrans 15 linhas terão desvios de itinerário das 7h às 19h desta terça e quarta-feira, dias 3 e 4 de agosto, dura… https://t.co/iehfzw9vrt</t>
-  </si>
-  <si>
-    <t>@sptrans vamo agir, da um help</t>
-  </si>
-  <si>
-    <t>ônibus c lixeira ok.
-ao lado cobrador, q come um doce ok.
-ele espera abrir a porta do veículo p jogar a embalagem n… https://t.co/dw6vynxk9q</t>
-  </si>
-  <si>
-    <t>@luan_f_goulart @sptrans olhem isso @gloria_vanique @rodrigobocardi @cesartralli @jacquebrazil @xoia @sabina_simonato @vazluiza</t>
-  </si>
-  <si>
-    <t>@sptrans aaawwwn muito obrigado estagiario lindinho</t>
-  </si>
-  <si>
-    <t>@poupatemposp @sptrans  eu to cansado de perder o rg no busão, vcs poderiam me dar um rg vitalício de 1 m2, feito e… https://t.co/9yskp1t4ad</t>
-  </si>
-  <si>
-    <t>@sptrans linha 846m, 02/09, 6h25, avenida dos remédios, 2001, sentido terminal pinheiros.
-essa linha está cada dia… https://t.co/8geiqxpjxw</t>
-  </si>
-  <si>
-    <t>processo seletivo tem edital de abertura divulgado pela sptrans | pci
-https://t.co/xdjyjcozab</t>
-  </si>
-  <si>
-    <t>@sptrans @sptrans_ ja cancelei. o que eu quero agora é a carteirinha de estudante, no site sotrans diz q faculdade… https://t.co/qat5vjemrb</t>
-  </si>
-  <si>
-    <t>🙆 mulheres e idosos podem descer fora do ponto de ônibus no horário das 22h às 5h. saiba mais:… https://t.co/oj1d2lbpuf (@sptrans)</t>
-  </si>
-  <si>
-    <t>sptrans, pq tão lixo????</t>
-  </si>
-  <si>
-    <t>tô mto feliz que a linha 6262 está com ônibus novo. alegria de pobre é isso ai! @sptrans</t>
-  </si>
-  <si>
-    <t>@sptrans mas ja passou os 45 dias e ja consta todos os dados no cadunico</t>
-  </si>
-  <si>
-    <t>#sptrans 15 linhas terão desvios de itinerário das 7h às 19h desta terça e quarta-feira, dias 3 e 4 de agosto, dura… https://t.co/k1elggblnf</t>
-  </si>
-  <si>
-    <t>@sptrans se for pelo 156...nao percam  tempo, la e impossível  ser atendido.</t>
-  </si>
-  <si>
-    <t>@autotranscap já corrigimos, acabamos digitando errado o nome da via, ao olhar o itinerário da linha 807j/10 no site da sptrans 😉</t>
+    <t>@sptrans @rodrigobocardi @gloria_vanique o ônibus já parte cheio e de 3 a 4 pontos ele já está praticamente lotado e vai assim até a paulista... não importa o dia, o intervalo entre os ônibus de 15 a 20 minutos favorece essa situação, poucos ônibus para mta demanda...</t>
+  </si>
+  <si>
+    <t>eu queiria um dia andar sentado nesses busão da @sptrans só pra mim ver como é a viagem 🙃</t>
+  </si>
+  <si>
+    <t>💻 conhece a loja virtual? com ela você pode comprar créditos para o seu bilhete único sem sair de casa!  https://t.co/2kl7ewsw9t (@sptrans)</t>
+  </si>
+  <si>
+    <t>#sptrans categoria protesta pela possibilidade do não pagamento da plr e do desmonte do sistema sobre ônibus na capital; possibilidade de paralisação do sistema não está descartada. 
+https://t.co/nqp0w2lxne</t>
+  </si>
+  <si>
+    <t>@brunocovas e @sptrans  porque não respondem aos posts.
+@brunocovas a zona leste está entregue a própria sorte https://t.co/b4kxnnacwl</t>
   </si>
   <si>
     <t>@sptrans_
 antes eu queria saber os motivos que levam as pessoas 
-a terem acesso de furia em uma instituição federal… https://t.co/6riyvj7v36</t>
-  </si>
-  <si>
-    <t>são paulo tá o caos!!!!
-@g1 @sptrans @saopaulo https://t.co/a5rl2ehofb</t>
-  </si>
-  <si>
-    <t>#sptrans nesta terça-feira, dia 3 de setembro, o terminal vila carrão receberá a unidade móvel lgbti para assistênc… https://t.co/l0ybpj1pty</t>
+a terem acesso de furia em uma instituição federal, estadual ou 
+municipal e hoje entedi. estive no lindo posto de atendimento da @sptrans no… https://t.co/cnvlbuwnda</t>
+  </si>
+  <si>
+    <t>#sptrans o sindicato que representa os trabalhadores do transporte na capital definiram um plano de lutas que pode culminar em uma eventual paralisação na sexta-feira, dia 6. 
+consulte neste link às informações sobre o ato: 
+https://t.co/7z54nfwcwv</t>
+  </si>
+  <si>
+    <t>🤰💜 grávidas a partir do 5º mês e até o final da gest. podem utilizar o bilhete único da gestante. veja  https://t.co/aykmz78k3g (@sptrans)</t>
+  </si>
+  <si>
+    <t>@sptrans vai tomar no cu vcs e suas máquinas de carregar bilhete eu perdi 10 reais nessa merda como eu vou ser reembolsada caralho? não tem nenhum responsável desses lixo nas estações vai se fuderrrrrr empresa lixo do caralho</t>
+  </si>
+  <si>
+    <t>#sptrans nesta terça-feira, dia 3 de setembro, o terminal vila carrão receberá a unidade móvel lgbti para assistência aos passageiros. 
+https://t.co/zit2nj8qbl</t>
+  </si>
+  <si>
+    <t>cadê o busão @sptrans ???</t>
+  </si>
+  <si>
+    <t>@sptrans linha 846m, 02/09, 6h25, avenida dos remédios, 2001, sentido terminal pinheiros.
+essa linha está cada dia mais deixada de lado. os ônibus além dos atrasos estão em péssimos estados. na chuva de ontem havia goteiras no ônibus.</t>
+  </si>
+  <si>
+    <t>@sptrans linha 7545-10  rua vaticano  vcs podem avaliar q a linha está com falta de ônibus também tem a linha 7903 todas são da zona oeste joão xxiii x praça ramos</t>
+  </si>
+  <si>
+    <t>@sptrans esse tipo aqui
+na hora que colocou meu bilhete a tela carrega e diz  "estamos sem comunicação com o servidor" https://t.co/3biadsovzy</t>
+  </si>
+  <si>
+    <t>@sptrans é greve dos motoristas.
+sejam verdadeiros</t>
+  </si>
+  <si>
+    <t>protesto x ônibus - neste momento, segundo a sptrans, os terminais parque dom pedro, bandeira, pinheiros, campo limpo e princesa isabel estão fechados devido manifestação dos motoristas e cobradores. vídeo da ouvinte maria fernanda do vd dr. plínio de queirós. #seumelhorcaminho https://t.co/u9gufshvkl</t>
+  </si>
+  <si>
+    <t>@sptrans aaawwwn muito obrigado estagiario lindinho</t>
+  </si>
+  <si>
+    <t>@sptrans eu fui assaltado, com o b.o. eu consigo a segunda, ou seria talvez a quarta, via do meu bilhete de estudante? consigo no sacomã ou tenho que ir na são bento?
+bjs</t>
+  </si>
+  <si>
+    <t>sptrans abre vagas de estágio e cadastro reserva 
+são 35 vagas para o ensino médio, que oferecem bolsa auxílio de r$ 529,32 por mês. a jornada para estes estudantes é de seis horas diárias. https://t.co/zo9anelnt9</t>
+  </si>
+  <si>
+    <t>hoje estou curtindo #saopaulo, ir de ônibus para o trabalho revela muito da cidade. 
+casei daquele cinza claustrofóbico da #l1 #metrosp. 
+ainda mais indo sentando em um ônibus com ar condicionado. @sptrans</t>
+  </si>
+  <si>
+    <t>@sptrans já passou,ontem à noite q recebi. mas obrigado</t>
+  </si>
+  <si>
+    <t>existe ainda  @sptrans  ? faz o que  ? fiscalização  no terminais de ônibus por exemplo  ?
+@veredirsales  poderá entrar no circuito  ? terminal parque dom pedro  tá  "largado " .ônibus  sem respeitar horários, elevadores para cadeirantes não funciona  e até  companhia. #vergonha</t>
+  </si>
+  <si>
+    <t>@sptrans tudo parado aqui! isso é greve!!!!</t>
+  </si>
+  <si>
+    <t>@sptrans coisas inúteis seu babacas</t>
+  </si>
+  <si>
+    <t>atendimento da sptrans é um lixo, av maria</t>
+  </si>
+  <si>
+    <t>cadastrei uma foto super bonitinha na sptrans e eles nao aceitaram kkkkkkkkkk aff vou ter q mandar uma feia mesmo</t>
+  </si>
+  <si>
+    <t>tem muita gente "na bronca" com a sptrans porque teve o bilhete único cancelado. #borasp #bandjornalismo https://t.co/fpsay7vrg3</t>
+  </si>
+  <si>
+    <t>@sptrans belezinha! muito obrigado, sptrans linda meu amor</t>
+  </si>
+  <si>
+    <t>#sptrans #emtu | reflexões sobre a possibilidade de remodelar o expresso tiradentes https://t.co/eg4a0x4tqr</t>
+  </si>
+  <si>
+    <t>@gabenedito bom dia gislene, sobre problemas no bilhete único a @sptrans gestora do bilhete pode ajudar ;)</t>
+  </si>
+  <si>
+    <t>linha 675l - term. santo amaro x metrô santa cruz deixa de operar aos domingos e feriados. linha com trajeto similar terá horário ampliado. confira:
+https://t.co/e5rjpwlhbo
+#santoamaro #santacruz #metropolepaulista #sp #zs #sptrans https://t.co/zdjkhsuijd</t>
+  </si>
+  <si>
+    <t>@sptrans vamo agir, da um help</t>
+  </si>
+  <si>
+    <t>@sptrans muito boa tarde. não tive o interesse,pois parei de reclamar no site devido burocracia e a não solução de reclamações. mas como foi publicado que os ônibus com ar condicionado sempre tem o equipamento de ar ligado,e justamente hoje o que eu peguei estava desligado,eu não resisti.</t>
+  </si>
+  <si>
+    <t>@luan_f_goulart @sptrans olhem isso @gloria_vanique @rodrigobocardi @cesartralli @jacquebrazil @xoia @sabina_simonato @vazluiza</t>
+  </si>
+  <si>
+    <t>@sptrans @sptrans boa tarde, meu cartão é o de número 719035035 e fui bloqueada pelo reconhecimento facial, no entanto, perdi meu bilhete durante as férias e não me dei conta. a atendente do posto no centro disse que a justificativa era puramente formal pois a chance de conseguir reaver+</t>
+  </si>
+  <si>
+    <t>indo na sptrans e perdendo aula dnv pq eu infelizmente só faço bosta</t>
+  </si>
+  <si>
+    <t>@sptrans são tantos pela cidade</t>
+  </si>
+  <si>
+    <t>@sptrans preciso cancelar o meu cartão que perdi ontem! :(</t>
+  </si>
+  <si>
+    <t>minha chefe teve que tirar o telefone da minha mão hoje, porque eu estava xingando tanto o carinha da sptrans! depois pedi desculpa e ele me mandou se fuder, achei bem justo</t>
+  </si>
+  <si>
+    <t>sptrans implanta linha de atendimento 3006/21 etec guaianazes – cptm guaianazes a partir do dia 9 https://t.co/ynsfriqijb</t>
   </si>
   <si>
     <t>@sptrans okay obrigada</t>
   </si>
   <si>
-    <t>#sptrans categoria protesta pela possibilidade do não pagamento da plr e do desmonte do sistema sobre ônibus na cap… https://t.co/rhhr0mxozd</t>
-  </si>
-  <si>
-    <t>@sptrans meu bilhete único é junto com o vt, ao fazer a mudança  para o personalizado os créditos do bilhete vão se… https://t.co/4rfbc0cqlf</t>
-  </si>
-  <si>
-    <t>@sptrans favor treinar e orientar melhor seus motoristas, pois o motorista do ônibus 25123 saiu andando no momento… https://t.co/ioqrcapqff</t>
-  </si>
-  <si>
-    <t>@sptrans tirar os ônibus novos e colocar um monte de velharia no lugar, é correto? a sptrans está de acordo com iss… https://t.co/6kvrsonnj9</t>
-  </si>
-  <si>
-    <t>#sptrans o sindicato que representa os trabalhadores do transporte na capital definiram um plano de lutas que pode… https://t.co/zjancpfcy5</t>
+    <t>hj vou tentar carregar meu bilhete único dnv se não for, amanhã vou lá na sptrans</t>
+  </si>
+  <si>
+    <t>mano a sptrans me odeia nao eh possivel</t>
+  </si>
+  <si>
+    <t>#sptrans os terminais bandeira e parque dom pedro ii estão neste momento sendo afetados pela manifestação em apoio aos atos do sindmotoristas.
+acesse o link e confira às últimas informações:
+https://t.co/xrq85zoalz</t>
+  </si>
+  <si>
+    <t>🎧 🚍 a semana começa melhor quando se ouve música, mas quando estiver no ônibus, lembre-se sempre de uti https://t.co/bo3iocaops (@sptrans)</t>
+  </si>
+  <si>
+    <t>#sptrans o sindicato que representa os trabalhadores do transporte na capital definiram um plano de lutas que pode culminar em uma eventual paralisação na sexta-feira, dia 6. 
+consulte neste link às informações sobre o ato: 
+https://t.co/pkoyqyke9v</t>
+  </si>
+  <si>
+    <t>meu cartao da sptrans deu falha de novooooo pqppppp vai pra merdaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>#sptrans categoria protesta pela possibilidade do não pagamento da plr e do desmonte do sistema sobre ônibus na capital; possibilidade de paralisação do sistema não está descartada. 
+https://t.co/yfgsfjwopw</t>
+  </si>
+  <si>
+    <t>amanhã vou na sptrans e no rh do trampo pra tretar não aguento mais pagar 4,30 todo dia</t>
+  </si>
+  <si>
+    <t>@sptrans boa tarde, por favor podem informar se o terminal bandeira está fechado?</t>
+  </si>
+  <si>
+    <t>esse busão do residencial santa barbara- metrô carrão  ta indo tão devagar, o motorusta ta tão lerdo mas tão lerdo q acabo de ver o carro de tras ultrapassando a gente @sptrans</t>
+  </si>
+  <si>
+    <t>protesto x ônibus neste momento, segundo a sptrans, os terminais parque dom pedro, bandeira, pinhe https://t.co/lqf4pembx5 (radiotransitofm)</t>
+  </si>
+  <si>
+    <t>@sptrans esse e mais um q ñ parou hoje as 14:53 na marginal pinheiros no sentido bairro no ponto próximo da ponte joão dias https://t.co/xtsela2p7k</t>
+  </si>
+  <si>
+    <t>@sptrans boa tarde e bom trabalho, para todos vocês 🙏</t>
+  </si>
+  <si>
+    <t>@sptrans @andrezadelgado nesse semetre aparece que meu dados nao foram enviados pela escola. no semestre passado, estava normal e dizia que eu poderia fazer a recarga mas quando eu levei pra fazer não foi autorizado.</t>
+  </si>
+  <si>
+    <t>#sptrans se até 12h30 a prefeitura não receber a categoria, a frota de ônibus começará a ser recolhida, informou o sindicato.</t>
+  </si>
+  <si>
+    <t>oxi pra q??  c tdo ki nois passa aki vcs manda ir p site fazer por escrito..??? tiração! https://t.co/whqr316t9m</t>
+  </si>
+  <si>
+    <t>até a sptrans reconhece o feriado mundial kkkkkkkkk https://t.co/v6zp00qzwl</t>
+  </si>
+  <si>
+    <t>@sptrans pq não falam de uma vez que é greve dos motoristas?</t>
+  </si>
+  <si>
+    <t>@sptrans bom dia, posso um bilhete unico vt onde a empresa que trabalho deposita todo mes o valor da passagem de onibus e metro.consultei no site da sptrans o número desse bilhete e ele nao possui cadastro.gostaria de saber se é preciso trocar o bilhete com nova regra?</t>
+  </si>
+  <si>
+    <t>@dudabeerg @sptrans é foda viu sinceramente</t>
+  </si>
+  <si>
+    <t>🤔📷 estudante, evite transtornos! ao encostar o bilhete único, o validador compara o rosto c/ a foto que https://t.co/wb85vldvrm (@sptrans)</t>
+  </si>
+  <si>
+    <t>@sptrans boa noite 
+tem greve dos ônibus amanhã?</t>
+  </si>
+  <si>
+    <t>sejam mais espertos equipe de negócio aí da @sptrans ou quem quer que seja o responsável por criar tal regra. se existe esse problema de liberar um cartão vt solicitado pois a pessoa solicitou um anônimo anteriormente, avisem a equipe de atendimento ao público.</t>
+  </si>
+  <si>
+    <t>@sptrans isso ocorre com tanta frequência que virou normalidade.</t>
+  </si>
+  <si>
+    <t>@sptrans pessoas como eu, que moram na zona leste e precisam de 3 ou 4 integrações vão sofrendo, no meu caso, preciso de 3 integrações, patrão não dá a mais, ou aceita ou sai do emprego, o senhor @brunocovas anda de ônibus depois das 23hrs pra saber a falta que uma integração?</t>
   </si>
   <si>
     <t>@sptrans fiz a 2 meses ja</t>
   </si>
   <si>
-    <t>to na sptrans e td mundo com blusa de frio e eu tranquilona de regata depois de descer a augusta inteira</t>
-  </si>
-  <si>
-    <t>@_apantaleao @sptrans libera as cotas a mais pra ela</t>
-  </si>
-  <si>
-    <t>@sptrans muito obrigada ♥️</t>
-  </si>
-  <si>
-    <t>@brunocovas e @sptrans  porque não respondem aos posts.
-@brunocovas a zona leste está entregue a própria sorte https://t.co/b4kxnnacwl</t>
-  </si>
-  <si>
-    <t>@joelspinelli @sptrans boa sorte para encontrar alguém que sabe ler e interpretar no setor de reclamação da sptrans.</t>
-  </si>
-  <si>
-    <t>@sptrans kkkkkkkkkk 😂 mandaram bem no gif 😉</t>
-  </si>
-  <si>
-    <t>atualização [14:42]
-está previsto para às 16h uma assembleia em frente à prefeitura de são paulo para definir os r… https://t.co/d1oavilsd8</t>
-  </si>
-  <si>
-    <t>n era nem 6hr e meu irmão já tava na sptrans kkkk deus me livre</t>
-  </si>
-  <si>
-    <t>@sptrans o vale transporte sofreu alterações a respeito da quantidade de integrações permitidas (novamente), além d… https://t.co/gx29ltxqyx</t>
+    <t>@sptrans um app que sempre uso, foi no cartão de crédito, foi aprovado e inclusive descontou do meu  cartão e tudo. foi ontem as 21 da noite https://t.co/6k2cl8dr1v</t>
+  </si>
+  <si>
+    <t>@sptrans  sinceramente vai tomar no seu cu</t>
+  </si>
+  <si>
+    <t>@sptrans estou desde às 9h da manhã tentando entrar em contato com vocês via telefone e não obtive êxito em momento algum, isso é, disponível para atender e solucionar problemas ocasionados por vocês mesmos.
+obs: a próxima vez tento mandar a coruja do harry potter.</t>
+  </si>
+  <si>
+    <t>na quinta-feira 29/08 o ônibus que peguei na volta da faculdade linha 8016/10 carro 15026 foi conduzido por um irresponsável que além de manobras e freadas bruscas. não parou no ponto onde eu e mais umas 5 pessoas desceriam. e ainda gritou qdo reclamamos. #sptrans</t>
   </si>
   <si>
     <t>💼 processo seletivo de estágio na sptrans 
@@ -1400,198 +1575,113 @@
 #vaga @sptrans</t>
   </si>
   <si>
-    <t>@sptrans oi, sptrans. tentei carregar hoje nas máquinas de autoatendimento da perto e da autopass, e as duas deram… https://t.co/l1bqludw7n</t>
-  </si>
-  <si>
-    <t>eu tento frequentar as aulas mas ai a sptrans resolve fazer greve poxa nao foi dessa vez</t>
-  </si>
-  <si>
-    <t>ai terminal pinheiros, vc me prometeu... 💔 https://t.co/bh1c81gwq8</t>
-  </si>
-  <si>
-    <t>eu tô um mês brigando com a sptrans por causa de um bilhete, já vou eu levantar pra ir lá mais uma vez</t>
-  </si>
-  <si>
-    <t>@sptrans bom dia , só para mostrar que é muito comum,estou dentro do ônibus prefixo 6 3308,607c sentindo itaim,com… https://t.co/azoqpoyu7h</t>
-  </si>
-  <si>
-    <t>@sptrans fiz a solicitação pra adicionar mais um modal no passe livre 2 vezes, as duas vezes foi deferida mas vou t… https://t.co/oxh8ogqsqb</t>
-  </si>
-  <si>
-    <t>@sptrans agora a pouco, por volta de 20:15, o motorista do carro 3 1913, da linha 307c, sentido tp, deu carona para… https://t.co/bkbls6at42</t>
-  </si>
-  <si>
-    <t>@sptrans oi gata</t>
-  </si>
-  <si>
-    <t>vou ter que faltar hoje porque estou sem dinheiro pra passagem
-estudar em dois lugares e a sptrans não colaborar co… https://t.co/ifvqmrzrcp</t>
-  </si>
-  <si>
-    <t>@sptrans greve de ônibus? estava na linha 178l-10 na rua da consolação, sentindo centro e mandaram todos saírem do… https://t.co/qnwtodifd0</t>
-  </si>
-  <si>
-    <t>@sptrans libera meu passe livre ai aaaaaaaaaaa , ja esta tudo ok no cadunico e fica dando erro no site de vocês falando que não consta</t>
-  </si>
-  <si>
-    <t>devido a paralisação que afeta os ônibus da @sptrans na capital, algumas de nossas linhas estão operando com atraso… https://t.co/nguulakgbh</t>
-  </si>
-  <si>
-    <t>@vpirajucara @sptrans @mobilidadesampa @brunocovas @jdoriajr @junior013santos @robertapeereira @prefsp obrigado pela informação.</t>
-  </si>
-  <si>
-    <t>#sptrans nesta terça-feira, dia 3 de setembro, o terminal vila carrão receberá a unidade móvel lgbti para assistênc… https://t.co/vw7f6syiyr</t>
-  </si>
-  <si>
-    <t>@rodriirezendee fala ae, brow! 😎 ficou sabendo  do novo processo seletivo que abrimos para sampa?
-acesse essa parad… https://t.co/d3vb4mrdey</t>
-  </si>
-  <si>
-    <t>@sptrans segue o numero do bilhete : 561603359</t>
-  </si>
-  <si>
-    <t>🌦☀️ faça chuva, frio ou calor, mantenha as janelas dos ônibus sem ar-condicionado c/ abertura suficiente https://t.co/y5izx1txhy (@sptrans)</t>
-  </si>
-  <si>
-    <t>@sptrans_ @sptrans preciso tirar uma segunda via da minha carteira de estudante, ninguém no posto jabaquara consegu… https://t.co/a0qemumwff</t>
-  </si>
-  <si>
-    <t>🌦☀️ faça chuva, frio ou calor, mantenha as janelas dos ônibus sem ar-condicionado c/ abertura suficiente https://t.co/zubdb97aj1 (@sptrans)</t>
-  </si>
-  <si>
-    <t>@mobilidadesampa @mobilidadecotia @sptrans_ @emtu_oficial ↖️↘️ nfc ônibus - nyc 
-https://t.co/eypy6urcul</t>
-  </si>
-  <si>
-    <t>@sptrans difícil é vcs responde</t>
-  </si>
-  <si>
-    <t>📆 tem um bilhete único não personalizado ou emitido antes de 2014 com mais de r$ 43,00 de créditos do tipo comum? l… https://t.co/cmsw5jcbaj</t>
-  </si>
-  <si>
-    <t>#sp1 #sp2 @sptrans @prefsp varios ônibus parados como "reservado"  no centro/sp #paralisacaosp https://t.co/pqgvrluiz6</t>
-  </si>
-  <si>
-    <t>@sptrans o ônibus 25091 da linha 179-x na data de 05/09/2019 às 13:29h não está fazendo a recarga do bilhete.
-aliás… https://t.co/r1nqivxkjg</t>
-  </si>
-  <si>
-    <t>@robertapeereira @prefsp @sptrans isso msm</t>
-  </si>
-  <si>
-    <t>@fabio_flavio81 @sptrans @mobilidadesampa @brunocovas @jdoriajr @junior013santos @robertapeereira @prefsp olá fabin… https://t.co/ubjz9jg5h6</t>
-  </si>
-  <si>
-    <t>@sptrans já passou,ontem à noite q recebi. mas obrigado</t>
-  </si>
-  <si>
-    <t>#sptrans bilhete único: prazo para utilização do saldo superior a r$ 43 de créditos do tipo comum de cartões emitid… https://t.co/svnv8gdax5</t>
-  </si>
-  <si>
-    <t>@sptrans acho engraçado, quando a prefeitura perdeu a liminar das 4 integrações precisou de 15 dias para mudar o si… https://t.co/qdseo8wzcv</t>
-  </si>
-  <si>
     <t>@metrosp_oficial @gabenedito @sptrans que ensaboada hein...
 o problema foi na catraca que cobrou errado.</t>
   </si>
   <si>
-    <t>👑❤️ aquele momento em que o crush do ônibus oferece para segurar minha mochila 
-🤗 🐝 seja gentil! ofer https://t.co/u8ln2fqmfn (@sptrans)</t>
-  </si>
-  <si>
-    <t>@sptrans é o número abaixo do cpf no bilhete único? foi esse que eu passei e que também consta no site. se eu estiv… https://t.co/mk6z5qb4my</t>
-  </si>
-  <si>
-    <t>é um absurdo isso... #sptrans https://t.co/bwiwv0tsuj</t>
-  </si>
-  <si>
-    <t>quebrei meu bilhete na hora de consultar o crédito. fui fazer outro e me cobrarão 30 colostomias. 30 golpes. 30 fuc… https://t.co/zuutki3wxc</t>
-  </si>
-  <si>
-    <t>amanhã vou na sptrans e no rh do trampo pra tretar não aguento mais pagar 4,30 todo dia</t>
-  </si>
-  <si>
-    <t>#bdsp a estação jardim planalto linha 15 prata está funcionando e adiantou muito a vida de quem mora na região de s… https://t.co/cu5tittegv</t>
+    <t>@rodriirezendee fala ae, brow! 😎 ficou sabendo  do novo processo seletivo que abrimos para sampa?
+acesse essa parada e faça sua inscrição: https://t.co/v3f48u4pmy.
+estou torcendo por você! 💙</t>
+  </si>
+  <si>
+    <t>#borasp a sptrans deveria mudar a tecnologia, as empresas descredenciadas tem participação nessas fraudes</t>
+  </si>
+  <si>
+    <t>atenção: sptrans anuncia que bilhete único emitido antes de 2014 vai ter créditos bloqueados neste mês https://t.co/k2hzkhknk2</t>
+  </si>
+  <si>
+    <t>@sptrans nas maquinas dos ônibus, e dentro do metro no ponto de recarga</t>
+  </si>
+  <si>
+    <t>#sptrans bilhete único: prazo para utilização do saldo superior a r$ 43 de créditos do tipo comum de cartões emitidos antes de 2014 vence em 30 de setembro
+https://t.co/sbeki32eci</t>
+  </si>
+  <si>
+    <t>@sptrans preciso personalizar o bilhete e quando tento cadastrar o sistema informa que já estou cadastrado, não consigo colocar foto e não tem opção pra lugar nenhum. como proceder?</t>
+  </si>
+  <si>
+    <t>@ludekasp9 @vpirajucara @sptrans @emtu_oficial @l4amarela_ @l5lilas @infosspbr @redenoticiando @sabina_simonato @mobilidadecotia @mobilidadesampa @radiotransitofm @otaboanense questões relacionadas a participação nos resultados</t>
+  </si>
+  <si>
+    <t>@_apantaleao @sptrans libera as cotas a mais pra ela</t>
+  </si>
+  <si>
+    <t>@sptrans me atrasei pro trabalho e fiquei sem carregar e agora vou pegar dinheiro do cu pra carregar o resto né? e a máquina ainda desativou a opção de aceitar dinheiro já que ficou com o meu né</t>
+  </si>
+  <si>
+    <t>greve: paralisação dos ônibus da cidade de são paulo pode ocorrer na próxima sexta-feira (6), diz sindicato
+#greve #sptrans
+ https://t.co/b4vnuelikv</t>
+  </si>
+  <si>
+    <t>@sptrans o vale transporte sofreu alterações a respeito da quantidade de integrações permitidas (novamente), além de não divulgarem de forma ampla e clara, não consigo achar a notícia, pois preciso dela.</t>
+  </si>
+  <si>
+    <t>#sptrans o sindicato informou que caso o executivo não se manifeste, a frota de ônibus começará a ser recolhida na capital.
+acesse o link e confira as últimas informações: 
+https://t.co/olt7y7t7lr</t>
+  </si>
+  <si>
+    <t>@pedrosomera @sptrans já passei isso indo trabalhar, tive que vir de uber pq o aplicativo não funcionava.</t>
+  </si>
+  <si>
+    <t>@sptrans sptrans, eu sou do prouni e já utilizo o bilhete único com o passe livre desde o ano passado. o que significa isso? meia tarifa? https://t.co/h7buulvdqz</t>
+  </si>
+  <si>
+    <t>@andreagambale @sptrans @radiotransitofm parece que o pessoal do sindicato vai fazer greve e ir cobrar satisfação na prefeitura</t>
+  </si>
+  <si>
+    <t>@fabio_flavio81 @sptrans @mobilidadesampa @brunocovas @jdoriajr @junior013santos @robertapeereira @prefsp olá fabinho, sim, é procedente a paralisação na cidade de sp, não atinge nossas operações, já que atuamos no serviço metropolitano. 👍</t>
+  </si>
+  <si>
+    <t>ei sptrans vai toma no cu</t>
+  </si>
+  <si>
+    <t>🙆 mulheres e idosos podem descer fora do ponto de ônibus no horário das 22h às 5h. saiba mais:… https://t.co/oj1d2lbpuf (@sptrans)</t>
+  </si>
+  <si>
+    <t>hoje vou testar minha paciência indo na sptrans</t>
+  </si>
+  <si>
+    <t>#sptrans o grupo quer que a gestão covas receba representantes do sindmotoristas para discutir diversas questões relacionadas aos transportes.</t>
+  </si>
+  <si>
+    <t>@sptrans o ônibus 25091 da linha 179-x na data de 05/09/2019 às 13:29h não está fazendo a recarga do bilhete.
+aliás, todos os ônibus desta linha que peguei até agora estão sim recarregar e caindo aos pedaços, poderiam colocar alguns bons nessa linha, não só os velhos e imundos.</t>
   </si>
   <si>
     <t>#sptrans vagas são destinadas a estudantes dos níveis médio, técnico e superior
-clique no link e obtenha todas as… https://t.co/klphk8c0e9</t>
-  </si>
-  <si>
-    <t>hoje o terminal cidade tiradentes recebe a unidade móvel lgbti, das 13h às 18h, para orientação #gratuita aos passa… https://t.co/o6wur8v97i</t>
-  </si>
-  <si>
-    <t>meu cartao da sptrans deu falha de novooooo pqppppp vai pra merdaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>#sptrans os terminais bandeira e parque dom pedro ii estão neste momento sendo afetados pela manifestação em apoio… https://t.co/2nav623vor</t>
-  </si>
-  <si>
-    <t>@sptrans esse e mais um q ñ parou hoje as 14:53 na marginal pinheiros no sentido bairro no ponto próximo da ponte j… https://t.co/r3ecfk7gtw</t>
-  </si>
-  <si>
-    <t>@jeskagrecco a fila da sptrans meu pai</t>
-  </si>
-  <si>
-    <t>#sptrans se até 12h30 a prefeitura não receber a categoria, a frota de ônibus começará a ser recolhida, informou o sindicato.</t>
-  </si>
-  <si>
-    <t>@sptrans @sptrans_ não peguei o nome da atendente  , foi hoje entre as 11:30 e 12:00 ,  3/09 . no posto de atendime… https://t.co/sqhqsuw96e</t>
-  </si>
-  <si>
-    <t>#sptrans vagas são destinadas a estudantes dos níveis médio, técnico e superior
-clique no link e obtenha todas as… https://t.co/kkzuubeuzt</t>
-  </si>
-  <si>
-    <t>deveria ser proibido mulher ficar na cola do motorista no ônibus só pra descer na frente 
-ajuda ae @sptrans</t>
-  </si>
-  <si>
-    <t>@sptrans esse link que está no post não tem informação de nada, e mês passado solicitei o bilhete faltando 15 dias… https://t.co/yemefnt0gr</t>
-  </si>
-  <si>
-    <t>@sptrans  boa tarde, meu bilhete estudante foi cancelado antes mesmo de ir pra faculdade, como faço para solicitar outro</t>
-  </si>
-  <si>
-    <t>@sptrans vai tomar no cu vcs e suas máquinas de carregar bilhete eu perdi 10 reais nessa merda como eu vou ser reem… https://t.co/cfibzfemcl</t>
-  </si>
-  <si>
-    <t>alguém sabe onde tem um posto da sptrans próximo???</t>
-  </si>
-  <si>
-    <t>#borasp a sptrans deveria mudar a tecnologia, as empresas descredenciadas tem participação nessas fraudes</t>
-  </si>
-  <si>
-    <t>@sptrans são tantos pela cidade</t>
-  </si>
-  <si>
-    <t>mano eu vou ter que ir até a sptrans porque eu simplesmente não tenho mais como ir pras duas escolas 
-acabou todinh… https://t.co/eqocd6c9ok</t>
-  </si>
-  <si>
-    <t>fiz meu bilhete único pelo site da sptrans. mas quem disse que consigo ver a que pé anda? 😂</t>
-  </si>
-  <si>
-    <t>@sptrans bilhete único</t>
-  </si>
-  <si>
-    <t>@sptrans preciso cancelar o meu cartão que perdi ontem! :(</t>
-  </si>
-  <si>
-    <t>@sptrans certo o que se vê diariamente não reflete isso, ônibus e lotações sempre sujos e em mal estado, o aceio de… https://t.co/0lmoeiulal</t>
-  </si>
-  <si>
-    <t>@sptrans @andrezadelgado nesse semetre aparece que meu dados nao foram enviados pela escola. no semestre passado, e… https://t.co/5k5bgvvbsa</t>
-  </si>
-  <si>
-    <t>hoje vou testar minha paciência indo na sptrans</t>
+clique no link e obtenha todas as informações: 
+https://t.co/26g6zwx6c6</t>
+  </si>
+  <si>
+    <t>@sptrans terminal de ônibus do metrô belém, por volta de 7:20 da manhã *todos os dias* fica assim</t>
+  </si>
+  <si>
+    <t>@sptrans boa tarde, preciso de auxílio urgente !!</t>
+  </si>
+  <si>
+    <t>@sptrans rua barra do jequitaí na altura do número 6</t>
+  </si>
+  <si>
+    <t>são paulo tá o caos!!!!
+@g1 @sptrans @saopaulo https://t.co/a5rl2ehofb</t>
+  </si>
+  <si>
+    <t>@sptrans então é só eu ir em um posto e retirar?</t>
+  </si>
+  <si>
+    <t>@sptrans na foto ñ tem o número do veículo</t>
+  </si>
+  <si>
+    <t>@sptrans não sei qual desses é então... https://t.co/tungmekbt4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1606,13 +1696,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1647,22 +1730,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3426,44 +3503,39 @@
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
-      <c r="A294" t="s">
-        <v>293</v>
-      </c>
-    </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3481,667 +3553,667 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>243</v>
+        <v>432</v>
       </c>
     </row>
     <row r="134" spans="1:1">
@@ -4361,133 +4433,130 @@
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>476</v>
+        <v>369</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A72" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SPTrans.xlsx
+++ b/SPTrans.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\André Luis Silva Lop\Documents\INSPER\twitter\P2_CD19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9304305C-FDFA-442F-AFFC-615A32EFDFA9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="502">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1676,12 +1682,18 @@
   <si>
     <t>@sptrans não sei qual desses é então... https://t.co/tungmekbt4</t>
   </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1733,10 +1745,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1744,11 +1762,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1790,7 +1816,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1822,9 +1848,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1856,6 +1900,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2031,1510 +2093,1962 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="G150" sqref="G150"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="B2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="B3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="B4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="B5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="B6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="B7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="B8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="B9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="B10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="B11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="B12" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="B13" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="B15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="B16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="B17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="B18" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="B19" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="B20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="B21" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="B22" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="B23" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="B24" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="B25" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="B26" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="B27" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="B28" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="B29" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="B30" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+      <c r="B31" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="B32" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="B33" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="B34" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="B35" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="B36" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="B37" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B38" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="B39" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+      <c r="B40" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="B41" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="B42" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+      <c r="B43" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+      <c r="B44" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+      <c r="B45" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+      <c r="B46" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+      <c r="B47" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+      <c r="B48" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+      <c r="B49" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+      <c r="B50" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+      <c r="B51" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+      <c r="B52" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+      <c r="B53" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+      <c r="B54" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+      <c r="B55" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+      <c r="B56" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+      <c r="B57" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+      <c r="B58" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+      <c r="B59" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+      <c r="B60" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+      <c r="B61" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+      <c r="B62" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+      <c r="B63" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+      <c r="B64" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+      <c r="B65" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+      <c r="B66" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+      <c r="B67" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+      <c r="B68" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+      <c r="B69" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+      <c r="B70" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+      <c r="B71" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+      <c r="B72" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+      <c r="B73" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+      <c r="B74" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+      <c r="B75" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+      <c r="B76" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+      <c r="B77" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+      <c r="B78" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+      <c r="B79" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+      <c r="B80" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+      <c r="B81" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+      <c r="B82" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+      <c r="B83" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+      <c r="B84" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+      <c r="B85" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+      <c r="B86" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+      <c r="B87" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+      <c r="B88" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+      <c r="B89" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+      <c r="B90" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+      <c r="B91" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+      <c r="B92" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+      <c r="B93" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+      <c r="B94" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+      <c r="B95" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+      <c r="B96" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+      <c r="B97" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+      <c r="B98" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+      <c r="B99" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+      <c r="B100" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+      <c r="B101" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+      <c r="B102" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+      <c r="B103" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+      <c r="B104" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+      <c r="B105" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+      <c r="B106" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+      <c r="B107" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+      <c r="B108" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+      <c r="B109" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+      <c r="B110" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+      <c r="B111" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+      <c r="B112" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+      <c r="B113" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+      <c r="B114" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+      <c r="B115" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+      <c r="B116" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+      <c r="B117" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+      <c r="B118" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+      <c r="B119" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+      <c r="B120" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+      <c r="B121" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+      <c r="B122" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+      <c r="B123" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+      <c r="B124" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+      <c r="B125" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+      <c r="B126" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+      <c r="B127" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+      <c r="B128" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+      <c r="B129" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+      <c r="B130" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+      <c r="B131" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+      <c r="B132" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+      <c r="B133" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+      <c r="B134" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+      <c r="B135" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+      <c r="B136" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+      <c r="B137" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+      <c r="B138" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+      <c r="B139" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+      <c r="B140" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+      <c r="B141" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+      <c r="B142" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+      <c r="B143" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+      <c r="B144" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+      <c r="B145" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+      <c r="B146" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+      <c r="B147" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+      <c r="B148" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+      <c r="B149" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+      <c r="B150" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+    <row r="152" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+    <row r="153" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+    <row r="154" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+    <row r="155" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+    <row r="156" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+    <row r="157" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+    <row r="158" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+    <row r="159" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+    <row r="160" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+    <row r="161" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+    <row r="162" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+    <row r="163" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+    <row r="164" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+    <row r="165" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+    <row r="166" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+    <row r="167" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+    <row r="168" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+    <row r="169" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+    <row r="170" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+    <row r="171" spans="1:1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+    <row r="172" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+    <row r="173" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+    <row r="174" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+    <row r="175" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+    <row r="176" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+    <row r="177" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+    <row r="178" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+    <row r="179" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+    <row r="180" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+    <row r="181" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+    <row r="182" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+    <row r="183" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+    <row r="184" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+    <row r="185" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+    <row r="186" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+    <row r="187" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+    <row r="188" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+    <row r="189" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+    <row r="190" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+    <row r="191" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+    <row r="192" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+    <row r="193" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+    <row r="194" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
+    <row r="195" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A195" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+    <row r="196" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+    <row r="197" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
+    <row r="198" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A198" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+    <row r="199" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A199" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
+    <row r="200" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+    <row r="201" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
+    <row r="202" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A202" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+    <row r="203" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A203" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
+    <row r="204" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A204" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+    <row r="205" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A205" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
+    <row r="206" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A206" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
+    <row r="207" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
+    <row r="208" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A208" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
+    <row r="209" spans="1:1" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A209" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
+    <row r="210" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A210" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
+    <row r="211" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A211" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
+    <row r="212" spans="1:1" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
+    <row r="213" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A213" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
+    <row r="214" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A214" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
+    <row r="215" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A215" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
+    <row r="216" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
+    <row r="217" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A217" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
+    <row r="218" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A218" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
+    <row r="219" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A219" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
+    <row r="220" spans="1:1" ht="216" x14ac:dyDescent="0.3">
+      <c r="A220" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
+    <row r="221" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A221" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
+    <row r="222" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A222" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
+    <row r="223" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A223" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
+    <row r="224" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A224" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
+    <row r="225" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A225" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
+    <row r="226" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A226" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
+    <row r="227" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A227" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
+    <row r="228" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
+    <row r="229" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A229" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
+    <row r="230" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A230" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
+    <row r="231" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A231" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
+    <row r="232" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A232" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
+    <row r="233" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A233" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
+    <row r="234" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A234" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
+    <row r="235" spans="1:1" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A235" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
+    <row r="236" spans="1:1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A236" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
+    <row r="237" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A237" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
+    <row r="238" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
+    <row r="239" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
+    <row r="240" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A240" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
+    <row r="241" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
+    <row r="242" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
+    <row r="243" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
+    <row r="244" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A244" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
+    <row r="245" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
+    <row r="246" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A246" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
+    <row r="247" spans="1:1" ht="360" x14ac:dyDescent="0.3">
+      <c r="A247" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
+    <row r="248" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A248" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
+    <row r="249" spans="1:1" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A249" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
+    <row r="250" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A250" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
+    <row r="251" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A251" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
+    <row r="252" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A252" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
+    <row r="253" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A253" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
+    <row r="254" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A254" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
+    <row r="255" spans="1:1" ht="360" x14ac:dyDescent="0.3">
+      <c r="A255" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
+    <row r="256" spans="1:1" ht="216" x14ac:dyDescent="0.3">
+      <c r="A256" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
+    <row r="257" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A257" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
+    <row r="258" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A258" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
+    <row r="259" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A259" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
+    <row r="260" spans="1:1" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A260" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
+    <row r="261" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A261" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
+    <row r="262" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A262" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
+    <row r="263" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A263" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
+    <row r="264" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A264" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
+    <row r="265" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A265" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
+    <row r="266" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A266" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
+    <row r="267" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A267" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
-      <c r="A268" t="s">
+    <row r="268" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A268" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
+    <row r="269" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A269" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
+    <row r="270" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A270" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
+    <row r="271" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A271" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
+    <row r="272" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+      <c r="A272" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
+    <row r="273" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
+    <row r="274" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A274" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
+    <row r="275" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
+    <row r="276" spans="1:1" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A276" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
+    <row r="277" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A277" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
+    <row r="278" spans="1:1" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A278" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
-      <c r="A279" t="s">
+    <row r="279" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A279" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
-      <c r="A280" t="s">
+    <row r="280" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+      <c r="A280" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
-      <c r="A281" t="s">
+    <row r="281" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A281" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
-      <c r="A282" t="s">
+    <row r="282" spans="1:1" ht="360" x14ac:dyDescent="0.3">
+      <c r="A282" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
+    <row r="283" spans="1:1" ht="360" x14ac:dyDescent="0.3">
+      <c r="A283" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
-      <c r="A284" t="s">
+    <row r="284" spans="1:1" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A284" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
-      <c r="A285" t="s">
+    <row r="285" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A285" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
-      <c r="A286" t="s">
+    <row r="286" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A286" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
-      <c r="A287" t="s">
+    <row r="287" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A287" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
+    <row r="288" spans="1:1" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="A288" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
-      <c r="A289" t="s">
+    <row r="289" spans="1:1" ht="360" x14ac:dyDescent="0.3">
+      <c r="A289" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
-      <c r="A290" t="s">
+    <row r="290" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A290" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
+    <row r="291" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A291" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
-      <c r="A292" t="s">
+    <row r="292" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A292" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
-      <c r="A293" t="s">
+    <row r="293" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A293" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
-      <c r="A295" t="s">
+    <row r="295" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A295" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
-      <c r="A296" t="s">
+    <row r="296" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+      <c r="A296" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
-      <c r="A297" t="s">
+    <row r="297" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A297" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
-      <c r="A298" t="s">
+    <row r="298" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A298" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
-      <c r="A299" t="s">
+    <row r="299" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A299" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
-      <c r="A300" t="s">
+    <row r="300" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+      <c r="A300" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
-      <c r="A301" t="s">
+    <row r="301" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A301" s="3" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3544,1014 +4058,1014 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A201"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>499</v>
       </c>

--- a/SPTrans.xlsx
+++ b/SPTrans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\André Luis Silva Lop\Documents\INSPER\twitter\P2_CD19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crazy\Documents\Projetos\P2_CD19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9304305C-FDFA-442F-AFFC-615A32EFDFA9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FE555B-7DFA-4BB0-99A0-CA30F2348D07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="502">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2096,21 +2096,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="G150" sqref="G150"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>80</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>81</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>84</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>85</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>86</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>87</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>88</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>89</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>90</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>91</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>93</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>94</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="384.75" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>97</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>98</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>99</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>100</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>101</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>102</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>103</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>104</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>105</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>106</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>109</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
         <v>110</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>111</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>112</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>113</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>114</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>115</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>116</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>117</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>118</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>119</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>120</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>121</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>122</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>123</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>124</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>125</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
         <v>126</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>127</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>128</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>129</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="370.5" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>130</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>131</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>132</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>133</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>134</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>135</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>136</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>137</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
         <v>138</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>139</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>140</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>141</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>142</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>143</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>144</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>145</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>146</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>147</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
         <v>148</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>149</v>
       </c>
@@ -3302,754 +3302,1206 @@
         <v>500</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A161" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A163" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A165" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A166" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A167" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A169" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" ht="144" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A171" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A172" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A173" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A174" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A175" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A176" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A177" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A178" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A179" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="370.5" x14ac:dyDescent="0.45">
       <c r="A180" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A181" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A182" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A183" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A184" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A185" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A186" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A187" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A188" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A189" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A190" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A191" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A192" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A193" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A194" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A195" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A196" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A197" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A198" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A199" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A200" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A201" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B201" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A202" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B202" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A203" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B203" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A204" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B204" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A205" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A206" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A207" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A208" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A209" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B209" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A210" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B210" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A211" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="B211" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A212" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A213" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="B213" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A214" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B214" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A215" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B215" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A216" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B216" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A217" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B217" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A218" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B218" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A219" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" ht="216" x14ac:dyDescent="0.3">
+      <c r="B219" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A220" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A221" s="3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="B221" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A222" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B222" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A223" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B223" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A224" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B224" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A225" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B225" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A226" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B226" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A227" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B227" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A228" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B228" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A229" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B229" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A230" s="3" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="B230" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A231" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="B231" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A232" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B232" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A233" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B233" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A234" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="B234" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A235" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" ht="144" x14ac:dyDescent="0.3">
+      <c r="B235" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A236" s="3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B236" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A237" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B237" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A238" s="3" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="B238" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A239" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B239" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A240" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+      <c r="B240" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A241" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B241" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A242" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B242" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A243" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B243" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A244" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B244" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A245" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B245" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A246" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" ht="360" x14ac:dyDescent="0.3">
+      <c r="B246" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A247" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B247" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A248" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="B248" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A249" s="3" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="B249" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A250" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B250" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A251" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B251" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A252" s="3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B252" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A253" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="B253" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A254" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" ht="360" x14ac:dyDescent="0.3">
+      <c r="B254" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A255" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" ht="216" x14ac:dyDescent="0.3">
+      <c r="B255" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A256" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B256" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A257" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B257" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A258" s="3" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B258" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A259" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="B259" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A260" s="3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B260" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A261" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B261" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A262" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="B262" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A263" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B263" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A264" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B264" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A265" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B265" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A266" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B266" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A267" s="3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B267" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A268" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="B268" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A269" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B269" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A270" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B270" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A271" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+      <c r="B271" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A272" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B272" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A273" s="3" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B273" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A274" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B274" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A275" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="B275" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A276" s="3" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B276" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A277" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="B277" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A278" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B278" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A279" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+      <c r="B279" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A280" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B280" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A281" s="3" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" ht="360" x14ac:dyDescent="0.3">
+      <c r="B281" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A282" s="3" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" ht="360" x14ac:dyDescent="0.3">
+      <c r="B282" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A283" s="3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="B283" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A284" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B284" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A285" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B285" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A286" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B286" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A287" s="3" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="B287" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A288" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" ht="360" x14ac:dyDescent="0.3">
+      <c r="B288" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A289" s="3" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="B289" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A290" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B290" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A291" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B291" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A292" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B292" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A293" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B293" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B294" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A295" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+      <c r="B295" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A296" s="3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B296" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A297" s="3" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B297" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A298" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B298" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A299" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+      <c r="B299" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A300" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B300" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A301" s="3" t="s">
         <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -4063,1009 +4515,1009 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>499</v>
       </c>

--- a/SPTrans.xlsx
+++ b/SPTrans.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crazy\Documents\Projetos\P2_CD19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FE555B-7DFA-4BB0-99A0-CA30F2348D07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A834ABD-4247-4580-92F9-2ADE99237AC8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="503">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1687,6 +1688,9 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>Classificacao</t>
   </si>
 </sst>
 </file>
@@ -1745,11 +1749,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2096,22 +2097,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2119,7 +2124,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2127,7 +2132,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2135,7 +2140,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2143,7 +2148,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2151,7 +2156,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2159,7 +2164,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2167,7 +2172,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2175,7 +2180,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -2183,7 +2188,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -2191,7 +2196,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="285" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -2199,7 +2204,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -2207,7 +2212,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -2215,7 +2220,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -2223,7 +2228,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -2231,7 +2236,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -2239,7 +2244,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -2247,7 +2252,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -2255,7 +2260,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="228" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -2263,7 +2268,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -2271,7 +2276,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -2279,7 +2284,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -2287,7 +2292,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -2295,7 +2300,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -2303,7 +2308,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="342" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -2311,7 +2316,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2319,7 +2324,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -2327,7 +2332,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -2335,7 +2340,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -2343,7 +2348,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -2351,7 +2356,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -2359,7 +2364,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -2367,7 +2372,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -2375,7 +2380,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -2383,7 +2388,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -2391,7 +2396,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -2399,7 +2404,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="228" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -2407,7 +2412,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="285" x14ac:dyDescent="0.45">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -2415,7 +2420,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -2423,7 +2428,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="228" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -2431,7 +2436,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -2439,7 +2444,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="285" x14ac:dyDescent="0.45">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -2447,7 +2452,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -2455,7 +2460,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -2463,7 +2468,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -2471,7 +2476,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -2479,7 +2484,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -2487,7 +2492,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -2495,7 +2500,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -2503,7 +2508,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="342" x14ac:dyDescent="0.45">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -2511,7 +2516,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B52" t="s">
@@ -2519,7 +2524,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -2527,7 +2532,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -2535,7 +2540,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -2543,7 +2548,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B56" t="s">
@@ -2551,7 +2556,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B57" t="s">
@@ -2559,7 +2564,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B58" t="s">
@@ -2567,7 +2572,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B59" t="s">
@@ -2575,7 +2580,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B60" t="s">
@@ -2583,7 +2588,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B61" t="s">
@@ -2591,7 +2596,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B62" t="s">
@@ -2599,7 +2604,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="285" x14ac:dyDescent="0.45">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B63" t="s">
@@ -2607,7 +2612,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" t="s">
@@ -2615,7 +2620,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B65" t="s">
@@ -2623,7 +2628,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B66" t="s">
@@ -2631,7 +2636,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B67" t="s">
@@ -2639,7 +2644,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B68" t="s">
@@ -2647,7 +2652,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B69" t="s">
@@ -2655,7 +2660,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B70" t="s">
@@ -2663,7 +2668,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B71" t="s">
@@ -2671,7 +2676,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="228" x14ac:dyDescent="0.45">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B72" t="s">
@@ -2679,7 +2684,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B73" t="s">
@@ -2687,7 +2692,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="228" x14ac:dyDescent="0.45">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B74" t="s">
@@ -2695,7 +2700,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B75" t="s">
@@ -2703,7 +2708,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B76" t="s">
@@ -2711,7 +2716,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B77" t="s">
@@ -2719,7 +2724,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B78" t="s">
@@ -2727,7 +2732,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B79" t="s">
@@ -2735,7 +2740,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="285" x14ac:dyDescent="0.45">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B80" t="s">
@@ -2743,7 +2748,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B81" t="s">
@@ -2751,7 +2756,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B82" t="s">
@@ -2759,7 +2764,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B83" t="s">
@@ -2767,7 +2772,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B84" t="s">
@@ -2775,7 +2780,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B85" t="s">
@@ -2783,7 +2788,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B86" t="s">
@@ -2791,7 +2796,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B87" t="s">
@@ -2799,7 +2804,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B88" t="s">
@@ -2807,7 +2812,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="342" x14ac:dyDescent="0.45">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B89" t="s">
@@ -2815,7 +2820,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B90" t="s">
@@ -2823,7 +2828,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B91" t="s">
@@ -2831,7 +2836,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B92" t="s">
@@ -2839,7 +2844,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B93" t="s">
@@ -2847,7 +2852,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B94" t="s">
@@ -2855,7 +2860,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B95" t="s">
@@ -2863,7 +2868,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B96" t="s">
@@ -2871,7 +2876,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B97" t="s">
@@ -2879,7 +2884,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" ht="384.75" x14ac:dyDescent="0.45">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B98" t="s">
@@ -2887,7 +2892,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B99" t="s">
@@ -2895,7 +2900,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="342" x14ac:dyDescent="0.45">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B100" t="s">
@@ -2903,7 +2908,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="285" x14ac:dyDescent="0.45">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B101" t="s">
@@ -2911,7 +2916,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B102" t="s">
@@ -2919,7 +2924,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B103" t="s">
@@ -2927,7 +2932,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" ht="342" x14ac:dyDescent="0.45">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B104" t="s">
@@ -2935,7 +2940,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B105" t="s">
@@ -2943,7 +2948,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B106" t="s">
@@ -2951,7 +2956,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="342" x14ac:dyDescent="0.45">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B107" t="s">
@@ -2959,7 +2964,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B108" t="s">
@@ -2967,7 +2972,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B109" t="s">
@@ -2975,7 +2980,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B110" t="s">
@@ -2983,7 +2988,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="228" x14ac:dyDescent="0.45">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B111" t="s">
@@ -2991,7 +2996,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B112" t="s">
@@ -2999,7 +3004,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B113" t="s">
@@ -3007,7 +3012,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B114" t="s">
@@ -3015,7 +3020,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B115" t="s">
@@ -3023,7 +3028,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" ht="228" x14ac:dyDescent="0.45">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B116" t="s">
@@ -3031,7 +3036,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B117" t="s">
@@ -3039,7 +3044,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B118" t="s">
@@ -3047,7 +3052,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B119" t="s">
@@ -3055,7 +3060,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B120" t="s">
@@ -3063,7 +3068,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B121" t="s">
@@ -3071,7 +3076,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B122" t="s">
@@ -3079,7 +3084,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B123" t="s">
@@ -3087,7 +3092,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B124" t="s">
@@ -3095,7 +3100,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B125" t="s">
@@ -3103,7 +3108,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B126" t="s">
@@ -3111,7 +3116,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B127" t="s">
@@ -3119,7 +3124,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B128" t="s">
@@ -3127,7 +3132,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B129" t="s">
@@ -3135,7 +3140,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B130" t="s">
@@ -3143,7 +3148,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" ht="370.5" x14ac:dyDescent="0.45">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B131" t="s">
@@ -3151,7 +3156,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B132" t="s">
@@ -3159,7 +3164,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B133" t="s">
@@ -3167,7 +3172,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B134" t="s">
@@ -3175,7 +3180,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B135" t="s">
@@ -3183,7 +3188,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B136" t="s">
@@ -3191,7 +3196,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B137" t="s">
@@ -3199,7 +3204,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B138" t="s">
@@ -3207,7 +3212,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B139" t="s">
@@ -3215,7 +3220,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B140" t="s">
@@ -3223,7 +3228,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B141" t="s">
@@ -3231,7 +3236,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B142" t="s">
@@ -3239,7 +3244,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B143" t="s">
@@ -3247,7 +3252,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B144" t="s">
@@ -3255,7 +3260,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B145" t="s">
@@ -3263,7 +3268,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B146" t="s">
@@ -3271,7 +3276,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B147" t="s">
@@ -3279,7 +3284,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B148" t="s">
@@ -3287,7 +3292,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B149" t="s">
@@ -3295,7 +3300,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B150" t="s">
@@ -3303,7 +3308,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B151" t="s">
@@ -3311,7 +3316,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B152" t="s">
@@ -3319,7 +3324,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B153" t="s">
@@ -3327,7 +3332,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B154" t="s">
@@ -3335,7 +3340,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B155" t="s">
@@ -3343,7 +3348,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B156" t="s">
@@ -3351,7 +3356,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B157" t="s">
@@ -3359,7 +3364,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B158" t="s">
@@ -3367,7 +3372,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B159" t="s">
@@ -3375,7 +3380,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B160" t="s">
@@ -3383,7 +3388,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B161" t="s">
@@ -3391,7 +3396,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B162" t="s">
@@ -3399,7 +3404,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B163" t="s">
@@ -3407,7 +3412,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B164" t="s">
@@ -3415,7 +3420,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B165" t="s">
@@ -3423,7 +3428,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B166" t="s">
@@ -3431,7 +3436,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B167" t="s">
@@ -3439,7 +3444,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B168" t="s">
@@ -3447,7 +3452,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B169" t="s">
@@ -3455,7 +3460,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" ht="342" x14ac:dyDescent="0.45">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B170" t="s">
@@ -3463,7 +3468,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B171" t="s">
@@ -3471,7 +3476,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B172" t="s">
@@ -3479,7 +3484,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B173" t="s">
@@ -3487,7 +3492,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B174" t="s">
@@ -3495,7 +3500,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B175" t="s">
@@ -3503,7 +3508,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B176" t="s">
@@ -3511,7 +3516,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B177" t="s">
@@ -3519,7 +3524,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B178" t="s">
@@ -3527,7 +3532,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B179" t="s">
@@ -3535,7 +3540,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" ht="370.5" x14ac:dyDescent="0.45">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B180" t="s">
@@ -3543,7 +3548,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B181" t="s">
@@ -3551,7 +3556,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B182" t="s">
@@ -3559,7 +3564,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B183" t="s">
@@ -3567,7 +3572,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B184" t="s">
@@ -3575,7 +3580,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B185" t="s">
@@ -3583,7 +3588,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B186" t="s">
@@ -3591,7 +3596,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B187" t="s">
@@ -3599,7 +3604,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B188" t="s">
@@ -3607,7 +3612,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B189" t="s">
@@ -3615,7 +3620,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B190" t="s">
@@ -3623,7 +3628,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B191" t="s">
@@ -3631,7 +3636,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B192" t="s">
@@ -3639,7 +3644,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B193" t="s">
@@ -3647,7 +3652,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B194" t="s">
@@ -3655,7 +3660,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B195" t="s">
@@ -3663,7 +3668,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B196" t="s">
@@ -3671,7 +3676,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B197" t="s">
@@ -3679,7 +3684,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B198" t="s">
@@ -3687,7 +3692,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B199" t="s">
@@ -3695,7 +3700,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B200" t="s">
@@ -3703,7 +3708,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B201" t="s">
@@ -3711,7 +3716,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B202" t="s">
@@ -3719,7 +3724,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B203" t="s">
@@ -3727,7 +3732,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B204" t="s">
@@ -3735,7 +3740,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B205" t="s">
@@ -3743,7 +3748,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
       <c r="B206" t="s">
@@ -3751,12 +3756,12 @@
       </c>
     </row>
     <row r="207" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B208" t="s">
@@ -3764,7 +3769,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B209" t="s">
@@ -3772,7 +3777,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" ht="342" x14ac:dyDescent="0.45">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B210" t="s">
@@ -3780,7 +3785,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B211" t="s">
@@ -3788,7 +3793,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B212" t="s">
@@ -3796,7 +3801,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B213" t="s">
@@ -3804,7 +3809,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B214" t="s">
@@ -3812,7 +3817,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B215" t="s">
@@ -3820,7 +3825,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B216" t="s">
@@ -3828,7 +3833,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B217" t="s">
@@ -3836,7 +3841,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B218" t="s">
@@ -3844,7 +3849,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B219" t="s">
@@ -3852,7 +3857,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B220" t="s">
@@ -3860,7 +3865,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" ht="342" x14ac:dyDescent="0.45">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B221" t="s">
@@ -3868,7 +3873,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B222" t="s">
@@ -3876,7 +3881,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B223" t="s">
@@ -3884,7 +3889,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B224" t="s">
@@ -3892,7 +3897,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B225" t="s">
@@ -3900,7 +3905,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B226" t="s">
@@ -3908,7 +3913,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B227" t="s">
@@ -3916,7 +3921,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B228" t="s">
@@ -3924,7 +3929,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B229" t="s">
@@ -3932,7 +3937,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B230" t="s">
@@ -3940,7 +3945,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B231" t="s">
@@ -3948,7 +3953,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B232" t="s">
@@ -3956,7 +3961,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B233" t="s">
@@ -3964,7 +3969,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
       <c r="B234" t="s">
@@ -3972,7 +3977,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B235" t="s">
@@ -3980,7 +3985,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B236" t="s">
@@ -3988,7 +3993,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B237" t="s">
@@ -3996,7 +4001,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B238" t="s">
@@ -4004,7 +4009,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B239" t="s">
@@ -4012,7 +4017,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
       <c r="B240" t="s">
@@ -4020,7 +4025,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B241" t="s">
@@ -4028,7 +4033,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A242" s="3" t="s">
+      <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
       <c r="B242" t="s">
@@ -4036,7 +4041,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
       <c r="B243" t="s">
@@ -4044,7 +4049,7 @@
       </c>
     </row>
     <row r="244" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B244" t="s">
@@ -4052,7 +4057,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B245" t="s">
@@ -4060,7 +4065,7 @@
       </c>
     </row>
     <row r="246" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B246" t="s">
@@ -4068,7 +4073,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B247" t="s">
@@ -4076,7 +4081,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B248" t="s">
@@ -4084,7 +4089,7 @@
       </c>
     </row>
     <row r="249" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B249" t="s">
@@ -4092,7 +4097,7 @@
       </c>
     </row>
     <row r="250" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A250" s="3" t="s">
+      <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B250" t="s">
@@ -4100,7 +4105,7 @@
       </c>
     </row>
     <row r="251" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B251" t="s">
@@ -4108,7 +4113,7 @@
       </c>
     </row>
     <row r="252" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B252" t="s">
@@ -4116,7 +4121,7 @@
       </c>
     </row>
     <row r="253" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B253" t="s">
@@ -4124,7 +4129,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A254" s="3" t="s">
+      <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B254" t="s">
@@ -4132,7 +4137,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" ht="228" x14ac:dyDescent="0.45">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B255" t="s">
@@ -4140,7 +4145,7 @@
       </c>
     </row>
     <row r="256" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B256" t="s">
@@ -4148,7 +4153,7 @@
       </c>
     </row>
     <row r="257" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B257" t="s">
@@ -4156,7 +4161,7 @@
       </c>
     </row>
     <row r="258" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B258" t="s">
@@ -4164,7 +4169,7 @@
       </c>
     </row>
     <row r="259" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B259" t="s">
@@ -4172,7 +4177,7 @@
       </c>
     </row>
     <row r="260" spans="1:2" ht="228" x14ac:dyDescent="0.45">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B260" t="s">
@@ -4180,7 +4185,7 @@
       </c>
     </row>
     <row r="261" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A261" s="3" t="s">
+      <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B261" t="s">
@@ -4188,7 +4193,7 @@
       </c>
     </row>
     <row r="262" spans="1:2" ht="342" x14ac:dyDescent="0.45">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B262" t="s">
@@ -4196,7 +4201,7 @@
       </c>
     </row>
     <row r="263" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A263" s="3" t="s">
+      <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B263" t="s">
@@ -4204,7 +4209,7 @@
       </c>
     </row>
     <row r="264" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
       <c r="B264" t="s">
@@ -4212,7 +4217,7 @@
       </c>
     </row>
     <row r="265" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B265" t="s">
@@ -4220,7 +4225,7 @@
       </c>
     </row>
     <row r="266" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B266" t="s">
@@ -4228,7 +4233,7 @@
       </c>
     </row>
     <row r="267" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B267" t="s">
@@ -4236,7 +4241,7 @@
       </c>
     </row>
     <row r="268" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A268" s="3" t="s">
+      <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B268" t="s">
@@ -4244,7 +4249,7 @@
       </c>
     </row>
     <row r="269" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A269" s="3" t="s">
+      <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B269" t="s">
@@ -4252,7 +4257,7 @@
       </c>
     </row>
     <row r="270" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A270" s="3" t="s">
+      <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B270" t="s">
@@ -4260,7 +4265,7 @@
       </c>
     </row>
     <row r="271" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="A271" s="3" t="s">
+      <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B271" t="s">
@@ -4268,7 +4273,7 @@
       </c>
     </row>
     <row r="272" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A272" s="3" t="s">
+      <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B272" t="s">
@@ -4276,7 +4281,7 @@
       </c>
     </row>
     <row r="273" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
-      <c r="A273" s="3" t="s">
+      <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B273" t="s">
@@ -4284,7 +4289,7 @@
       </c>
     </row>
     <row r="274" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
-      <c r="A274" s="3" t="s">
+      <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B274" t="s">
@@ -4292,7 +4297,7 @@
       </c>
     </row>
     <row r="275" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A275" s="3" t="s">
+      <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B275" t="s">
@@ -4300,7 +4305,7 @@
       </c>
     </row>
     <row r="276" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="A276" s="3" t="s">
+      <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B276" t="s">
@@ -4308,7 +4313,7 @@
       </c>
     </row>
     <row r="277" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A277" s="3" t="s">
+      <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B277" t="s">
@@ -4316,7 +4321,7 @@
       </c>
     </row>
     <row r="278" spans="1:2" ht="228" x14ac:dyDescent="0.45">
-      <c r="A278" s="3" t="s">
+      <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
       <c r="B278" t="s">
@@ -4324,7 +4329,7 @@
       </c>
     </row>
     <row r="279" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A279" s="3" t="s">
+      <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B279" t="s">
@@ -4332,7 +4337,7 @@
       </c>
     </row>
     <row r="280" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B280" t="s">
@@ -4340,7 +4345,7 @@
       </c>
     </row>
     <row r="281" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A281" s="3" t="s">
+      <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B281" t="s">
@@ -4348,7 +4353,7 @@
       </c>
     </row>
     <row r="282" spans="1:2" ht="228" x14ac:dyDescent="0.45">
-      <c r="A282" s="3" t="s">
+      <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B282" t="s">
@@ -4356,7 +4361,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A283" s="3" t="s">
+      <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B283" t="s">
@@ -4364,7 +4369,7 @@
       </c>
     </row>
     <row r="284" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A284" s="3" t="s">
+      <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B284" t="s">
@@ -4372,7 +4377,7 @@
       </c>
     </row>
     <row r="285" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A285" s="3" t="s">
+      <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B285" t="s">
@@ -4380,7 +4385,7 @@
       </c>
     </row>
     <row r="286" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A286" s="3" t="s">
+      <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B286" t="s">
@@ -4388,7 +4393,7 @@
       </c>
     </row>
     <row r="287" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="A287" s="3" t="s">
+      <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B287" t="s">
@@ -4396,7 +4401,7 @@
       </c>
     </row>
     <row r="288" spans="1:2" ht="228" x14ac:dyDescent="0.45">
-      <c r="A288" s="3" t="s">
+      <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
       <c r="B288" t="s">
@@ -4404,7 +4409,7 @@
       </c>
     </row>
     <row r="289" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="A289" s="3" t="s">
+      <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
       <c r="B289" t="s">
@@ -4412,7 +4417,7 @@
       </c>
     </row>
     <row r="290" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A290" s="3" t="s">
+      <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B290" t="s">
@@ -4420,7 +4425,7 @@
       </c>
     </row>
     <row r="291" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A291" s="3" t="s">
+      <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B291" t="s">
@@ -4428,7 +4433,7 @@
       </c>
     </row>
     <row r="292" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A292" s="3" t="s">
+      <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B292" t="s">
@@ -4436,7 +4441,7 @@
       </c>
     </row>
     <row r="293" spans="1:2" ht="342" x14ac:dyDescent="0.45">
-      <c r="A293" s="3" t="s">
+      <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
       <c r="B293" t="s">
@@ -4449,7 +4454,7 @@
       </c>
     </row>
     <row r="295" spans="1:2" ht="285" x14ac:dyDescent="0.45">
-      <c r="A295" s="3" t="s">
+      <c r="A295" s="2" t="s">
         <v>293</v>
       </c>
       <c r="B295" t="s">
@@ -4457,7 +4462,7 @@
       </c>
     </row>
     <row r="296" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A296" s="3" t="s">
+      <c r="A296" s="2" t="s">
         <v>294</v>
       </c>
       <c r="B296" t="s">
@@ -4465,7 +4470,7 @@
       </c>
     </row>
     <row r="297" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A297" s="3" t="s">
+      <c r="A297" s="2" t="s">
         <v>295</v>
       </c>
       <c r="B297" t="s">
@@ -4473,7 +4478,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A298" s="3" t="s">
+      <c r="A298" s="2" t="s">
         <v>296</v>
       </c>
       <c r="B298" t="s">
@@ -4481,7 +4486,7 @@
       </c>
     </row>
     <row r="299" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A299" s="3" t="s">
+      <c r="A299" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B299" t="s">
@@ -4489,7 +4494,7 @@
       </c>
     </row>
     <row r="300" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A300" s="3" t="s">
+      <c r="A300" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B300" t="s">
@@ -4497,7 +4502,7 @@
       </c>
     </row>
     <row r="301" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A301" s="3" t="s">
+      <c r="A301" s="2" t="s">
         <v>299</v>
       </c>
       <c r="B301" t="s">
@@ -4511,1014 +4516,1320 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="111.6640625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="B5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="B8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="B9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="B10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="B11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="B12" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="B13" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="B15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="B16" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="B17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="B18" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="B19" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="B20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="B21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="B22" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="B23" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="B24" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="B25" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="B26" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="B27" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+      <c r="B28" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+      <c r="B29" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="B30" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="B31" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+      <c r="B32" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+      <c r="B33" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+      <c r="B34" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+      <c r="B35" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+      <c r="B36" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+      <c r="B37" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+      <c r="B38" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+      <c r="B39" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+      <c r="B40" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+      <c r="B41" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+      <c r="B42" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+      <c r="B43" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+      <c r="B44" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+      <c r="B45" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+      <c r="B46" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+      <c r="B47" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+      <c r="B48" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A49" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+      <c r="B49" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+      <c r="B50" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+      <c r="B51" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+      <c r="B52" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+      <c r="B53" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+      <c r="B54" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A55" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+      <c r="B55" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+      <c r="B56" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A57" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+      <c r="B57" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+      <c r="B58" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A59" s="2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+      <c r="B59" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A60" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+      <c r="B60" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A61" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+      <c r="B61" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A62" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+      <c r="B62" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A63" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+      <c r="B63" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+      <c r="B64" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+      <c r="B65" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+      <c r="B66" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="2" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+      <c r="B67" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+      <c r="B68" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+      <c r="B69" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
+      <c r="B70" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A71" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
+      <c r="B71" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A72" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
+      <c r="B72" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="2" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
+      <c r="B73" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="2" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
+      <c r="B74" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A75" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
+      <c r="B75" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
+      <c r="B76" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
+      <c r="B77" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A78" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
+      <c r="B78" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A79" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
+      <c r="B79" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
+      <c r="B80" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A81" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
+      <c r="B81" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A82" s="2" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
+      <c r="B82" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
+      <c r="B83" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A84" s="2" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
+      <c r="B84" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A85" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
+      <c r="B85" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A86" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
+      <c r="B86" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
+      <c r="B87" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
+      <c r="B88" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
+      <c r="B89" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
+      <c r="B90" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A91" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
+      <c r="B91" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" s="2" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
+      <c r="B92" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A93" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
+      <c r="B93" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A94" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
+      <c r="B94" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
+      <c r="B95" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
+      <c r="B96" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" s="2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
+      <c r="B97" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A98" s="2" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
+      <c r="B98" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A99" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A100" t="s">
+      <c r="B99" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
+      <c r="B100" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A101" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
+    <row r="102" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A102" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
+    <row r="103" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A103" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
+    <row r="104" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A104" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
+    <row r="105" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A105" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
+    <row r="106" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A106" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
+    <row r="107" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A107" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
+    <row r="108" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A108" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
+    <row r="110" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A110" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
+    <row r="111" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A111" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
+    <row r="112" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A112" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
+    <row r="113" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A113" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A114" t="s">
+    <row r="114" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A114" s="2" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A115" t="s">
+      <c r="A115" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A116" t="s">
+    <row r="116" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A116" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A117" t="s">
+    <row r="117" spans="1:1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A117" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A118" t="s">
+    <row r="118" spans="1:1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A118" s="2" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A119" t="s">
+      <c r="A119" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A120" t="s">
+    <row r="120" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A120" s="2" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A121" t="s">
+      <c r="A121" s="2" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A122" t="s">
+      <c r="A122" s="2" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A123" t="s">
+      <c r="A123" s="2" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A124" t="s">
+      <c r="A124" s="2" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A125" t="s">
+      <c r="A125" s="2" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A126" t="s">
+      <c r="A126" s="2" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A127" t="s">
+      <c r="A127" s="2" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A128" t="s">
+      <c r="A128" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A129" t="s">
+    <row r="129" spans="1:1" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A129" s="2" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A130" t="s">
+      <c r="A130" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A131" t="s">
+    <row r="131" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A131" s="2" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A132" t="s">
+      <c r="A132" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A133" t="s">
+    <row r="133" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A133" s="2" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A134" t="s">
+      <c r="A134" s="2" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A135" t="s">
+      <c r="A135" s="2" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A136" t="s">
+      <c r="A136" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A137" t="s">
+    <row r="137" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A137" s="2" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A138" t="s">
+      <c r="A138" s="2" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A139" t="s">
+      <c r="A139" s="2" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A140" t="s">
+      <c r="A140" s="2" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A141" t="s">
+      <c r="A141" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A142" t="s">
+    <row r="142" spans="1:1" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A142" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A143" t="s">
+    <row r="143" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A143" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A144" t="s">
+    <row r="144" spans="1:1" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A144" s="2" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A145" t="s">
+      <c r="A145" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A146" t="s">
+    <row r="146" spans="1:1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A146" s="2" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A147" t="s">
+      <c r="A147" s="2" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A148" t="s">
+      <c r="A148" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A149" t="s">
+    <row r="149" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A149" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A150" t="s">
+    <row r="150" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A150" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A151" t="s">
+    <row r="151" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A151" s="2" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A152" t="s">
+      <c r="A152" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A153" t="s">
+    <row r="153" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A153" s="2" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A154" t="s">
+      <c r="A154" s="2" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A155" t="s">
+      <c r="A155" s="2" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A156" t="s">
+      <c r="A156" s="2" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A157" t="s">
+      <c r="A157" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A158" t="s">
+    <row r="158" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A158" s="2" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A159" t="s">
+      <c r="A159" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A160" t="s">
+    <row r="160" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A160" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A161" t="s">
+    <row r="161" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A161" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A162" t="s">
+    <row r="162" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A162" s="2" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A163" t="s">
+      <c r="A163" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A164" t="s">
+    <row r="164" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A164" s="2" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A165" t="s">
+      <c r="A165" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A166" t="s">
+    <row r="166" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A166" s="2" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A167" t="s">
+      <c r="A167" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A168" t="s">
+    <row r="168" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A168" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A169" t="s">
+    <row r="169" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A169" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A170" t="s">
+    <row r="170" spans="1:1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A170" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A171" t="s">
+    <row r="171" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A171" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A172" t="s">
+    <row r="172" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A172" s="2" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A173" t="s">
+      <c r="A173" s="2" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A174" t="s">
+      <c r="A174" s="2" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A175" t="s">
+      <c r="A175" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A176" t="s">
+    <row r="176" spans="1:1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A176" s="2" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A177" t="s">
+      <c r="A177" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A178" t="s">
+    <row r="178" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A178" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A179" t="s">
+    <row r="179" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A179" s="2" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A180" t="s">
+      <c r="A180" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A181" t="s">
+    <row r="181" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A181" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A182" t="s">
+    <row r="182" spans="1:1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A182" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A183" t="s">
+    <row r="183" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A183" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A184" t="s">
+    <row r="184" spans="1:1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A184" s="2" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A185" t="s">
+      <c r="A185" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A186" t="s">
+    <row r="186" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A186" s="2" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A187" t="s">
+      <c r="A187" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A188" t="s">
+    <row r="188" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A188" s="2" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A189" t="s">
+      <c r="A189" s="2" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A190" t="s">
+      <c r="A190" s="2" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A191" t="s">
+      <c r="A191" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A192" t="s">
+    <row r="192" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A192" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A193" t="s">
+    <row r="193" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A193" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A194" t="s">
+    <row r="194" spans="1:1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A194" s="2" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A195" t="s">
+      <c r="A195" s="2" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A196" t="s">
+      <c r="A196" s="2" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A197" t="s">
+      <c r="A197" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A198" t="s">
+    <row r="198" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A198" s="2" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A199" t="s">
+      <c r="A199" s="2" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A200" t="s">
+      <c r="A200" s="2" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A201" t="s">
+      <c r="A201" s="2" t="s">
         <v>499</v>
       </c>
     </row>

--- a/SPTrans.xlsx
+++ b/SPTrans.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crazy\Documents\Projetos\P2_CD19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\André Luis Silva Lop\Documents\INSPER\twitter\P2_CD19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A834ABD-4247-4580-92F9-2ADE99237AC8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12A4726-DF05-479D-AC8A-5A7B76790A8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="502">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1688,9 +1687,6 @@
   </si>
   <si>
     <t>I</t>
-  </si>
-  <si>
-    <t>Classificacao</t>
   </si>
 </sst>
 </file>
@@ -2097,25 +2093,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2123,7 +2115,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2131,7 +2123,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2139,7 +2131,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2147,7 +2139,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2155,7 +2147,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2163,7 +2155,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2171,7 +2163,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2179,7 +2171,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2187,7 +2179,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2195,7 +2187,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="285" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2203,7 +2195,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2211,7 +2203,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2219,7 +2211,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2227,7 +2219,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2235,7 +2227,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" ht="360" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2243,7 +2235,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2251,7 +2243,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2259,7 +2251,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="228" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2267,7 +2259,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2275,7 +2267,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" ht="360" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2283,7 +2275,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2291,7 +2283,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2299,7 +2291,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2307,7 +2299,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="342" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2315,7 +2307,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2323,7 +2315,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2331,7 +2323,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2339,7 +2331,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2347,7 +2339,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2355,7 +2347,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2363,7 +2355,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2371,7 +2363,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -2379,7 +2371,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -2387,7 +2379,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -2395,7 +2387,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -2403,7 +2395,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="228" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -2411,7 +2403,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="285" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -2419,7 +2411,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -2427,7 +2419,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="228" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -2435,7 +2427,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -2443,7 +2435,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="285" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -2451,7 +2443,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -2459,7 +2451,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -2467,7 +2459,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -2475,7 +2467,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -2483,7 +2475,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -2491,7 +2483,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -2499,7 +2491,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -2507,7 +2499,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="342" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -2515,7 +2507,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -2523,7 +2515,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -2531,7 +2523,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -2539,7 +2531,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -2547,7 +2539,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -2555,7 +2547,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -2563,7 +2555,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -2571,7 +2563,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -2579,7 +2571,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -2587,7 +2579,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -2595,7 +2587,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -2603,7 +2595,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="285" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -2611,7 +2603,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -2619,7 +2611,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -2627,7 +2619,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -2635,7 +2627,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -2643,7 +2635,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -2651,7 +2643,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -2659,7 +2651,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -2667,7 +2659,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -2675,7 +2667,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="228" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -2683,7 +2675,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -2691,7 +2683,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="228" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -2699,7 +2691,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -2707,7 +2699,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -2715,7 +2707,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -2723,7 +2715,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -2731,7 +2723,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -2739,7 +2731,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="285" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -2747,7 +2739,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -2755,7 +2747,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" ht="360" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -2763,7 +2755,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -2771,7 +2763,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -2779,7 +2771,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -2787,7 +2779,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -2795,7 +2787,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -2803,7 +2795,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -2811,7 +2803,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="342" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" ht="360" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -2819,7 +2811,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -2827,7 +2819,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -2835,7 +2827,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -2843,7 +2835,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -2851,7 +2843,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -2859,7 +2851,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -2867,7 +2859,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -2875,7 +2867,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -2883,7 +2875,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -2891,7 +2883,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -2899,7 +2891,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="342" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" ht="360" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -2907,7 +2899,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="285" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -2915,7 +2907,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -2923,7 +2915,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -2931,7 +2923,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="342" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" ht="360" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -2939,7 +2931,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -2947,7 +2939,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -2955,7 +2947,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="342" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -2963,7 +2955,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -2971,7 +2963,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -2979,7 +2971,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -2987,7 +2979,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="228" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -2995,7 +2987,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -3003,7 +2995,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
@@ -3011,7 +3003,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
@@ -3019,7 +3011,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
@@ -3027,7 +3019,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="228" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
@@ -3035,7 +3027,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -3043,7 +3035,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -3051,7 +3043,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -3059,7 +3051,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -3067,7 +3059,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
@@ -3075,7 +3067,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -3083,7 +3075,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -3091,7 +3083,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -3099,7 +3091,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
@@ -3107,7 +3099,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
@@ -3115,7 +3107,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -3123,7 +3115,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
@@ -3131,7 +3123,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -3139,7 +3131,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
@@ -3147,7 +3139,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -3155,7 +3147,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -3163,7 +3155,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -3171,7 +3163,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -3179,7 +3171,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -3187,7 +3179,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -3195,7 +3187,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -3203,7 +3195,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -3211,7 +3203,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
@@ -3219,7 +3211,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
@@ -3227,7 +3219,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
@@ -3235,7 +3227,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
@@ -3243,7 +3235,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
@@ -3251,7 +3243,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
@@ -3259,7 +3251,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
@@ -3267,7 +3259,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
@@ -3275,7 +3267,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
@@ -3283,7 +3275,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -3291,7 +3283,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -3299,7 +3291,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -3307,1206 +3299,754 @@
         <v>500</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B151" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    </row>
+    <row r="152" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B152" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="153" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B153" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+    </row>
+    <row r="154" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B154" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="155" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B155" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="156" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B156" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    </row>
+    <row r="157" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B157" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    </row>
+    <row r="158" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B158" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="159" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B159" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="160" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B160" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="161" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B161" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="162" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B162" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="163" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B163" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    </row>
+    <row r="164" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B164" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="165" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B165" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="166" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B166" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="167" spans="1:1" ht="288" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B167" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    </row>
+    <row r="168" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B168" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+    </row>
+    <row r="169" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B169" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="342" x14ac:dyDescent="0.45">
+    </row>
+    <row r="170" spans="1:1" ht="360" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B170" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="171" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B171" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="172" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B172" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="173" spans="1:1" ht="144" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B173" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="174" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B174" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="175" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B175" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="176" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B176" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="177" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B177" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="178" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B178" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+    </row>
+    <row r="179" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B179" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="370.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="180" spans="1:1" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B180" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="181" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B181" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="182" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B182" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="183" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B183" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+    </row>
+    <row r="184" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B184" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+    </row>
+    <row r="185" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B185" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="186" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B186" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="187" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B187" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="188" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B188" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="189" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B189" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="190" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B190" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="191" spans="1:1" ht="144" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B191" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="192" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B192" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="193" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B193" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="194" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B194" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="195" spans="1:1" ht="144" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B195" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="196" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B196" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="197" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B197" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="198" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B198" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="199" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B199" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="200" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B200" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="201" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B201" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+    </row>
+    <row r="202" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B202" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    </row>
+    <row r="203" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B203" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="204" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+    </row>
+    <row r="205" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B205" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="206" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B206" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="207" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B208" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="209" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B209" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="342" x14ac:dyDescent="0.45">
+    </row>
+    <row r="210" spans="1:1" ht="360" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B210" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="211" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B211" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="212" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B212" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="213" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B213" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="214" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B214" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="215" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B215" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="216" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B216" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="217" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B217" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+    </row>
+    <row r="218" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B218" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="219" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B219" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="220" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B220" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="342" x14ac:dyDescent="0.45">
+    </row>
+    <row r="221" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B221" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+    </row>
+    <row r="222" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B222" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="223" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B223" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+    </row>
+    <row r="224" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B224" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="225" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="226" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B226" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="227" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B227" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="228" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B228" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    </row>
+    <row r="229" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B229" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+    </row>
+    <row r="230" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B230" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="231" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B231" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+    </row>
+    <row r="232" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B232" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="233" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B233" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="234" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B234" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="235" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B235" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="236" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B236" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="237" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B237" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="238" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B238" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="239" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B239" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="240" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B240" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="241" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B241" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="242" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B242" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="243" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B243" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="244" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B244" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+    </row>
+    <row r="245" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B245" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="246" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B246" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="247" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B247" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="248" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B248" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="249" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B249" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="250" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B250" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="251" spans="1:1" ht="288" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B251" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="252" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B252" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="253" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B253" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="254" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B254" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" ht="228" x14ac:dyDescent="0.45">
+    </row>
+    <row r="255" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B255" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="256" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B256" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="257" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B257" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="258" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B258" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="259" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B259" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" ht="228" x14ac:dyDescent="0.45">
+    </row>
+    <row r="260" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B260" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    </row>
+    <row r="261" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B261" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" ht="342" x14ac:dyDescent="0.45">
+    </row>
+    <row r="262" spans="1:1" ht="360" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B262" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="263" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B263" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="264" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B264" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="265" spans="1:1" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B265" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="266" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B266" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+    </row>
+    <row r="267" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B267" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="268" spans="1:1" ht="144" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B268" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="269" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B269" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="270" spans="1:1" ht="144" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B270" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="271" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B271" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="272" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B272" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="273" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B273" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="274" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B274" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="275" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B275" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="276" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B276" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="277" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B277" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" ht="228" x14ac:dyDescent="0.45">
+    </row>
+    <row r="278" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B278" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="279" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B279" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+    </row>
+    <row r="280" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B280" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="281" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B281" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" ht="228" x14ac:dyDescent="0.45">
+    </row>
+    <row r="282" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B282" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="283" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B283" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="284" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B284" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="285" spans="1:1" ht="288" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B285" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="286" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B286" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="287" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B287" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" ht="228" x14ac:dyDescent="0.45">
+    </row>
+    <row r="288" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B288" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="289" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B289" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="290" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B290" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="291" spans="1:1" ht="288" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B291" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="292" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B292" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" ht="342" x14ac:dyDescent="0.45">
+    </row>
+    <row r="293" spans="1:1" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B293" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B294" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" ht="285" x14ac:dyDescent="0.45">
+    </row>
+    <row r="295" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B295" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+    </row>
+    <row r="296" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B296" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="297" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B297" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="298" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B298" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="299" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B299" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="300" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B300" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="301" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="B301" t="s">
-        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -4518,25 +4058,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="111.6640625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>301</v>
       </c>
@@ -4544,7 +4080,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>302</v>
       </c>
@@ -4552,7 +4088,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>303</v>
       </c>
@@ -4560,15 +4096,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>305</v>
       </c>
@@ -4576,7 +4112,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>306</v>
       </c>
@@ -4584,7 +4120,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>307</v>
       </c>
@@ -4592,7 +4128,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>308</v>
       </c>
@@ -4600,7 +4136,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>309</v>
       </c>
@@ -4608,7 +4144,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>310</v>
       </c>
@@ -4616,7 +4152,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>311</v>
       </c>
@@ -4624,7 +4160,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>312</v>
       </c>
@@ -4632,15 +4168,15 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>313</v>
       </c>
       <c r="B14" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>314</v>
       </c>
@@ -4648,23 +4184,23 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>315</v>
       </c>
       <c r="B16" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B17" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>317</v>
       </c>
@@ -4672,15 +4208,12 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B19" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>319</v>
       </c>
@@ -4688,7 +4221,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>320</v>
       </c>
@@ -4696,7 +4229,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>321</v>
       </c>
@@ -4704,7 +4237,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>322</v>
       </c>
@@ -4712,7 +4245,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>323</v>
       </c>
@@ -4720,31 +4253,31 @@
         <v>501</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>324</v>
       </c>
       <c r="B25" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>325</v>
       </c>
       <c r="B26" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B27" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>327</v>
       </c>
@@ -4752,7 +4285,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>328</v>
       </c>
@@ -4760,15 +4293,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B30" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>330</v>
       </c>
@@ -4776,7 +4309,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>331</v>
       </c>
@@ -4784,7 +4317,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>332</v>
       </c>
@@ -4792,7 +4325,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>333</v>
       </c>
@@ -4800,7 +4333,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>334</v>
       </c>
@@ -4808,15 +4341,12 @@
         <v>501</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B36" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>336</v>
       </c>
@@ -4824,15 +4354,15 @@
         <v>501</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>337</v>
       </c>
       <c r="B38" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>338</v>
       </c>
@@ -4840,7 +4370,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>339</v>
       </c>
@@ -4848,7 +4378,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>340</v>
       </c>
@@ -4856,15 +4386,15 @@
         <v>501</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>341</v>
       </c>
       <c r="B42" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>342</v>
       </c>
@@ -4872,7 +4402,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>343</v>
       </c>
@@ -4880,7 +4410,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>344</v>
       </c>
@@ -4888,15 +4418,15 @@
         <v>501</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>345</v>
       </c>
       <c r="B46" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>346</v>
       </c>
@@ -4904,7 +4434,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>347</v>
       </c>
@@ -4912,15 +4442,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>348</v>
       </c>
       <c r="B49" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>349</v>
       </c>
@@ -4928,7 +4458,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>350</v>
       </c>
@@ -4936,7 +4466,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>351</v>
       </c>
@@ -4944,7 +4474,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>352</v>
       </c>
@@ -4952,7 +4482,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>353</v>
       </c>
@@ -4960,7 +4490,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>354</v>
       </c>
@@ -4968,7 +4498,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>355</v>
       </c>
@@ -4976,7 +4506,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>356</v>
       </c>
@@ -4984,15 +4514,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B58" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>358</v>
       </c>
@@ -5000,7 +4530,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>359</v>
       </c>
@@ -5008,7 +4538,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>360</v>
       </c>
@@ -5016,7 +4546,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>361</v>
       </c>
@@ -5024,7 +4554,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>362</v>
       </c>
@@ -5032,7 +4562,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>363</v>
       </c>
@@ -5040,7 +4570,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>364</v>
       </c>
@@ -5048,7 +4578,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>365</v>
       </c>
@@ -5056,7 +4586,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>366</v>
       </c>
@@ -5064,7 +4594,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>367</v>
       </c>
@@ -5072,7 +4602,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>368</v>
       </c>
@@ -5080,7 +4610,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>369</v>
       </c>
@@ -5088,15 +4618,15 @@
         <v>501</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>370</v>
       </c>
       <c r="B71" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="360" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>371</v>
       </c>
@@ -5104,7 +4634,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>372</v>
       </c>
@@ -5112,7 +4642,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>373</v>
       </c>
@@ -5120,7 +4650,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>374</v>
       </c>
@@ -5128,7 +4658,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>375</v>
       </c>
@@ -5136,7 +4666,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>376</v>
       </c>
@@ -5144,7 +4674,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>377</v>
       </c>
@@ -5152,7 +4682,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>378</v>
       </c>
@@ -5160,7 +4690,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>379</v>
       </c>
@@ -5168,15 +4698,15 @@
         <v>501</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>380</v>
       </c>
       <c r="B81" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>381</v>
       </c>
@@ -5184,7 +4714,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>382</v>
       </c>
@@ -5192,15 +4722,15 @@
         <v>501</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>383</v>
       </c>
       <c r="B84" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>384</v>
       </c>
@@ -5208,7 +4738,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" ht="360" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>385</v>
       </c>
@@ -5216,7 +4746,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>386</v>
       </c>
@@ -5224,15 +4754,15 @@
         <v>501</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>387</v>
       </c>
       <c r="B88" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>388</v>
       </c>
@@ -5240,7 +4770,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>389</v>
       </c>
@@ -5248,15 +4778,15 @@
         <v>501</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>390</v>
       </c>
       <c r="B91" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>391</v>
       </c>
@@ -5264,15 +4794,15 @@
         <v>501</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>392</v>
       </c>
       <c r="B93" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>393</v>
       </c>
@@ -5280,7 +4810,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>394</v>
       </c>
@@ -5288,7 +4818,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>395</v>
       </c>
@@ -5296,7 +4826,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>396</v>
       </c>
@@ -5304,7 +4834,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>397</v>
       </c>
@@ -5312,7 +4842,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>398</v>
       </c>
@@ -5320,7 +4850,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>399</v>
       </c>
@@ -5328,507 +4858,507 @@
         <v>501</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" ht="360" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="57" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" ht="216" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1" ht="360" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="57" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1" ht="288" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" ht="216" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:1" ht="144" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="57" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:1" ht="288" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:1" ht="216" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:1" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:1" ht="216" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="57" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:1" ht="360" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:1" ht="360" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:1" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="57" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:1" ht="216" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>499</v>
       </c>

--- a/SPTrans.xlsx
+++ b/SPTrans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\André Luis Silva Lop\Documents\INSPER\twitter\P2_CD19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crazy\Documents\Projetos\P2_CD19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12A4726-DF05-479D-AC8A-5A7B76790A8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E896E2EE-5C0F-46FD-931A-BFE572CD88AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="878" windowWidth="22478" windowHeight="13095" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="503">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1688,12 +1688,15 @@
   <si>
     <t>I</t>
   </si>
+  <si>
+    <t>Classificacao</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1703,6 +1706,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1745,7 +1756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1753,6 +1764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2093,21 +2105,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="G150" sqref="G150"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2115,7 +2131,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2123,7 +2139,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2131,7 +2147,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2139,7 +2155,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2147,7 +2163,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2155,7 +2171,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2163,7 +2179,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2171,7 +2187,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2179,7 +2195,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2187,7 +2203,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2195,7 +2211,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2203,7 +2219,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2211,7 +2227,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2219,7 +2235,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2227,7 +2243,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2235,7 +2251,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2243,7 +2259,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2251,7 +2267,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2259,7 +2275,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2267,7 +2283,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2275,7 +2291,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2283,7 +2299,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2291,7 +2307,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2299,7 +2315,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2307,7 +2323,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2315,7 +2331,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2323,7 +2339,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2331,7 +2347,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2339,7 +2355,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2347,7 +2363,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2355,7 +2371,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2363,7 +2379,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -2371,7 +2387,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -2379,7 +2395,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -2387,7 +2403,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -2395,7 +2411,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -2403,7 +2419,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -2411,7 +2427,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -2419,7 +2435,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -2427,7 +2443,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -2435,7 +2451,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -2443,7 +2459,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -2451,7 +2467,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -2459,7 +2475,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -2467,7 +2483,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -2475,7 +2491,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -2483,7 +2499,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -2491,7 +2507,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -2499,7 +2515,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -2507,7 +2523,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -2515,7 +2531,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -2523,7 +2539,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -2531,7 +2547,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -2539,7 +2555,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -2547,7 +2563,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -2555,7 +2571,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -2563,7 +2579,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -2571,7 +2587,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -2579,7 +2595,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -2587,7 +2603,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -2595,7 +2611,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -2603,7 +2619,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -2611,7 +2627,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -2619,7 +2635,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -2627,7 +2643,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -2635,7 +2651,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -2643,7 +2659,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -2651,7 +2667,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -2659,7 +2675,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -2667,7 +2683,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -2675,7 +2691,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -2683,7 +2699,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -2691,7 +2707,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -2699,7 +2715,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -2707,7 +2723,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -2715,7 +2731,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -2723,7 +2739,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -2731,7 +2747,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -2739,7 +2755,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -2747,7 +2763,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -2755,7 +2771,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -2763,7 +2779,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -2771,7 +2787,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -2779,7 +2795,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -2787,7 +2803,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -2795,7 +2811,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -2803,7 +2819,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -2811,7 +2827,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -2819,7 +2835,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -2827,7 +2843,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -2835,7 +2851,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -2843,7 +2859,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -2851,7 +2867,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -2859,7 +2875,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -2867,7 +2883,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -2875,7 +2891,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="384.75" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -2883,7 +2899,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -2891,7 +2907,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -2899,7 +2915,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -2907,7 +2923,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -2915,7 +2931,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -2923,7 +2939,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -2931,7 +2947,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -2939,7 +2955,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -2947,7 +2963,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -2955,7 +2971,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -2963,7 +2979,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -2971,7 +2987,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -2979,7 +2995,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -2987,7 +3003,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -2995,7 +3011,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
@@ -3003,7 +3019,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
@@ -3011,7 +3027,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
@@ -3019,7 +3035,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
@@ -3027,7 +3043,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -3035,7 +3051,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -3043,7 +3059,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -3051,7 +3067,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -3059,7 +3075,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
@@ -3067,7 +3083,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -3075,7 +3091,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -3083,7 +3099,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -3091,7 +3107,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
@@ -3099,7 +3115,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
@@ -3107,7 +3123,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -3115,7 +3131,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
@@ -3123,7 +3139,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -3131,7 +3147,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
@@ -3139,7 +3155,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="370.5" x14ac:dyDescent="0.45">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -3147,7 +3163,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -3155,7 +3171,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -3163,7 +3179,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -3171,7 +3187,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -3179,7 +3195,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -3187,7 +3203,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -3195,7 +3211,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -3203,7 +3219,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
@@ -3211,7 +3227,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
@@ -3219,7 +3235,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
@@ -3227,7 +3243,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
@@ -3235,7 +3251,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
@@ -3243,7 +3259,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
@@ -3251,7 +3267,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
@@ -3259,7 +3275,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
@@ -3267,7 +3283,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
@@ -3275,7 +3291,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -3283,7 +3299,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -3291,7 +3307,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -3299,754 +3315,1209 @@
         <v>500</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" ht="360" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" ht="144" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="370.5" x14ac:dyDescent="0.45">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" ht="144" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" ht="144" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B201" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B202" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B203" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B204" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B207" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" ht="360" x14ac:dyDescent="0.3">
+      <c r="B209" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="B210" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B211" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B213" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="B214" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B215" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B216" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B217" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B218" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B219" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B221" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B222" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B223" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B224" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B225" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B226" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B227" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B228" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B229" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B230" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B231" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B232" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B233" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B234" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B235" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B236" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="B237" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B238" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B239" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B240" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B241" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B242" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B243" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B244" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B245" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B246" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B247" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B248" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B249" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+      <c r="B250" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="B251" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B252" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B253" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B254" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B255" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B256" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B257" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B258" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B259" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B260" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" ht="360" x14ac:dyDescent="0.3">
+      <c r="B261" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B262" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B263" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="B264" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B265" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B266" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" ht="144" x14ac:dyDescent="0.3">
+      <c r="B267" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B268" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" ht="144" x14ac:dyDescent="0.3">
+      <c r="B269" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="B270" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B271" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="B272" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="B273" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B274" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B275" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B276" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B277" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B278" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B279" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="B280" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B281" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B282" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B283" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+      <c r="B284" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B285" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="B286" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B287" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B288" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B289" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+      <c r="B290" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B291" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="B292" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B293" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B294" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A295" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B295" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A296" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B296" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A297" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B297" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A298" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B298" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A299" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B299" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A300" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B300" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A301" s="2" t="s">
         <v>299</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -4056,23 +4527,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>301</v>
       </c>
@@ -4080,7 +4555,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>302</v>
       </c>
@@ -4088,7 +4563,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>303</v>
       </c>
@@ -4096,7 +4571,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>304</v>
       </c>
@@ -4104,7 +4579,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>305</v>
       </c>
@@ -4112,7 +4587,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>306</v>
       </c>
@@ -4120,7 +4595,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>307</v>
       </c>
@@ -4128,7 +4603,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>308</v>
       </c>
@@ -4136,7 +4611,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>309</v>
       </c>
@@ -4144,7 +4619,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>310</v>
       </c>
@@ -4152,7 +4627,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>311</v>
       </c>
@@ -4160,7 +4635,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>312</v>
       </c>
@@ -4168,7 +4643,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>313</v>
       </c>
@@ -4176,7 +4651,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>314</v>
       </c>
@@ -4184,7 +4659,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>315</v>
       </c>
@@ -4192,7 +4667,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>316</v>
       </c>
@@ -4200,7 +4675,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>317</v>
       </c>
@@ -4208,12 +4683,12 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>319</v>
       </c>
@@ -4221,7 +4696,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>320</v>
       </c>
@@ -4229,7 +4704,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>321</v>
       </c>
@@ -4237,7 +4712,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>322</v>
       </c>
@@ -4245,7 +4720,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>323</v>
       </c>
@@ -4253,7 +4728,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>324</v>
       </c>
@@ -4261,7 +4736,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>325</v>
       </c>
@@ -4269,7 +4744,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>326</v>
       </c>
@@ -4277,7 +4752,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>327</v>
       </c>
@@ -4285,7 +4760,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>328</v>
       </c>
@@ -4293,7 +4768,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>329</v>
       </c>
@@ -4301,7 +4776,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>330</v>
       </c>
@@ -4309,7 +4784,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>331</v>
       </c>
@@ -4317,7 +4792,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>332</v>
       </c>
@@ -4325,7 +4800,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>333</v>
       </c>
@@ -4333,7 +4808,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>334</v>
       </c>
@@ -4341,12 +4816,12 @@
         <v>501</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>336</v>
       </c>
@@ -4354,7 +4829,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>337</v>
       </c>
@@ -4362,7 +4837,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>338</v>
       </c>
@@ -4370,7 +4845,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>339</v>
       </c>
@@ -4378,7 +4853,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>340</v>
       </c>
@@ -4386,7 +4861,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>341</v>
       </c>
@@ -4394,7 +4869,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>342</v>
       </c>
@@ -4402,7 +4877,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>343</v>
       </c>
@@ -4410,7 +4885,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>344</v>
       </c>
@@ -4418,7 +4893,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>345</v>
       </c>
@@ -4426,7 +4901,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>346</v>
       </c>
@@ -4434,7 +4909,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>347</v>
       </c>
@@ -4442,7 +4917,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>348</v>
       </c>
@@ -4450,7 +4925,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>349</v>
       </c>
@@ -4458,7 +4933,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>350</v>
       </c>
@@ -4466,7 +4941,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>351</v>
       </c>
@@ -4474,7 +4949,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>352</v>
       </c>
@@ -4482,7 +4957,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>353</v>
       </c>
@@ -4490,7 +4965,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>354</v>
       </c>
@@ -4498,7 +4973,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>355</v>
       </c>
@@ -4506,7 +4981,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>356</v>
       </c>
@@ -4514,7 +4989,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>357</v>
       </c>
@@ -4522,7 +4997,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>358</v>
       </c>
@@ -4530,7 +5005,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>359</v>
       </c>
@@ -4538,7 +5013,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>360</v>
       </c>
@@ -4546,7 +5021,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>361</v>
       </c>
@@ -4554,7 +5029,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>362</v>
       </c>
@@ -4562,7 +5037,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>363</v>
       </c>
@@ -4570,7 +5045,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>364</v>
       </c>
@@ -4578,7 +5053,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>365</v>
       </c>
@@ -4586,7 +5061,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>366</v>
       </c>
@@ -4594,7 +5069,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>367</v>
       </c>
@@ -4602,7 +5077,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>368</v>
       </c>
@@ -4610,7 +5085,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>369</v>
       </c>
@@ -4618,7 +5093,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>370</v>
       </c>
@@ -4626,7 +5101,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>371</v>
       </c>
@@ -4634,7 +5109,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>372</v>
       </c>
@@ -4642,7 +5117,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>373</v>
       </c>
@@ -4650,7 +5125,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>374</v>
       </c>
@@ -4658,7 +5133,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>375</v>
       </c>
@@ -4666,7 +5141,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>376</v>
       </c>
@@ -4674,7 +5149,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>377</v>
       </c>
@@ -4682,7 +5157,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>378</v>
       </c>
@@ -4690,7 +5165,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>379</v>
       </c>
@@ -4698,7 +5173,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>380</v>
       </c>
@@ -4706,7 +5181,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>381</v>
       </c>
@@ -4714,7 +5189,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
         <v>382</v>
       </c>
@@ -4722,7 +5197,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
         <v>383</v>
       </c>
@@ -4730,7 +5205,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="370.5" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
         <v>384</v>
       </c>
@@ -4738,7 +5213,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
         <v>385</v>
       </c>
@@ -4746,7 +5221,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
         <v>386</v>
       </c>
@@ -4754,7 +5229,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
         <v>387</v>
       </c>
@@ -4762,7 +5237,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
         <v>388</v>
       </c>
@@ -4770,7 +5245,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
         <v>389</v>
       </c>
@@ -4778,7 +5253,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
         <v>390</v>
       </c>
@@ -4786,7 +5261,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
         <v>391</v>
       </c>
@@ -4794,7 +5269,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>392</v>
       </c>
@@ -4802,7 +5277,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
         <v>393</v>
       </c>
@@ -4810,7 +5285,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
         <v>394</v>
       </c>
@@ -4818,7 +5293,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
         <v>395</v>
       </c>
@@ -4826,7 +5301,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>396</v>
       </c>
@@ -4834,7 +5309,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
         <v>397</v>
       </c>
@@ -4842,7 +5317,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
         <v>398</v>
       </c>
@@ -4850,7 +5325,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
         <v>399</v>
       </c>
@@ -4858,510 +5333,816 @@
         <v>501</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A107" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A110" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A113" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A114" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" ht="360" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A119" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A121" s="2" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A122" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A123" s="2" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A125" s="2" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A126" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A127" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" ht="216" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A128" s="2" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A129" s="2" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A130" s="2" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A131" s="2" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A132" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A133" s="2" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A134" s="2" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A135" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A136" s="2" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" ht="360" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A137" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A138" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A139" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A140" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A141" s="2" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A142" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A143" s="2" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A144" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A145" s="2" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A146" s="2" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A147" s="2" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A148" s="2" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A149" s="2" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A150" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A152" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A153" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A154" s="2" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" ht="216" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A155" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A156" s="2" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A157" s="2" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A158" s="2" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A159" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A160" s="2" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A161" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A162" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" ht="144" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A163" s="2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A164" s="2" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A165" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A166" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A167" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A168" s="2" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A169" s="2" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A170" s="2" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" ht="216" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A171" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A172" s="2" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" ht="216" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A173" s="2" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A174" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A175" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" ht="360" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A176" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A177" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" ht="360" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A178" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A179" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A180" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A181" s="2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A182" s="2" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="A183" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A184" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A185" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A186" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A187" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A188" s="2" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A189" s="2" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A190" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A191" s="2" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A192" s="2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A193" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A194" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" ht="216" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A195" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A196" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A197" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A198" s="2" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A199" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A200" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A201" s="2" t="s">
         <v>499</v>
       </c>
+      <c r="B201" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B202" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
